--- a/FC_figure_bank/Protein + mRNALossAccDF.xlsx
+++ b/FC_figure_bank/Protein + mRNALossAccDF.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E202"/>
+  <dimension ref="A1:E502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,16 +465,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.02113841157839742</v>
+        <v>0.1724417081309689</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02098878449760377</v>
+        <v>0.1723108121326991</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07485849917838233</v>
+        <v>0.09785932721712538</v>
       </c>
       <c r="E2" t="n">
-        <v>0.07549120992761117</v>
+        <v>0.09900990099009901</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.02107086134424736</v>
+        <v>0.1690233300129572</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02075058547779918</v>
+        <v>0.1662829262869699</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07485849917838233</v>
+        <v>0.1716906946264744</v>
       </c>
       <c r="E3" t="n">
-        <v>0.07549120992761117</v>
+        <v>0.2821782178217822</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0207857702923722</v>
+        <v>0.1639471095469263</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02035415708087385</v>
+        <v>0.1647688916751317</v>
       </c>
       <c r="D4" t="n">
-        <v>0.08106627715902867</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E4" t="n">
-        <v>0.08686659772492245</v>
+        <v>0.2846534653465346</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.02032266466250253</v>
+        <v>0.1624738276004791</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01976105198264122</v>
+        <v>0.1643813422748021</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1446047106079971</v>
+        <v>0.2861511577107907</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1923474663908997</v>
+        <v>0.2846534653465346</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.01980389795417703</v>
+        <v>0.1620094138715002</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01929733745055273</v>
+        <v>0.1635996550321579</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1968230783275516</v>
+        <v>0.3202271734381826</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2171664943123061</v>
+        <v>0.3564356435643564</v>
       </c>
     </row>
     <row r="7">
@@ -550,16 +550,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.01951989570502625</v>
+        <v>0.1612241847647561</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01901713642291725</v>
+        <v>0.1627874757562365</v>
       </c>
       <c r="D7" t="n">
-        <v>0.210334124520723</v>
+        <v>0.3739624290083006</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2088934850051706</v>
+        <v>0.4455445544554456</v>
       </c>
     </row>
     <row r="8">
@@ -567,16 +567,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.01929580472236456</v>
+        <v>0.1603561581836807</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0187624521786347</v>
+        <v>0.1620687310184751</v>
       </c>
       <c r="D8" t="n">
-        <v>0.21599415738543</v>
+        <v>0.4233289646133683</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2285418821096174</v>
+        <v>0.3341584158415842</v>
       </c>
     </row>
     <row r="9">
@@ -584,16 +584,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.01918099074472868</v>
+        <v>0.1589976511895657</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01864252687664703</v>
+        <v>0.1603355939899172</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2322439291582983</v>
+        <v>0.4071647007426824</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2388831437435367</v>
+        <v>0.4282178217821782</v>
       </c>
     </row>
     <row r="10">
@@ -601,16 +601,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.01901474289682716</v>
+        <v>0.1572040302885903</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01853603048948571</v>
+        <v>0.1589357533625194</v>
       </c>
       <c r="D10" t="n">
-        <v>0.233156837684864</v>
+        <v>0.4276976845784185</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2512926577042399</v>
+        <v>0.4678217821782178</v>
       </c>
     </row>
     <row r="11">
@@ -618,16 +618,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.01896200775233812</v>
+        <v>0.1560499982701408</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01841834001243114</v>
+        <v>0.1572788379022053</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2641957275880957</v>
+        <v>0.4512887723896898</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2574974146845915</v>
+        <v>0.452970297029703</v>
       </c>
     </row>
     <row r="12">
@@ -635,16 +635,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0188359537075252</v>
+        <v>0.153817014147838</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0184147980180569</v>
+        <v>0.1555269935301372</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2645608909987219</v>
+        <v>0.4560943643512451</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2978283350568769</v>
+        <v>0.4678217821782178</v>
       </c>
     </row>
     <row r="13">
@@ -652,16 +652,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.01882887888309914</v>
+        <v>0.1523637796441714</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01830235752277076</v>
+        <v>0.1551372430154256</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2815409895928428</v>
+        <v>0.4648318042813456</v>
       </c>
       <c r="E13" t="n">
-        <v>0.280248190279214</v>
+        <v>0.3836633663366337</v>
       </c>
     </row>
     <row r="14">
@@ -669,16 +669,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.01881492607901956</v>
+        <v>0.1507918180690871</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0182858967455104</v>
+        <v>0.1525989004543849</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2912178199744386</v>
+        <v>0.4753167321974661</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2740434332988624</v>
+        <v>0.4653465346534654</v>
       </c>
     </row>
     <row r="15">
@@ -686,16 +686,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.01865444782861444</v>
+        <v>0.1496707217560874</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01858630357310176</v>
+        <v>0.153838432260922</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2914004016797517</v>
+        <v>0.4740061162079511</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3464322647362978</v>
+        <v>0.3886138613861386</v>
       </c>
     </row>
     <row r="16">
@@ -703,16 +703,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.01867755478637856</v>
+        <v>0.1489557011259927</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01839832705445588</v>
+        <v>0.1507546114070075</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3180573306554683</v>
+        <v>0.4770642201834863</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2409513960703206</v>
+        <v>0.4752475247524752</v>
       </c>
     </row>
     <row r="17">
@@ -720,16 +720,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.01869286387768942</v>
+        <v>0.147717610001564</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0182601364213042</v>
+        <v>0.1502824148961476</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3012598137666606</v>
+        <v>0.4814329401485365</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2978283350568769</v>
+        <v>0.4702970297029703</v>
       </c>
     </row>
     <row r="18">
@@ -737,16 +737,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.01861927487216023</v>
+        <v>0.1466630713807212</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01828314521117136</v>
+        <v>0.1494441160133907</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3164140953076502</v>
+        <v>0.4875491480996068</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2771458117890382</v>
+        <v>0.4851485148514851</v>
       </c>
     </row>
     <row r="19">
@@ -754,16 +754,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.01853968500874417</v>
+        <v>0.1461028812660111</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01834129600320011</v>
+        <v>0.1502410897186824</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3134927880226401</v>
+        <v>0.4853647881170817</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2730093071354705</v>
+        <v>0.4232673267326733</v>
       </c>
     </row>
     <row r="20">
@@ -771,16 +771,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.01852096249024535</v>
+        <v>0.1456322243644131</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01818555383943021</v>
+        <v>0.1480865435940879</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3198831477085996</v>
+        <v>0.4945391000436872</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2905894519131334</v>
+        <v>0.4975247524752475</v>
       </c>
     </row>
     <row r="21">
@@ -788,16 +788,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.01852349492959505</v>
+        <v>0.1448686770680878</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01817114109871909</v>
+        <v>0.1477260334151132</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3165966770129633</v>
+        <v>0.4941022280471822</v>
       </c>
       <c r="E21" t="n">
-        <v>0.312306101344364</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22">
@@ -805,16 +805,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.01849931248918522</v>
+        <v>0.1447561809586154</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01823918003356084</v>
+        <v>0.1471226683684758</v>
       </c>
       <c r="D22" t="n">
-        <v>0.330472886616761</v>
+        <v>0.5010921799912625</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3536711478800414</v>
+        <v>0.4900990099009901</v>
       </c>
     </row>
     <row r="23">
@@ -822,16 +822,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.01844639634323674</v>
+        <v>0.1436413551370303</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0182104948326014</v>
+        <v>0.146916783281735</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3228044549936097</v>
+        <v>0.4980340760157274</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3288521199586349</v>
+        <v>0.495049504950495</v>
       </c>
     </row>
     <row r="24">
@@ -839,16 +839,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.01848210550324862</v>
+        <v>0.1435171870721711</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01820967963431031</v>
+        <v>0.1470968084675925</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3352200109549023</v>
+        <v>0.4945391000436872</v>
       </c>
       <c r="E24" t="n">
-        <v>0.281282316442606</v>
+        <v>0.4356435643564356</v>
       </c>
     </row>
     <row r="25">
@@ -856,16 +856,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.01847664377283911</v>
+        <v>0.143208682951</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01819475030060858</v>
+        <v>0.1460112354585103</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3211612196457915</v>
+        <v>0.4962865880297073</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3422957600827301</v>
+        <v>0.4777227722772277</v>
       </c>
     </row>
     <row r="26">
@@ -873,16 +873,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.01846410857167008</v>
+        <v>0.1423335284408596</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01824888231931254</v>
+        <v>0.1458187039409365</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3299251415008216</v>
+        <v>0.4997815640017475</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3360910031023785</v>
+        <v>0.4851485148514851</v>
       </c>
     </row>
     <row r="27">
@@ -890,16 +890,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.01840419817152758</v>
+        <v>0.1424570543070634</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01816721045179293</v>
+        <v>0.1456606047494071</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3226218732882965</v>
+        <v>0.4975972040192224</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3464322647362978</v>
+        <v>0.495049504950495</v>
       </c>
     </row>
     <row r="28">
@@ -907,16 +907,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0183661159041316</v>
+        <v>0.1426907574964894</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01826040638843551</v>
+        <v>0.1451553787503924</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3419755340514881</v>
+        <v>0.4801223241590214</v>
       </c>
       <c r="E28" t="n">
-        <v>0.2833505687693899</v>
+        <v>0.504950495049505</v>
       </c>
     </row>
     <row r="29">
@@ -924,16 +924,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.01841061462669872</v>
+        <v>0.1418068630413877</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01819123257882893</v>
+        <v>0.1446823584181922</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3301077232061347</v>
+        <v>0.5015290519877675</v>
       </c>
       <c r="E29" t="n">
-        <v>0.2854188210961737</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="30">
@@ -941,16 +941,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.01848136074841022</v>
+        <v>0.1409326321962807</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01816539885476232</v>
+        <v>0.1446778816836221</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3213438013511046</v>
+        <v>0.5032765399737876</v>
       </c>
       <c r="E30" t="n">
-        <v>0.2895553257497415</v>
+        <v>0.4851485148514851</v>
       </c>
     </row>
     <row r="31">
@@ -958,16 +958,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.01842408071726907</v>
+        <v>0.140983289728562</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01818293117685243</v>
+        <v>0.1439649782010487</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3242651086361147</v>
+        <v>0.5041502839667977</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3350568769389866</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="32">
@@ -975,16 +975,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.01835410373805221</v>
+        <v>0.1407598118401236</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01815644680755213</v>
+        <v>0.1439603503261294</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3244476903414278</v>
+        <v>0.5024027959807776</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3464322647362978</v>
+        <v>0.504950495049505</v>
       </c>
     </row>
     <row r="33">
@@ -992,16 +992,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.01825310522690415</v>
+        <v>0.1408783768614133</v>
       </c>
       <c r="C33" t="n">
-        <v>0.01810610655229539</v>
+        <v>0.1437285095453262</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3348548475442761</v>
+        <v>0.5037134119702927</v>
       </c>
       <c r="E33" t="n">
-        <v>0.3205791106514995</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="34">
@@ -1009,16 +1009,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.01832406997117539</v>
+        <v>0.1403666051725546</v>
       </c>
       <c r="C34" t="n">
-        <v>0.01809854531893507</v>
+        <v>0.1435950717755727</v>
       </c>
       <c r="D34" t="n">
-        <v>0.324812853752054</v>
+        <v>0.5063346439493228</v>
       </c>
       <c r="E34" t="n">
-        <v>0.3309203722854188</v>
+        <v>0.5222772277227723</v>
       </c>
     </row>
     <row r="35">
@@ -1026,16 +1026,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.01831973272614008</v>
+        <v>0.1401927038613293</v>
       </c>
       <c r="C35" t="n">
-        <v>0.01809502730611712</v>
+        <v>0.1439280616385596</v>
       </c>
       <c r="D35" t="n">
-        <v>0.3299251415008216</v>
+        <v>0.4975972040192224</v>
       </c>
       <c r="E35" t="n">
-        <v>0.327817993795243</v>
+        <v>0.495049504950495</v>
       </c>
     </row>
     <row r="36">
@@ -1043,16 +1043,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.01828842200772014</v>
+        <v>0.140226992054118</v>
       </c>
       <c r="C36" t="n">
-        <v>0.01814242417458445</v>
+        <v>0.1431125732404845</v>
       </c>
       <c r="D36" t="n">
-        <v>0.3355851743655286</v>
+        <v>0.508519003931848</v>
       </c>
       <c r="E36" t="n">
-        <v>0.343329886246122</v>
+        <v>0.4900990099009901</v>
       </c>
     </row>
     <row r="37">
@@ -1060,16 +1060,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.018374812908384</v>
+        <v>0.1402403486685621</v>
       </c>
       <c r="C37" t="n">
-        <v>0.01813327590934932</v>
+        <v>0.1437156902892249</v>
       </c>
       <c r="D37" t="n">
-        <v>0.330472886616761</v>
+        <v>0.5050240279598078</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3029989658738366</v>
+        <v>0.4702970297029703</v>
       </c>
     </row>
     <row r="38">
@@ -1077,16 +1077,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.01832832105804321</v>
+        <v>0.1396815557446745</v>
       </c>
       <c r="C38" t="n">
-        <v>0.01822805486153811</v>
+        <v>0.1430931250963892</v>
       </c>
       <c r="D38" t="n">
-        <v>0.3344896841336498</v>
+        <v>0.5107033639143731</v>
       </c>
       <c r="E38" t="n">
-        <v>0.3660806618407446</v>
+        <v>0.5099009900990099</v>
       </c>
     </row>
     <row r="39">
@@ -1094,16 +1094,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.01825309605445973</v>
+        <v>0.1396299911042055</v>
       </c>
       <c r="C39" t="n">
-        <v>0.01837074675131589</v>
+        <v>0.1427461951971054</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3275515793317509</v>
+        <v>0.5146352118829183</v>
       </c>
       <c r="E39" t="n">
-        <v>0.3774560496380558</v>
+        <v>0.504950495049505</v>
       </c>
     </row>
     <row r="40">
@@ -1111,16 +1111,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.01832029460604454</v>
+        <v>0.138976020945443</v>
       </c>
       <c r="C40" t="n">
-        <v>0.01806082745315507</v>
+        <v>0.1424762670482908</v>
       </c>
       <c r="D40" t="n">
-        <v>0.339054226766478</v>
+        <v>0.5111402359108781</v>
       </c>
       <c r="E40" t="n">
-        <v>0.3267838676318511</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="41">
@@ -1128,16 +1128,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.01834112635358821</v>
+        <v>0.1393578737560246</v>
       </c>
       <c r="C41" t="n">
-        <v>0.01813973084790632</v>
+        <v>0.1428249116454806</v>
       </c>
       <c r="D41" t="n">
-        <v>0.3354025926602154</v>
+        <v>0.5102664919178681</v>
       </c>
       <c r="E41" t="n">
-        <v>0.3609100310237849</v>
+        <v>0.5024752475247525</v>
       </c>
     </row>
     <row r="42">
@@ -1145,16 +1145,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.01827275315516217</v>
+        <v>0.1391653842810127</v>
       </c>
       <c r="C42" t="n">
-        <v>0.01831198175204918</v>
+        <v>0.1424461986337389</v>
       </c>
       <c r="D42" t="n">
-        <v>0.3317509585539529</v>
+        <v>0.509829619921363</v>
       </c>
       <c r="E42" t="n">
-        <v>0.3805584281282317</v>
+        <v>0.5173267326732673</v>
       </c>
     </row>
     <row r="43">
@@ -1162,16 +1162,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.01823304079169797</v>
+        <v>0.1389684176279439</v>
       </c>
       <c r="C43" t="n">
-        <v>0.01807801646646112</v>
+        <v>0.141956729548318</v>
       </c>
       <c r="D43" t="n">
-        <v>0.339054226766478</v>
+        <v>0.5124508519003932</v>
       </c>
       <c r="E43" t="n">
-        <v>0.3154084798345398</v>
+        <v>0.4900990099009901</v>
       </c>
     </row>
     <row r="44">
@@ -1179,16 +1179,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.01825837889512958</v>
+        <v>0.1383780394163397</v>
       </c>
       <c r="C44" t="n">
-        <v>0.01810945163015276</v>
+        <v>0.1416586648140635</v>
       </c>
       <c r="D44" t="n">
-        <v>0.3432536059886799</v>
+        <v>0.5141983398864133</v>
       </c>
       <c r="E44" t="n">
-        <v>0.3164426059979317</v>
+        <v>0.5024752475247525</v>
       </c>
     </row>
     <row r="45">
@@ -1196,16 +1196,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.01827436062875529</v>
+        <v>0.1386532864222924</v>
       </c>
       <c r="C45" t="n">
-        <v>0.01810639369068667</v>
+        <v>0.1418740610991205</v>
       </c>
       <c r="D45" t="n">
-        <v>0.3343071024283367</v>
+        <v>0.5045871559633027</v>
       </c>
       <c r="E45" t="n">
-        <v>0.3774560496380558</v>
+        <v>0.5173267326732673</v>
       </c>
     </row>
     <row r="46">
@@ -1213,16 +1213,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.01817835728789485</v>
+        <v>0.1380452513694763</v>
       </c>
       <c r="C46" t="n">
-        <v>0.01806606474565342</v>
+        <v>0.1422593551022666</v>
       </c>
       <c r="D46" t="n">
-        <v>0.3534781814862151</v>
+        <v>0.5181301878549585</v>
       </c>
       <c r="E46" t="n">
-        <v>0.3092037228541882</v>
+        <v>0.4975247524752475</v>
       </c>
     </row>
     <row r="47">
@@ -1230,16 +1230,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.01820308696695192</v>
+        <v>0.1383675049162573</v>
       </c>
       <c r="C47" t="n">
-        <v>0.01810274971649051</v>
+        <v>0.1420081342969622</v>
       </c>
       <c r="D47" t="n">
-        <v>0.3268212525104984</v>
+        <v>0.5194408038444736</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3805584281282317</v>
+        <v>0.4876237623762376</v>
       </c>
     </row>
     <row r="48">
@@ -1247,16 +1247,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.01823578539932537</v>
+        <v>0.138466216209862</v>
       </c>
       <c r="C48" t="n">
-        <v>0.01804229477420449</v>
+        <v>0.1411464608141354</v>
       </c>
       <c r="D48" t="n">
-        <v>0.3585904692349827</v>
+        <v>0.5102664919178681</v>
       </c>
       <c r="E48" t="n">
-        <v>0.3422957600827301</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="49">
@@ -1264,16 +1264,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.01818504715121763</v>
+        <v>0.1380829080525372</v>
       </c>
       <c r="C49" t="n">
-        <v>0.01804859936237335</v>
+        <v>0.1419564400400434</v>
       </c>
       <c r="D49" t="n">
-        <v>0.3381413182399123</v>
+        <v>0.5146352118829183</v>
       </c>
       <c r="E49" t="n">
-        <v>0.3640124095139607</v>
+        <v>0.5024752475247525</v>
       </c>
     </row>
     <row r="50">
@@ -1281,16 +1281,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.01817846486648155</v>
+        <v>0.1375495009124279</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0181109489640221</v>
+        <v>0.1411287592990058</v>
       </c>
       <c r="D50" t="n">
-        <v>0.350556874201205</v>
+        <v>0.5124508519003932</v>
       </c>
       <c r="E50" t="n">
-        <v>0.3485005170630817</v>
+        <v>0.5173267326732673</v>
       </c>
     </row>
     <row r="51">
@@ -1298,16 +1298,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.01826561315981455</v>
+        <v>0.1376894586202171</v>
       </c>
       <c r="C51" t="n">
-        <v>0.01798538287403062</v>
+        <v>0.1411384088652474</v>
       </c>
       <c r="D51" t="n">
-        <v>0.3438013511046193</v>
+        <v>0.5168195718654435</v>
       </c>
       <c r="E51" t="n">
-        <v>0.358841778697001</v>
+        <v>0.504950495049505</v>
       </c>
     </row>
     <row r="52">
@@ -1315,16 +1315,16 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0182087343770924</v>
+        <v>0.1373520294825236</v>
       </c>
       <c r="C52" t="n">
-        <v>0.01799456239677966</v>
+        <v>0.142142796090671</v>
       </c>
       <c r="D52" t="n">
-        <v>0.3545736717180938</v>
+        <v>0.5181301878549585</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3381592554291624</v>
+        <v>0.4702970297029703</v>
       </c>
     </row>
     <row r="53">
@@ -1332,16 +1332,16 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.01823349306793061</v>
+        <v>0.1373664834019211</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0179914515465498</v>
+        <v>0.1409359404018947</v>
       </c>
       <c r="D53" t="n">
-        <v>0.3417929523461749</v>
+        <v>0.5181301878549585</v>
       </c>
       <c r="E53" t="n">
-        <v>0.3329886246122027</v>
+        <v>0.5198019801980198</v>
       </c>
     </row>
     <row r="54">
@@ -1349,16 +1349,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.01820166414430322</v>
+        <v>0.1371504885868894</v>
       </c>
       <c r="C54" t="n">
-        <v>0.01801272836746648</v>
+        <v>0.1405191559876715</v>
       </c>
       <c r="D54" t="n">
-        <v>0.3450794230418112</v>
+        <v>0.5190039318479686</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3474663908996898</v>
+        <v>0.5148514851485149</v>
       </c>
     </row>
     <row r="55">
@@ -1366,16 +1366,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.01822410942986608</v>
+        <v>0.137117481066121</v>
       </c>
       <c r="C55" t="n">
-        <v>0.01800163311418146</v>
+        <v>0.1410264798573085</v>
       </c>
       <c r="D55" t="n">
-        <v>0.3425232791674274</v>
+        <v>0.5185670598514636</v>
       </c>
       <c r="E55" t="n">
-        <v>0.3381592554291624</v>
+        <v>0.5024752475247525</v>
       </c>
     </row>
     <row r="56">
@@ -1383,16 +1383,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.01821226223783438</v>
+        <v>0.1370969934182035</v>
       </c>
       <c r="C56" t="n">
-        <v>0.01797073049237952</v>
+        <v>0.1409711475883211</v>
       </c>
       <c r="D56" t="n">
-        <v>0.350556874201205</v>
+        <v>0.5220620358235037</v>
       </c>
       <c r="E56" t="n">
-        <v>0.3547052740434333</v>
+        <v>0.495049504950495</v>
       </c>
     </row>
     <row r="57">
@@ -1400,16 +1400,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.01823161936603313</v>
+        <v>0.1367137403123909</v>
       </c>
       <c r="C57" t="n">
-        <v>0.01800849562278017</v>
+        <v>0.1405322360140937</v>
       </c>
       <c r="D57" t="n">
-        <v>0.3489136388533869</v>
+        <v>0.5216251638269986</v>
       </c>
       <c r="E57" t="n">
-        <v>0.3402275077559462</v>
+        <v>0.5074257425742574</v>
       </c>
     </row>
     <row r="58">
@@ -1417,16 +1417,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.01812619242687211</v>
+        <v>0.1366751016014152</v>
       </c>
       <c r="C58" t="n">
-        <v>0.01817854784894735</v>
+        <v>0.1404067650437355</v>
       </c>
       <c r="D58" t="n">
-        <v>0.3394193901771043</v>
+        <v>0.5181301878549585</v>
       </c>
       <c r="E58" t="n">
-        <v>0.3836608066184075</v>
+        <v>0.504950495049505</v>
       </c>
     </row>
     <row r="59">
@@ -1434,16 +1434,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.01817968799624332</v>
+        <v>0.1368450189216269</v>
       </c>
       <c r="C59" t="n">
-        <v>0.01803421787917614</v>
+        <v>0.1399558271680559</v>
       </c>
       <c r="D59" t="n">
-        <v>0.3571298155924776</v>
+        <v>0.5242463958060288</v>
       </c>
       <c r="E59" t="n">
-        <v>0.3485005170630817</v>
+        <v>0.495049504950495</v>
       </c>
     </row>
     <row r="60">
@@ -1451,16 +1451,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.01817640683851963</v>
+        <v>0.1363482301433881</v>
       </c>
       <c r="C60" t="n">
-        <v>0.01799831970129162</v>
+        <v>0.1404316659484591</v>
       </c>
       <c r="D60" t="n">
-        <v>0.3425232791674274</v>
+        <v>0.5242463958060288</v>
       </c>
       <c r="E60" t="n">
-        <v>0.3567735263702171</v>
+        <v>0.495049504950495</v>
       </c>
     </row>
     <row r="61">
@@ -1468,16 +1468,16 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.01811770904202794</v>
+        <v>0.1364375866121716</v>
       </c>
       <c r="C61" t="n">
-        <v>0.01793720439309254</v>
+        <v>0.1398437342473439</v>
       </c>
       <c r="D61" t="n">
-        <v>0.3523826912543363</v>
+        <v>0.5246832678025338</v>
       </c>
       <c r="E61" t="n">
-        <v>0.3350568769389866</v>
+        <v>0.5123762376237624</v>
       </c>
     </row>
     <row r="62">
@@ -1485,16 +1485,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.01810671493064525</v>
+        <v>0.1359589743531412</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0180949151981622</v>
+        <v>0.1403918841055461</v>
       </c>
       <c r="D62" t="n">
-        <v>0.3642505020996896</v>
+        <v>0.5229357798165137</v>
       </c>
       <c r="E62" t="n">
-        <v>0.327817993795243</v>
+        <v>0.5321782178217822</v>
       </c>
     </row>
     <row r="63">
@@ -1502,16 +1502,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.01809358099735407</v>
+        <v>0.13603391043014</v>
       </c>
       <c r="C63" t="n">
-        <v>0.01797225850168616</v>
+        <v>0.1398724785872868</v>
       </c>
       <c r="D63" t="n">
-        <v>0.3481833120321344</v>
+        <v>0.5307994757536042</v>
       </c>
       <c r="E63" t="n">
-        <v>0.3402275077559462</v>
+        <v>0.504950495049505</v>
       </c>
     </row>
     <row r="64">
@@ -1519,16 +1519,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.01817229648965389</v>
+        <v>0.1359778580566247</v>
       </c>
       <c r="C64" t="n">
-        <v>0.01795063290046528</v>
+        <v>0.1397600982870374</v>
       </c>
       <c r="D64" t="n">
-        <v>0.3500091290852657</v>
+        <v>0.5229357798165137</v>
       </c>
       <c r="E64" t="n">
-        <v>0.3391933815925543</v>
+        <v>0.5173267326732673</v>
       </c>
     </row>
     <row r="65">
@@ -1536,16 +1536,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01819469362800551</v>
+        <v>0.1351524874981907</v>
       </c>
       <c r="C65" t="n">
-        <v>0.01799774705432355</v>
+        <v>0.1396496061767851</v>
       </c>
       <c r="D65" t="n">
-        <v>0.3500091290852657</v>
+        <v>0.5325469637396243</v>
       </c>
       <c r="E65" t="n">
-        <v>0.3691830403309204</v>
+        <v>0.5173267326732673</v>
       </c>
     </row>
     <row r="66">
@@ -1553,16 +1553,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.01813143689921776</v>
+        <v>0.1353810441990694</v>
       </c>
       <c r="C66" t="n">
-        <v>0.01795571448747069</v>
+        <v>0.1396273129752704</v>
       </c>
       <c r="D66" t="n">
-        <v>0.3518349461383969</v>
+        <v>0.5360419397116645</v>
       </c>
       <c r="E66" t="n">
-        <v>0.3547052740434333</v>
+        <v>0.5148514851485149</v>
       </c>
     </row>
     <row r="67">
@@ -1570,16 +1570,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.01807166350095771</v>
+        <v>0.1356008882737822</v>
       </c>
       <c r="C67" t="n">
-        <v>0.01802840741584077</v>
+        <v>0.1401014477014542</v>
       </c>
       <c r="D67" t="n">
-        <v>0.3560343253605989</v>
+        <v>0.5334207077326344</v>
       </c>
       <c r="E67" t="n">
-        <v>0.3350568769389866</v>
+        <v>0.4851485148514851</v>
       </c>
     </row>
     <row r="68">
@@ -1587,16 +1587,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0181012075329416</v>
+        <v>0.1353045406026973</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0179352822015062</v>
+        <v>0.139472531420844</v>
       </c>
       <c r="D68" t="n">
-        <v>0.3642505020996896</v>
+        <v>0.5259938837920489</v>
       </c>
       <c r="E68" t="n">
-        <v>0.3660806618407446</v>
+        <v>0.5272277227722773</v>
       </c>
     </row>
     <row r="69">
@@ -1604,16 +1604,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.01809954912899885</v>
+        <v>0.1356380018923018</v>
       </c>
       <c r="C69" t="n">
-        <v>0.01800454070325941</v>
+        <v>0.1396047132355826</v>
       </c>
       <c r="D69" t="n">
-        <v>0.3620595216359321</v>
+        <v>0.5412844036697247</v>
       </c>
       <c r="E69" t="n">
-        <v>0.3660806618407446</v>
+        <v>0.5123762376237624</v>
       </c>
     </row>
     <row r="70">
@@ -1621,16 +1621,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.01806705454797592</v>
+        <v>0.1350712529901001</v>
       </c>
       <c r="C70" t="n">
-        <v>0.01802777411649004</v>
+        <v>0.1392598067011152</v>
       </c>
       <c r="D70" t="n">
-        <v>0.3580427241190433</v>
+        <v>0.5299257317605941</v>
       </c>
       <c r="E70" t="n">
-        <v>0.3236814891416753</v>
+        <v>0.5198019801980198</v>
       </c>
     </row>
     <row r="71">
@@ -1638,16 +1638,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.01806327435296289</v>
+        <v>0.1347716984649499</v>
       </c>
       <c r="C71" t="n">
-        <v>0.01793357526184991</v>
+        <v>0.1389600027884756</v>
       </c>
       <c r="D71" t="n">
-        <v>0.3689976264378309</v>
+        <v>0.5198776758409785</v>
       </c>
       <c r="E71" t="n">
-        <v>0.3619441571871768</v>
+        <v>0.5074257425742574</v>
       </c>
     </row>
     <row r="72">
@@ -1655,16 +1655,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0180548011693497</v>
+        <v>0.1345021991680066</v>
       </c>
       <c r="C72" t="n">
-        <v>0.01791823393432423</v>
+        <v>0.1395320956196104</v>
       </c>
       <c r="D72" t="n">
-        <v>0.3600511228774877</v>
+        <v>0.5391000436871997</v>
       </c>
       <c r="E72" t="n">
-        <v>0.3629782833505688</v>
+        <v>0.5074257425742574</v>
       </c>
     </row>
     <row r="73">
@@ -1672,16 +1672,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.01806172198984166</v>
+        <v>0.1347301534066598</v>
       </c>
       <c r="C73" t="n">
-        <v>0.01792280765948817</v>
+        <v>0.1389507949352264</v>
       </c>
       <c r="D73" t="n">
-        <v>0.3584078875296695</v>
+        <v>0.5325469637396243</v>
       </c>
       <c r="E73" t="n">
-        <v>0.358841778697001</v>
+        <v>0.5074257425742574</v>
       </c>
     </row>
     <row r="74">
@@ -1689,16 +1689,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.01805707654201014</v>
+        <v>0.1344856108642287</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0178716181544587</v>
+        <v>0.1386150558079992</v>
       </c>
       <c r="D74" t="n">
-        <v>0.3607814496987402</v>
+        <v>0.5408475316732198</v>
       </c>
       <c r="E74" t="n">
-        <v>0.3660806618407446</v>
+        <v>0.5297029702970297</v>
       </c>
     </row>
     <row r="75">
@@ -1706,16 +1706,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.01802980921469455</v>
+        <v>0.1343924276944664</v>
       </c>
       <c r="C75" t="n">
-        <v>0.01810596132418141</v>
+        <v>0.1383199862071446</v>
       </c>
       <c r="D75" t="n">
-        <v>0.364798247215629</v>
+        <v>0.5351681957186545</v>
       </c>
       <c r="E75" t="n">
-        <v>0.3185108583247156</v>
+        <v>0.5272277227722773</v>
       </c>
     </row>
     <row r="76">
@@ -1723,16 +1723,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.01807250965083408</v>
+        <v>0.1340334978368547</v>
       </c>
       <c r="C76" t="n">
-        <v>0.01792517653666437</v>
+        <v>0.1389110663107463</v>
       </c>
       <c r="D76" t="n">
-        <v>0.3651634106262552</v>
+        <v>0.5386631716906947</v>
       </c>
       <c r="E76" t="n">
-        <v>0.3340227507755946</v>
+        <v>0.504950495049505</v>
       </c>
     </row>
     <row r="77">
@@ -1740,16 +1740,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.01810208391831365</v>
+        <v>0.1343590944177575</v>
       </c>
       <c r="C77" t="n">
-        <v>0.01811364333843812</v>
+        <v>0.1383516926850591</v>
       </c>
       <c r="D77" t="n">
-        <v>0.3551214168340333</v>
+        <v>0.5356050677151595</v>
       </c>
       <c r="E77" t="n">
-        <v>0.3846949327817994</v>
+        <v>0.5148514851485149</v>
       </c>
     </row>
     <row r="78">
@@ -1757,16 +1757,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.01801500858219211</v>
+        <v>0.1341317923118671</v>
       </c>
       <c r="C78" t="n">
-        <v>0.01792700163787231</v>
+        <v>0.1379708754164832</v>
       </c>
       <c r="D78" t="n">
-        <v>0.3708234434909622</v>
+        <v>0.5360419397116645</v>
       </c>
       <c r="E78" t="n">
-        <v>0.3950361944157187</v>
+        <v>0.5297029702970297</v>
       </c>
     </row>
     <row r="79">
@@ -1774,16 +1774,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.01804654399842717</v>
+        <v>0.1334907898886336</v>
       </c>
       <c r="C79" t="n">
-        <v>0.01785186491906643</v>
+        <v>0.1387248912027904</v>
       </c>
       <c r="D79" t="n">
-        <v>0.3578601424137302</v>
+        <v>0.5482743556138051</v>
       </c>
       <c r="E79" t="n">
-        <v>0.3681489141675284</v>
+        <v>0.5123762376237624</v>
       </c>
     </row>
     <row r="80">
@@ -1791,16 +1791,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.01803959588801791</v>
+        <v>0.1338104971994956</v>
       </c>
       <c r="C80" t="n">
-        <v>0.01785004930570722</v>
+        <v>0.1378956096512931</v>
       </c>
       <c r="D80" t="n">
-        <v>0.3795873653459924</v>
+        <v>0.5360419397116645</v>
       </c>
       <c r="E80" t="n">
-        <v>0.3629782833505688</v>
+        <v>0.5396039603960396</v>
       </c>
     </row>
     <row r="81">
@@ -1808,16 +1808,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.01800087382367184</v>
+        <v>0.1329626116073794</v>
       </c>
       <c r="C81" t="n">
-        <v>0.01788801077054814</v>
+        <v>0.1381326434867723</v>
       </c>
       <c r="D81" t="n">
-        <v>0.3702756983750228</v>
+        <v>0.5417212756662297</v>
       </c>
       <c r="E81" t="n">
-        <v>0.3516028955532575</v>
+        <v>0.5123762376237624</v>
       </c>
     </row>
     <row r="82">
@@ -1825,16 +1825,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.01798027098655354</v>
+        <v>0.1331508875721031</v>
       </c>
       <c r="C82" t="n">
-        <v>0.01791077863890678</v>
+        <v>0.1388036204235894</v>
       </c>
       <c r="D82" t="n">
-        <v>0.3702756983750228</v>
+        <v>0.5382262996941896</v>
       </c>
       <c r="E82" t="n">
-        <v>0.3733195449844881</v>
+        <v>0.5024752475247525</v>
       </c>
     </row>
     <row r="83">
@@ -1842,16 +1842,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.01797599100702724</v>
+        <v>0.13319524936378</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0179611558560282</v>
+        <v>0.1378517150878906</v>
       </c>
       <c r="D83" t="n">
-        <v>0.3772138031769217</v>
+        <v>0.5430318916557448</v>
       </c>
       <c r="E83" t="n">
-        <v>0.3929679420889349</v>
+        <v>0.5148514851485149</v>
       </c>
     </row>
     <row r="84">
@@ -1859,16 +1859,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.01794132553474155</v>
+        <v>0.1330161682433552</v>
       </c>
       <c r="C84" t="n">
-        <v>0.01785241829929873</v>
+        <v>0.1389141806534358</v>
       </c>
       <c r="D84" t="n">
-        <v>0.3666240642687603</v>
+        <v>0.54521625163827</v>
       </c>
       <c r="E84" t="n">
-        <v>0.3691830403309204</v>
+        <v>0.4975247524752475</v>
       </c>
     </row>
     <row r="85">
@@ -1876,16 +1876,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.01794553634732269</v>
+        <v>0.1333382506337431</v>
       </c>
       <c r="C85" t="n">
-        <v>0.01781020971247926</v>
+        <v>0.1375001945665904</v>
       </c>
       <c r="D85" t="n">
-        <v>0.3817783458097498</v>
+        <v>0.54608999563128</v>
       </c>
       <c r="E85" t="n">
-        <v>0.3702171664943123</v>
+        <v>0.5148514851485149</v>
       </c>
     </row>
     <row r="86">
@@ -1893,16 +1893,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0179669332885465</v>
+        <v>0.1334297586646345</v>
       </c>
       <c r="C86" t="n">
-        <v>0.01782641420140862</v>
+        <v>0.1377433772597994</v>
       </c>
       <c r="D86" t="n">
-        <v>0.3651634106262552</v>
+        <v>0.54521625163827</v>
       </c>
       <c r="E86" t="n">
-        <v>0.3722854188210962</v>
+        <v>0.5297029702970297</v>
       </c>
     </row>
     <row r="87">
@@ -1910,16 +1910,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.01796198533414755</v>
+        <v>0.1328701805323362</v>
       </c>
       <c r="C87" t="n">
-        <v>0.01784694311209023</v>
+        <v>0.137614267213004</v>
       </c>
       <c r="D87" t="n">
-        <v>0.3684498813218915</v>
+        <v>0.545653123634775</v>
       </c>
       <c r="E87" t="n">
-        <v>0.3764219234746639</v>
+        <v>0.5198019801980198</v>
       </c>
     </row>
     <row r="88">
@@ -1927,16 +1927,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.01797662405730334</v>
+        <v>0.1327269040048122</v>
       </c>
       <c r="C88" t="n">
-        <v>0.01782821689266711</v>
+        <v>0.1382148095539638</v>
       </c>
       <c r="D88" t="n">
-        <v>0.3786744568194267</v>
+        <v>0.54608999563128</v>
       </c>
       <c r="E88" t="n">
-        <v>0.3764219234746639</v>
+        <v>0.5099009900990099</v>
       </c>
     </row>
     <row r="89">
@@ -1944,16 +1944,16 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.01792411807231432</v>
+        <v>0.1318014632496569</v>
       </c>
       <c r="C89" t="n">
-        <v>0.01782550098141655</v>
+        <v>0.1370741171496255</v>
       </c>
       <c r="D89" t="n">
-        <v>0.3826912543363155</v>
+        <v>0.5495849716033202</v>
       </c>
       <c r="E89" t="n">
-        <v>0.3929679420889349</v>
+        <v>0.5420792079207921</v>
       </c>
     </row>
     <row r="90">
@@ -1961,16 +1961,16 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.01788438818699052</v>
+        <v>0.1319783708701531</v>
       </c>
       <c r="C90" t="n">
-        <v>0.01782716653542593</v>
+        <v>0.1372281632253102</v>
       </c>
       <c r="D90" t="n">
-        <v>0.3713711886069016</v>
+        <v>0.5443425076452599</v>
       </c>
       <c r="E90" t="n">
-        <v>0.3671147880041365</v>
+        <v>0.5099009900990099</v>
       </c>
     </row>
     <row r="91">
@@ -1978,16 +1978,16 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.01799383862377253</v>
+        <v>0.1323721499906646</v>
       </c>
       <c r="C91" t="n">
-        <v>0.01808141812216491</v>
+        <v>0.1370493748358318</v>
       </c>
       <c r="D91" t="n">
-        <v>0.380500273872558</v>
+        <v>0.54521625163827</v>
       </c>
       <c r="E91" t="n">
-        <v>0.4043433298862461</v>
+        <v>0.5371287128712872</v>
       </c>
     </row>
     <row r="92">
@@ -1995,16 +1995,16 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.01796905705055525</v>
+        <v>0.1320058076332013</v>
       </c>
       <c r="C92" t="n">
-        <v>0.01793412159895524</v>
+        <v>0.1377739257046155</v>
       </c>
       <c r="D92" t="n">
-        <v>0.3868906335585174</v>
+        <v>0.5487112276103102</v>
       </c>
       <c r="E92" t="n">
-        <v>0.3371251292657704</v>
+        <v>0.5247524752475248</v>
       </c>
     </row>
     <row r="93">
@@ -2012,16 +2012,16 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0179626471687888</v>
+        <v>0.1320419828924868</v>
       </c>
       <c r="C93" t="n">
-        <v>0.01807216391898692</v>
+        <v>0.1374949238130025</v>
       </c>
       <c r="D93" t="n">
-        <v>0.3764834763556691</v>
+        <v>0.5491480996068152</v>
       </c>
       <c r="E93" t="n">
-        <v>0.3195449844881075</v>
+        <v>0.5074257425742574</v>
       </c>
     </row>
     <row r="94">
@@ -2029,16 +2029,16 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0179701708798665</v>
+        <v>0.1321048297815853</v>
       </c>
       <c r="C94" t="n">
-        <v>0.01780996785964817</v>
+        <v>0.1372018413884299</v>
       </c>
       <c r="D94" t="n">
-        <v>0.3724666788387804</v>
+        <v>0.5478374836173001</v>
       </c>
       <c r="E94" t="n">
-        <v>0.3888314374353671</v>
+        <v>0.5198019801980198</v>
       </c>
     </row>
     <row r="95">
@@ -2046,16 +2046,16 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.01792178076670267</v>
+        <v>0.1318409910632504</v>
       </c>
       <c r="C95" t="n">
-        <v>0.01782091538188979</v>
+        <v>0.1368924805096217</v>
       </c>
       <c r="D95" t="n">
-        <v>0.3775789665875479</v>
+        <v>0.5500218435998252</v>
       </c>
       <c r="E95" t="n">
-        <v>0.3919338159255429</v>
+        <v>0.5445544554455446</v>
       </c>
     </row>
     <row r="96">
@@ -2063,16 +2063,16 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.01787455214274138</v>
+        <v>0.1313487601776918</v>
       </c>
       <c r="C96" t="n">
-        <v>0.01792753231711686</v>
+        <v>0.1369704731873103</v>
       </c>
       <c r="D96" t="n">
-        <v>0.3850648165053862</v>
+        <v>0.5474006116207951</v>
       </c>
       <c r="E96" t="n">
-        <v>0.3495346432264737</v>
+        <v>0.5396039603960396</v>
       </c>
     </row>
     <row r="97">
@@ -2080,16 +2080,16 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.01794861891675134</v>
+        <v>0.1317820996046066</v>
       </c>
       <c r="C97" t="n">
-        <v>0.01779657992301509</v>
+        <v>0.136812975364072</v>
       </c>
       <c r="D97" t="n">
-        <v>0.3870732152638305</v>
+        <v>0.5526430755788554</v>
       </c>
       <c r="E97" t="n">
-        <v>0.3640124095139607</v>
+        <v>0.5420792079207921</v>
       </c>
     </row>
     <row r="98">
@@ -2097,16 +2097,16 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.01789038993288265</v>
+        <v>0.1315620169043541</v>
       </c>
       <c r="C98" t="n">
-        <v>0.01777614274760708</v>
+        <v>0.136676732982908</v>
       </c>
       <c r="D98" t="n">
-        <v>0.3821435092203761</v>
+        <v>0.5513324595893403</v>
       </c>
       <c r="E98" t="n">
-        <v>0.3836608066184075</v>
+        <v>0.5272277227722773</v>
       </c>
     </row>
     <row r="99">
@@ -2114,16 +2114,16 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.01788546379958821</v>
+        <v>0.1322364072418875</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0177978208521381</v>
+        <v>0.1363105507833617</v>
       </c>
       <c r="D99" t="n">
-        <v>0.3828738360416286</v>
+        <v>0.5430318916557448</v>
       </c>
       <c r="E99" t="n">
-        <v>0.390899689762151</v>
+        <v>0.5346534653465347</v>
       </c>
     </row>
     <row r="100">
@@ -2131,16 +2131,16 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.01787154899563554</v>
+        <v>0.131154860680302</v>
       </c>
       <c r="C100" t="n">
-        <v>0.01789416768588126</v>
+        <v>0.1359746594514166</v>
       </c>
       <c r="D100" t="n">
-        <v>0.3781267117034873</v>
+        <v>0.5543905635648755</v>
       </c>
       <c r="E100" t="n">
-        <v>0.4126163391933816</v>
+        <v>0.5420792079207921</v>
       </c>
     </row>
     <row r="101">
@@ -2148,16 +2148,16 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.01786788989421587</v>
+        <v>0.1310129204971923</v>
       </c>
       <c r="C101" t="n">
-        <v>0.01782601256854832</v>
+        <v>0.136691153049469</v>
       </c>
       <c r="D101" t="n">
-        <v>0.3870732152638305</v>
+        <v>0.5526430755788554</v>
       </c>
       <c r="E101" t="n">
-        <v>0.3857290589451913</v>
+        <v>0.5297029702970297</v>
       </c>
     </row>
     <row r="102">
@@ -2165,16 +2165,16 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.01788653956379655</v>
+        <v>0.1315297681010432</v>
       </c>
       <c r="C102" t="n">
-        <v>0.01776753459125757</v>
+        <v>0.1371175753218787</v>
       </c>
       <c r="D102" t="n">
-        <v>0.3856125616213256</v>
+        <v>0.5513324595893403</v>
       </c>
       <c r="E102" t="n">
-        <v>0.4002068252326784</v>
+        <v>0.5099009900990099</v>
       </c>
     </row>
     <row r="103">
@@ -2182,16 +2182,16 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.01790741379481069</v>
+        <v>0.1315793846216467</v>
       </c>
       <c r="C103" t="n">
-        <v>0.01782811171142384</v>
+        <v>0.135844811797142</v>
       </c>
       <c r="D103" t="n">
-        <v>0.3841519079788205</v>
+        <v>0.5495849716033202</v>
       </c>
       <c r="E103" t="n">
-        <v>0.3712512926577042</v>
+        <v>0.5371287128712872</v>
       </c>
     </row>
     <row r="104">
@@ -2199,16 +2199,16 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.01786936462185411</v>
+        <v>0.1301748909884029</v>
       </c>
       <c r="C104" t="n">
-        <v>0.01796129264403135</v>
+        <v>0.1359399195228304</v>
       </c>
       <c r="D104" t="n">
-        <v>0.3788570385247398</v>
+        <v>0.561817387505461</v>
       </c>
       <c r="E104" t="n">
-        <v>0.4426059979317477</v>
+        <v>0.5247524752475248</v>
       </c>
     </row>
     <row r="105">
@@ -2216,16 +2216,16 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.01778774628372386</v>
+        <v>0.1312140358818902</v>
       </c>
       <c r="C105" t="n">
-        <v>0.01774687971919775</v>
+        <v>0.1365003330366952</v>
       </c>
       <c r="D105" t="n">
-        <v>0.4046010589738908</v>
+        <v>0.5543905635648755</v>
       </c>
       <c r="E105" t="n">
-        <v>0.37435367114788</v>
+        <v>0.5148514851485149</v>
       </c>
     </row>
     <row r="106">
@@ -2233,16 +2233,16 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.01779587649155495</v>
+        <v>0.1308874496155315</v>
       </c>
       <c r="C106" t="n">
-        <v>0.01780971779953688</v>
+        <v>0.1358961973871504</v>
       </c>
       <c r="D106" t="n">
-        <v>0.3857951433266387</v>
+        <v>0.5565749235474006</v>
       </c>
       <c r="E106" t="n">
-        <v>0.3650465356773526</v>
+        <v>0.5396039603960396</v>
       </c>
     </row>
     <row r="107">
@@ -2250,16 +2250,16 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.01788136755051308</v>
+        <v>0.1306678344392114</v>
       </c>
       <c r="C107" t="n">
-        <v>0.01776212017284706</v>
+        <v>0.1373084932565689</v>
       </c>
       <c r="D107" t="n">
-        <v>0.3910900127807194</v>
+        <v>0.5596330275229358</v>
       </c>
       <c r="E107" t="n">
-        <v>0.3795243019648397</v>
+        <v>0.504950495049505</v>
       </c>
     </row>
     <row r="108">
@@ -2267,16 +2267,16 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.01781297375469707</v>
+        <v>0.1302058098630773</v>
       </c>
       <c r="C108" t="n">
-        <v>0.01779803790850565</v>
+        <v>0.1358701235481671</v>
       </c>
       <c r="D108" t="n">
-        <v>0.3958371371188607</v>
+        <v>0.5578855395369157</v>
       </c>
       <c r="E108" t="n">
-        <v>0.3660806618407446</v>
+        <v>0.5420792079207921</v>
       </c>
     </row>
     <row r="109">
@@ -2284,16 +2284,16 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.01783024975596819</v>
+        <v>0.1314985336114963</v>
       </c>
       <c r="C109" t="n">
-        <v>0.01780779677210376</v>
+        <v>0.13599772219147</v>
       </c>
       <c r="D109" t="n">
-        <v>0.3854299799160124</v>
+        <v>0.5570117955439057</v>
       </c>
       <c r="E109" t="n">
-        <v>0.4002068252326784</v>
+        <v>0.5346534653465347</v>
       </c>
     </row>
     <row r="110">
@@ -2301,16 +2301,16 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0179149825883986</v>
+        <v>0.1304901138775879</v>
       </c>
       <c r="C110" t="n">
-        <v>0.01778692362131551</v>
+        <v>0.136977385197367</v>
       </c>
       <c r="D110" t="n">
-        <v>0.3841519079788205</v>
+        <v>0.5583224115334207</v>
       </c>
       <c r="E110" t="n">
-        <v>0.3991726990692864</v>
+        <v>0.5074257425742574</v>
       </c>
     </row>
     <row r="111">
@@ -2318,16 +2318,16 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.01786520243297483</v>
+        <v>0.130089839713441</v>
       </c>
       <c r="C111" t="n">
-        <v>0.01778723753523082</v>
+        <v>0.136597144816603</v>
       </c>
       <c r="D111" t="n">
-        <v>0.3930984115391638</v>
+        <v>0.5626911314984709</v>
       </c>
       <c r="E111" t="n">
-        <v>0.3381592554291624</v>
+        <v>0.5123762376237624</v>
       </c>
     </row>
     <row r="112">
@@ -2335,16 +2335,16 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.01796114401415337</v>
+        <v>0.1301447523550855</v>
       </c>
       <c r="C112" t="n">
-        <v>0.01780595030868426</v>
+        <v>0.1366628983191081</v>
       </c>
       <c r="D112" t="n">
-        <v>0.3852473982106993</v>
+        <v>0.5605067715159459</v>
       </c>
       <c r="E112" t="n">
-        <v>0.344364012409514</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="113">
@@ -2352,16 +2352,16 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.01785234432277638</v>
+        <v>0.1311208477450742</v>
       </c>
       <c r="C113" t="n">
-        <v>0.01774746458977461</v>
+        <v>0.1365241301911218</v>
       </c>
       <c r="D113" t="n">
-        <v>0.3852473982106993</v>
+        <v>0.5434687636522499</v>
       </c>
       <c r="E113" t="n">
-        <v>0.3919338159255429</v>
+        <v>0.5074257425742574</v>
       </c>
     </row>
     <row r="114">
@@ -2369,16 +2369,16 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.01781180555130853</v>
+        <v>0.1297953145371543</v>
       </c>
       <c r="C114" t="n">
-        <v>0.01770422101253644</v>
+        <v>0.1358432173728943</v>
       </c>
       <c r="D114" t="n">
-        <v>0.3815957641044367</v>
+        <v>0.5622542595019659</v>
       </c>
       <c r="E114" t="n">
-        <v>0.3981385729058945</v>
+        <v>0.5470297029702971</v>
       </c>
     </row>
     <row r="115">
@@ -2386,16 +2386,16 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.01787559008009212</v>
+        <v>0.1295407509638203</v>
       </c>
       <c r="C115" t="n">
-        <v>0.01775268226629123</v>
+        <v>0.135323914034026</v>
       </c>
       <c r="D115" t="n">
-        <v>0.400584261457002</v>
+        <v>0.5583224115334207</v>
       </c>
       <c r="E115" t="n">
-        <v>0.3815925542916236</v>
+        <v>0.5420792079207921</v>
       </c>
     </row>
     <row r="116">
@@ -2403,16 +2403,16 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.01782443726348669</v>
+        <v>0.1293480777078205</v>
       </c>
       <c r="C116" t="n">
-        <v>0.01772526378044859</v>
+        <v>0.136512279510498</v>
       </c>
       <c r="D116" t="n">
-        <v>0.3914551761913456</v>
+        <v>0.5679335954565312</v>
       </c>
       <c r="E116" t="n">
-        <v>0.390899689762151</v>
+        <v>0.504950495049505</v>
       </c>
     </row>
     <row r="117">
@@ -2420,16 +2420,16 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.01783167867553095</v>
+        <v>0.1292219677319129</v>
       </c>
       <c r="C117" t="n">
-        <v>0.01772813772549853</v>
+        <v>0.1356329077056476</v>
       </c>
       <c r="D117" t="n">
-        <v>0.392002921307285</v>
+        <v>0.5626911314984709</v>
       </c>
       <c r="E117" t="n">
-        <v>0.4167528438469493</v>
+        <v>0.5396039603960396</v>
       </c>
     </row>
     <row r="118">
@@ -2437,16 +2437,16 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.01778542281799885</v>
+        <v>0.1293880705618196</v>
       </c>
       <c r="C118" t="n">
-        <v>0.01789311523316428</v>
+        <v>0.1360285984618323</v>
       </c>
       <c r="D118" t="n">
-        <v>0.3881687054957093</v>
+        <v>0.564001747487986</v>
       </c>
       <c r="E118" t="n">
-        <v>0.4312306101344364</v>
+        <v>0.5247524752475248</v>
       </c>
     </row>
     <row r="119">
@@ -2454,16 +2454,16 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.01780836413029668</v>
+        <v>0.1299524464541011</v>
       </c>
       <c r="C119" t="n">
-        <v>0.01778100623050705</v>
+        <v>0.1353120601602963</v>
       </c>
       <c r="D119" t="n">
-        <v>0.3993061895198101</v>
+        <v>0.5552643075578856</v>
       </c>
       <c r="E119" t="n">
-        <v>0.3722854188210962</v>
+        <v>0.5544554455445545</v>
       </c>
     </row>
     <row r="120">
@@ -2471,16 +2471,16 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.01784384718468023</v>
+        <v>0.1298359500037299</v>
       </c>
       <c r="C120" t="n">
-        <v>0.01768876367714256</v>
+        <v>0.1360962518623897</v>
       </c>
       <c r="D120" t="n">
-        <v>0.3888990323169618</v>
+        <v>0.561817387505461</v>
       </c>
       <c r="E120" t="n">
-        <v>0.4022750775594622</v>
+        <v>0.5198019801980198</v>
       </c>
     </row>
     <row r="121">
@@ -2488,16 +2488,16 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.01777628277493424</v>
+        <v>0.1286519649955961</v>
       </c>
       <c r="C121" t="n">
-        <v>0.01767522969748825</v>
+        <v>0.1351611028824534</v>
       </c>
       <c r="D121" t="n">
-        <v>0.3872557969691437</v>
+        <v>0.5674967234600262</v>
       </c>
       <c r="E121" t="n">
-        <v>0.3846949327817994</v>
+        <v>0.5371287128712872</v>
       </c>
     </row>
     <row r="122">
@@ -2505,16 +2505,16 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.0177397606244614</v>
+        <v>0.1296195996304353</v>
       </c>
       <c r="C122" t="n">
-        <v>0.0176976029179059</v>
+        <v>0.135780716581004</v>
       </c>
       <c r="D122" t="n">
-        <v>0.3901771042541538</v>
+        <v>0.5605067715159459</v>
       </c>
       <c r="E122" t="n">
-        <v>0.390899689762151</v>
+        <v>0.5420792079207921</v>
       </c>
     </row>
     <row r="123">
@@ -2522,16 +2522,16 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0.01778862903674328</v>
+        <v>0.130056388469206</v>
       </c>
       <c r="C123" t="n">
-        <v>0.01776117167901248</v>
+        <v>0.1359552911349705</v>
       </c>
       <c r="D123" t="n">
-        <v>0.3941939017710425</v>
+        <v>0.5530799475753604</v>
       </c>
       <c r="E123" t="n">
-        <v>0.4074457083764219</v>
+        <v>0.5371287128712872</v>
       </c>
     </row>
     <row r="124">
@@ -2539,16 +2539,16 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.01782353930608478</v>
+        <v>0.1287925419294172</v>
       </c>
       <c r="C124" t="n">
-        <v>0.01770650275284424</v>
+        <v>0.135134722505297</v>
       </c>
       <c r="D124" t="n">
-        <v>0.396202300529487</v>
+        <v>0.5631280034949759</v>
       </c>
       <c r="E124" t="n">
-        <v>0.4322647362978284</v>
+        <v>0.5445544554455446</v>
       </c>
     </row>
     <row r="125">
@@ -2556,16 +2556,16 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.01780184356192517</v>
+        <v>0.1289019578446945</v>
       </c>
       <c r="C125" t="n">
-        <v>0.01774591073626652</v>
+        <v>0.1347584841506822</v>
       </c>
       <c r="D125" t="n">
-        <v>0.3938287383604163</v>
+        <v>0.5543905635648755</v>
       </c>
       <c r="E125" t="n">
-        <v>0.4291623578076526</v>
+        <v>0.5445544554455446</v>
       </c>
     </row>
     <row r="126">
@@ -2573,16 +2573,16 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.01776433437196321</v>
+        <v>0.1285064975834555</v>
       </c>
       <c r="C126" t="n">
-        <v>0.01771004829788581</v>
+        <v>0.1347976241792951</v>
       </c>
       <c r="D126" t="n">
-        <v>0.402044915099507</v>
+        <v>0.5701179554390564</v>
       </c>
       <c r="E126" t="n">
-        <v>0.3940020682523268</v>
+        <v>0.5544554455445545</v>
       </c>
     </row>
     <row r="127">
@@ -2590,16 +2590,16 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.01776013134567197</v>
+        <v>0.1280639345447222</v>
       </c>
       <c r="C127" t="n">
-        <v>0.01791634096298367</v>
+        <v>0.1353117259485381</v>
       </c>
       <c r="D127" t="n">
-        <v>0.3870732152638305</v>
+        <v>0.5683704674530362</v>
       </c>
       <c r="E127" t="n">
-        <v>0.3826266804550155</v>
+        <v>0.5222772277227723</v>
       </c>
     </row>
     <row r="128">
@@ -2607,16 +2607,16 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0.01776367851511337</v>
+        <v>0.12799048754904</v>
       </c>
       <c r="C128" t="n">
-        <v>0.01795652240980417</v>
+        <v>0.1352661134941237</v>
       </c>
       <c r="D128" t="n">
-        <v>0.3963848822348001</v>
+        <v>0.564001747487986</v>
       </c>
       <c r="E128" t="n">
-        <v>0.3557394002068252</v>
+        <v>0.5445544554455446</v>
       </c>
     </row>
     <row r="129">
@@ -2624,16 +2624,16 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0178373524226075</v>
+        <v>0.1281754076480865</v>
       </c>
       <c r="C129" t="n">
-        <v>0.0179292646353133</v>
+        <v>0.1361596499170576</v>
       </c>
       <c r="D129" t="n">
-        <v>0.3792222019353661</v>
+        <v>0.5679335954565312</v>
       </c>
       <c r="E129" t="n">
-        <v>0.4167528438469493</v>
+        <v>0.504950495049505</v>
       </c>
     </row>
     <row r="130">
@@ -2641,16 +2641,16 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>0.01778658494613198</v>
+        <v>0.1280967930538787</v>
       </c>
       <c r="C130" t="n">
-        <v>0.01772441534558311</v>
+        <v>0.1352946332522801</v>
       </c>
       <c r="D130" t="n">
-        <v>0.402044915099507</v>
+        <v>0.5653123634775011</v>
       </c>
       <c r="E130" t="n">
-        <v>0.3971044467425026</v>
+        <v>0.5470297029702971</v>
       </c>
     </row>
     <row r="131">
@@ -2658,16 +2658,16 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0.01781019621507026</v>
+        <v>0.128121028550797</v>
       </c>
       <c r="C131" t="n">
-        <v>0.01780857791891322</v>
+        <v>0.1362238909517016</v>
       </c>
       <c r="D131" t="n">
-        <v>0.3899945225488406</v>
+        <v>0.5570117955439057</v>
       </c>
       <c r="E131" t="n">
-        <v>0.4291623578076526</v>
+        <v>0.5123762376237624</v>
       </c>
     </row>
     <row r="132">
@@ -2675,16 +2675,16 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>0.01776862446608585</v>
+        <v>0.1293182571729024</v>
       </c>
       <c r="C132" t="n">
-        <v>0.01774771674536169</v>
+        <v>0.1367549236331667</v>
       </c>
       <c r="D132" t="n">
-        <v>0.3929158298338506</v>
+        <v>0.5517693315858454</v>
       </c>
       <c r="E132" t="n">
-        <v>0.4208893485005171</v>
+        <v>0.5222772277227723</v>
       </c>
     </row>
     <row r="133">
@@ -2692,16 +2692,16 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>0.01774733165972108</v>
+        <v>0.1281975691931115</v>
       </c>
       <c r="C133" t="n">
-        <v>0.0179855334572494</v>
+        <v>0.1356167484607015</v>
       </c>
       <c r="D133" t="n">
-        <v>0.3945590651816688</v>
+        <v>0.5683704674530362</v>
       </c>
       <c r="E133" t="n">
-        <v>0.4084798345398138</v>
+        <v>0.5173267326732673</v>
       </c>
     </row>
     <row r="134">
@@ -2709,16 +2709,16 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0.01770713089337183</v>
+        <v>0.1275562126603391</v>
       </c>
       <c r="C134" t="n">
-        <v>0.01774467539507896</v>
+        <v>0.1347265616059303</v>
       </c>
       <c r="D134" t="n">
-        <v>0.400584261457002</v>
+        <v>0.5683704674530362</v>
       </c>
       <c r="E134" t="n">
-        <v>0.4229576008273009</v>
+        <v>0.5346534653465347</v>
       </c>
     </row>
     <row r="135">
@@ -2726,16 +2726,16 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>0.01772871030884427</v>
+        <v>0.1274028554972675</v>
       </c>
       <c r="C135" t="n">
-        <v>0.01774610934080556</v>
+        <v>0.1348262109926769</v>
       </c>
       <c r="D135" t="n">
-        <v>0.3956545554135475</v>
+        <v>0.5718654434250765</v>
       </c>
       <c r="E135" t="n">
-        <v>0.4322647362978284</v>
+        <v>0.5272277227722773</v>
       </c>
     </row>
     <row r="136">
@@ -2743,16 +2743,16 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>0.01781535163781671</v>
+        <v>0.1284472151762909</v>
       </c>
       <c r="C136" t="n">
-        <v>0.01768183649983257</v>
+        <v>0.1360750836985452</v>
       </c>
       <c r="D136" t="n">
-        <v>0.3907248493700931</v>
+        <v>0.5565749235474006</v>
       </c>
       <c r="E136" t="n">
-        <v>0.4301964839710445</v>
+        <v>0.5148514851485149</v>
       </c>
     </row>
     <row r="137">
@@ -2760,16 +2760,16 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0.01772966223963818</v>
+        <v>0.1286189583026701</v>
       </c>
       <c r="C137" t="n">
-        <v>0.01810558914439753</v>
+        <v>0.1360705931271826</v>
       </c>
       <c r="D137" t="n">
-        <v>0.4038707321526383</v>
+        <v>0.5583224115334207</v>
       </c>
       <c r="E137" t="n">
-        <v>0.4353671147880042</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="138">
@@ -2777,16 +2777,16 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>0.01778838516018072</v>
+        <v>0.1283356861935722</v>
       </c>
       <c r="C138" t="n">
-        <v>0.01765231392346323</v>
+        <v>0.1356927273528916</v>
       </c>
       <c r="D138" t="n">
-        <v>0.3923680847179113</v>
+        <v>0.5600698995194408</v>
       </c>
       <c r="E138" t="n">
-        <v>0.3826266804550155</v>
+        <v>0.5198019801980198</v>
       </c>
     </row>
     <row r="139">
@@ -2794,16 +2794,16 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>0.01771528142785957</v>
+        <v>0.1277607101947069</v>
       </c>
       <c r="C139" t="n">
-        <v>0.01765636372147128</v>
+        <v>0.135959655046463</v>
       </c>
       <c r="D139" t="n">
-        <v>0.3927332481285375</v>
+        <v>0.5723023154215815</v>
       </c>
       <c r="E139" t="n">
-        <v>0.3846949327817994</v>
+        <v>0.5099009900990099</v>
       </c>
     </row>
     <row r="140">
@@ -2811,16 +2811,16 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>0.01766559063608563</v>
+        <v>0.1277988087385893</v>
       </c>
       <c r="C140" t="n">
-        <v>0.01770131208468229</v>
+        <v>0.1351864380495889</v>
       </c>
       <c r="D140" t="n">
-        <v>0.4009494248676282</v>
+        <v>0.5692442114460463</v>
       </c>
       <c r="E140" t="n">
-        <v>0.3660806618407446</v>
+        <v>0.5247524752475248</v>
       </c>
     </row>
     <row r="141">
@@ -2828,16 +2828,16 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>0.01773601894938322</v>
+        <v>0.1266641602334049</v>
       </c>
       <c r="C141" t="n">
-        <v>0.01794800057541579</v>
+        <v>0.1348400988749095</v>
       </c>
       <c r="D141" t="n">
-        <v>0.3887164506116487</v>
+        <v>0.5753604193971167</v>
       </c>
       <c r="E141" t="n">
-        <v>0.3795243019648397</v>
+        <v>0.5371287128712872</v>
       </c>
     </row>
     <row r="142">
@@ -2845,16 +2845,16 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>0.01774969714325528</v>
+        <v>0.126903978900777</v>
       </c>
       <c r="C142" t="n">
-        <v>0.01780786755261943</v>
+        <v>0.134951970406941</v>
       </c>
       <c r="D142" t="n">
-        <v>0.3954719737082344</v>
+        <v>0.5749235474006116</v>
       </c>
       <c r="E142" t="n">
-        <v>0.4560496380558428</v>
+        <v>0.5222772277227723</v>
       </c>
     </row>
     <row r="143">
@@ -2862,16 +2862,16 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0.01772513129033668</v>
+        <v>0.1282796230581072</v>
       </c>
       <c r="C143" t="n">
-        <v>0.01787667453754693</v>
+        <v>0.1347790371094431</v>
       </c>
       <c r="D143" t="n">
-        <v>0.3918203396019719</v>
+        <v>0.5709916994320664</v>
       </c>
       <c r="E143" t="n">
-        <v>0.4426059979317477</v>
+        <v>0.5247524752475248</v>
       </c>
     </row>
     <row r="144">
@@ -2879,16 +2879,16 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>0.01768898897869296</v>
+        <v>0.127267719556888</v>
       </c>
       <c r="C144" t="n">
-        <v>0.01791067479643971</v>
+        <v>0.1350395956209728</v>
       </c>
       <c r="D144" t="n">
-        <v>0.3993061895198101</v>
+        <v>0.5666229794670161</v>
       </c>
       <c r="E144" t="n">
-        <v>0.4446742502585315</v>
+        <v>0.5099009900990099</v>
       </c>
     </row>
     <row r="145">
@@ -2896,16 +2896,16 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>0.01771012294041209</v>
+        <v>0.1273058619764116</v>
       </c>
       <c r="C145" t="n">
-        <v>0.01809945522109047</v>
+        <v>0.1353778466582298</v>
       </c>
       <c r="D145" t="n">
-        <v>0.4040533138579515</v>
+        <v>0.5705548274355614</v>
       </c>
       <c r="E145" t="n">
-        <v>0.3929679420889349</v>
+        <v>0.5074257425742574</v>
       </c>
     </row>
     <row r="146">
@@ -2913,16 +2913,16 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>0.01770965228680261</v>
+        <v>0.1272806194093492</v>
       </c>
       <c r="C146" t="n">
-        <v>0.01791159529238939</v>
+        <v>0.1343200036457607</v>
       </c>
       <c r="D146" t="n">
-        <v>0.403505568742012</v>
+        <v>0.5661861074705111</v>
       </c>
       <c r="E146" t="n">
-        <v>0.3453981385729059</v>
+        <v>0.5396039603960396</v>
       </c>
     </row>
     <row r="147">
@@ -2930,16 +2930,16 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>0.01774635326203912</v>
+        <v>0.1271784108959966</v>
       </c>
       <c r="C147" t="n">
-        <v>0.01769409381086007</v>
+        <v>0.134157015808991</v>
       </c>
       <c r="D147" t="n">
-        <v>0.3985758626985576</v>
+        <v>0.5744866754041066</v>
       </c>
       <c r="E147" t="n">
-        <v>0.3609100310237849</v>
+        <v>0.5470297029702971</v>
       </c>
     </row>
     <row r="148">
@@ -2947,16 +2947,16 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>0.01762897516925668</v>
+        <v>0.1269306610855791</v>
       </c>
       <c r="C148" t="n">
-        <v>0.01766273553948849</v>
+        <v>0.1348782618130956</v>
       </c>
       <c r="D148" t="n">
-        <v>0.4018623333941939</v>
+        <v>0.5626911314984709</v>
       </c>
       <c r="E148" t="n">
-        <v>0.4229576008273009</v>
+        <v>0.5346534653465347</v>
       </c>
     </row>
     <row r="149">
@@ -2964,16 +2964,16 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>0.01763951963593447</v>
+        <v>0.1269059570299255</v>
       </c>
       <c r="C149" t="n">
-        <v>0.01761019381228834</v>
+        <v>0.1349045389464923</v>
       </c>
       <c r="D149" t="n">
-        <v>0.4064268760270221</v>
+        <v>0.5661861074705111</v>
       </c>
       <c r="E149" t="n">
-        <v>0.3929679420889349</v>
+        <v>0.5297029702970297</v>
       </c>
     </row>
     <row r="150">
@@ -2981,16 +2981,16 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>0.01770133961555223</v>
+        <v>0.1273106330384811</v>
       </c>
       <c r="C150" t="n">
-        <v>0.01771522918716073</v>
+        <v>0.1360616832971573</v>
       </c>
       <c r="D150" t="n">
-        <v>0.4007668431623151</v>
+        <v>0.5709916994320664</v>
       </c>
       <c r="E150" t="n">
-        <v>0.4353671147880042</v>
+        <v>0.4975247524752475</v>
       </c>
     </row>
     <row r="151">
@@ -2998,16 +2998,16 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>0.01762618613970834</v>
+        <v>0.126125964232617</v>
       </c>
       <c r="C151" t="n">
-        <v>0.01764769741566852</v>
+        <v>0.134432923580919</v>
       </c>
       <c r="D151" t="n">
-        <v>0.4108088369545372</v>
+        <v>0.5718654434250765</v>
       </c>
       <c r="E151" t="n">
-        <v>0.3836608066184075</v>
+        <v>0.5321782178217822</v>
       </c>
     </row>
     <row r="152">
@@ -3015,16 +3015,16 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>0.01763998170188347</v>
+        <v>0.1266138402538167</v>
       </c>
       <c r="C152" t="n">
-        <v>0.01779631141107529</v>
+        <v>0.1343327803271157</v>
       </c>
       <c r="D152" t="n">
-        <v>0.3965674639401132</v>
+        <v>0.5775447793796418</v>
       </c>
       <c r="E152" t="n">
-        <v>0.3960703205791106</v>
+        <v>0.5346534653465347</v>
       </c>
     </row>
     <row r="153">
@@ -3032,16 +3032,16 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>0.01770031040664329</v>
+        <v>0.1270719294746717</v>
       </c>
       <c r="C153" t="n">
-        <v>0.01771972450660542</v>
+        <v>0.1347154762063708</v>
       </c>
       <c r="D153" t="n">
-        <v>0.4014971699835677</v>
+        <v>0.5666229794670161</v>
       </c>
       <c r="E153" t="n">
-        <v>0.405377456049638</v>
+        <v>0.5272277227722773</v>
       </c>
     </row>
     <row r="154">
@@ -3049,16 +3049,16 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>0.01766706240731616</v>
+        <v>0.1262514758855104</v>
       </c>
       <c r="C154" t="n">
-        <v>0.01784070039866492</v>
+        <v>0.1344056352972984</v>
       </c>
       <c r="D154" t="n">
-        <v>0.39346357494979</v>
+        <v>0.5705548274355614</v>
       </c>
       <c r="E154" t="n">
-        <v>0.4332988624612203</v>
+        <v>0.5396039603960396</v>
       </c>
     </row>
     <row r="155">
@@ -3066,16 +3066,16 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>0.01772321759571516</v>
+        <v>0.1269201131330596</v>
       </c>
       <c r="C155" t="n">
-        <v>0.01767667121021077</v>
+        <v>0.134467428284032</v>
       </c>
       <c r="D155" t="n">
-        <v>0.4055139675004564</v>
+        <v>0.5674967234600262</v>
       </c>
       <c r="E155" t="n">
-        <v>0.4312306101344364</v>
+        <v>0.5396039603960396</v>
       </c>
     </row>
     <row r="156">
@@ -3083,16 +3083,16 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>0.01766968677686744</v>
+        <v>0.1261886509342326</v>
       </c>
       <c r="C156" t="n">
-        <v>0.01761151565006003</v>
+        <v>0.1340879244463784</v>
       </c>
       <c r="D156" t="n">
-        <v>0.4056965492057696</v>
+        <v>0.5788553953691569</v>
       </c>
       <c r="E156" t="n">
-        <v>0.4250258531540848</v>
+        <v>0.5396039603960396</v>
       </c>
     </row>
     <row r="157">
@@ -3100,16 +3100,16 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>0.01767861810621134</v>
+        <v>0.1254680781728691</v>
       </c>
       <c r="C157" t="n">
-        <v>0.01770043972646818</v>
+        <v>0.1342532081263406</v>
       </c>
       <c r="D157" t="n">
-        <v>0.4044184772685777</v>
+        <v>0.5788553953691569</v>
       </c>
       <c r="E157" t="n">
-        <v>0.4353671147880042</v>
+        <v>0.5321782178217822</v>
       </c>
     </row>
     <row r="158">
@@ -3117,16 +3117,16 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>0.01767495070952316</v>
+        <v>0.1267661911745866</v>
       </c>
       <c r="C158" t="n">
-        <v>0.01768395991530269</v>
+        <v>0.1350484320095607</v>
       </c>
       <c r="D158" t="n">
-        <v>0.3938287383604163</v>
+        <v>0.5784185233726518</v>
       </c>
       <c r="E158" t="n">
-        <v>0.4322647362978284</v>
+        <v>0.5222772277227723</v>
       </c>
     </row>
     <row r="159">
@@ -3134,16 +3134,16 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>0.01763888072698962</v>
+        <v>0.126253404137161</v>
       </c>
       <c r="C159" t="n">
-        <v>0.0177367688738741</v>
+        <v>0.1351830405848367</v>
       </c>
       <c r="D159" t="n">
-        <v>0.4086178564907796</v>
+        <v>0.5701179554390564</v>
       </c>
       <c r="E159" t="n">
-        <v>0.4467425025853154</v>
+        <v>0.5198019801980198</v>
       </c>
     </row>
     <row r="160">
@@ -3151,16 +3151,16 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>0.0177111451210844</v>
+        <v>0.1260499976989296</v>
       </c>
       <c r="C160" t="n">
-        <v>0.0176715386332944</v>
+        <v>0.1347501150199345</v>
       </c>
       <c r="D160" t="n">
-        <v>0.4044184772685777</v>
+        <v>0.5740498034076016</v>
       </c>
       <c r="E160" t="n">
-        <v>0.3877973112719752</v>
+        <v>0.5371287128712872</v>
       </c>
     </row>
     <row r="161">
@@ -3168,16 +3168,16 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>0.01761492299522425</v>
+        <v>0.1256723672979408</v>
       </c>
       <c r="C161" t="n">
-        <v>0.01782168674981222</v>
+        <v>0.1341418091739927</v>
       </c>
       <c r="D161" t="n">
-        <v>0.4086178564907796</v>
+        <v>0.5771079073831368</v>
       </c>
       <c r="E161" t="n">
-        <v>0.3857290589451913</v>
+        <v>0.5222772277227723</v>
       </c>
     </row>
     <row r="162">
@@ -3185,16 +3185,16 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>0.01765299515885323</v>
+        <v>0.1258826858053605</v>
       </c>
       <c r="C162" t="n">
-        <v>0.01771887269569561</v>
+        <v>0.1339553381715502</v>
       </c>
       <c r="D162" t="n">
-        <v>0.4100785101332847</v>
+        <v>0.5701179554390564</v>
       </c>
       <c r="E162" t="n">
-        <v>0.4322647362978284</v>
+        <v>0.5371287128712872</v>
       </c>
     </row>
     <row r="163">
@@ -3202,16 +3202,16 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>0.01759563010662447</v>
+        <v>0.1253002114180062</v>
       </c>
       <c r="C163" t="n">
-        <v>0.01774599478812888</v>
+        <v>0.1342848134892327</v>
       </c>
       <c r="D163" t="n">
-        <v>0.4069746211429615</v>
+        <v>0.5797291393621669</v>
       </c>
       <c r="E163" t="n">
-        <v>0.4136504653567735</v>
+        <v>0.5297029702970297</v>
       </c>
     </row>
     <row r="164">
@@ -3219,16 +3219,16 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>0.01754013696945337</v>
+        <v>0.1259691949105925</v>
       </c>
       <c r="C164" t="n">
-        <v>0.01779539947165176</v>
+        <v>0.1345075070858002</v>
       </c>
       <c r="D164" t="n">
-        <v>0.4131823991236078</v>
+        <v>0.5679335954565312</v>
       </c>
       <c r="E164" t="n">
-        <v>0.4364012409513961</v>
+        <v>0.5173267326732673</v>
       </c>
     </row>
     <row r="165">
@@ -3236,16 +3236,16 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>0.01762102010421628</v>
+        <v>0.1259649460100465</v>
       </c>
       <c r="C165" t="n">
-        <v>0.01773632282856852</v>
+        <v>0.134204517517771</v>
       </c>
       <c r="D165" t="n">
-        <v>0.4089830199014059</v>
+        <v>0.5744866754041066</v>
       </c>
       <c r="E165" t="n">
-        <v>0.3722854188210962</v>
+        <v>0.5247524752475248</v>
       </c>
     </row>
     <row r="166">
@@ -3253,16 +3253,16 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>0.01761199320601516</v>
+        <v>0.1260352707985375</v>
       </c>
       <c r="C166" t="n">
-        <v>0.0177876430680044</v>
+        <v>0.1343312561511993</v>
       </c>
       <c r="D166" t="n">
-        <v>0.3985758626985576</v>
+        <v>0.5740498034076016</v>
       </c>
       <c r="E166" t="n">
-        <v>0.3826266804550155</v>
+        <v>0.5346534653465347</v>
       </c>
     </row>
     <row r="167">
@@ -3270,16 +3270,16 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>0.01764221804563043</v>
+        <v>0.1255343870984184</v>
       </c>
       <c r="C167" t="n">
-        <v>0.01768069755053148</v>
+        <v>0.1345681569405965</v>
       </c>
       <c r="D167" t="n">
-        <v>0.407704947964214</v>
+        <v>0.5792922673656619</v>
       </c>
       <c r="E167" t="n">
-        <v>0.4043433298862461</v>
+        <v>0.5321782178217822</v>
       </c>
     </row>
     <row r="168">
@@ -3287,16 +3287,16 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>0.017617390772631</v>
+        <v>0.1256884096397294</v>
       </c>
       <c r="C168" t="n">
-        <v>0.01774484885390848</v>
+        <v>0.1339148357510567</v>
       </c>
       <c r="D168" t="n">
-        <v>0.4088004381960927</v>
+        <v>0.580166011358672</v>
       </c>
       <c r="E168" t="n">
-        <v>0.3784901758014478</v>
+        <v>0.5321782178217822</v>
       </c>
     </row>
     <row r="169">
@@ -3304,16 +3304,16 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>0.01759007142120322</v>
+        <v>0.12599076413446</v>
       </c>
       <c r="C169" t="n">
-        <v>0.0177616341970861</v>
+        <v>0.1353128009608814</v>
       </c>
       <c r="D169" t="n">
-        <v>0.4073397845535877</v>
+        <v>0.5736129314110966</v>
       </c>
       <c r="E169" t="n">
-        <v>0.4115822130299897</v>
+        <v>0.5148514851485149</v>
       </c>
     </row>
     <row r="170">
@@ -3321,16 +3321,16 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>0.01754903078599031</v>
+        <v>0.1256702550583416</v>
       </c>
       <c r="C170" t="n">
-        <v>0.01771270588506013</v>
+        <v>0.1339378388864653</v>
       </c>
       <c r="D170" t="n">
-        <v>0.3947416468869819</v>
+        <v>0.5718654434250765</v>
       </c>
       <c r="E170" t="n">
-        <v>0.4260599793174767</v>
+        <v>0.5396039603960396</v>
       </c>
     </row>
     <row r="171">
@@ -3338,16 +3338,16 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>0.01750652644739941</v>
+        <v>0.1247293079892794</v>
       </c>
       <c r="C171" t="n">
-        <v>0.01784325903281569</v>
+        <v>0.134100510605744</v>
       </c>
       <c r="D171" t="n">
-        <v>0.4088004381960927</v>
+        <v>0.5757972913936217</v>
       </c>
       <c r="E171" t="n">
-        <v>0.468459152016546</v>
+        <v>0.5222772277227723</v>
       </c>
     </row>
     <row r="172">
@@ -3355,16 +3355,16 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>0.01763673592358828</v>
+        <v>0.125723327199618</v>
       </c>
       <c r="C172" t="n">
-        <v>0.01765804522437975</v>
+        <v>0.1334647866232055</v>
       </c>
       <c r="D172" t="n">
-        <v>0.4073397845535877</v>
+        <v>0.5670598514635212</v>
       </c>
       <c r="E172" t="n">
-        <v>0.4239917269906929</v>
+        <v>0.5470297029702971</v>
       </c>
     </row>
     <row r="173">
@@ -3372,16 +3372,16 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>0.01758722996685741</v>
+        <v>0.1252977210614416</v>
       </c>
       <c r="C173" t="n">
-        <v>0.01765374594833702</v>
+        <v>0.1348964965769223</v>
       </c>
       <c r="D173" t="n">
-        <v>0.4088004381960927</v>
+        <v>0.5797291393621669</v>
       </c>
       <c r="E173" t="n">
-        <v>0.4457083764219235</v>
+        <v>0.5074257425742574</v>
       </c>
     </row>
     <row r="174">
@@ -3389,16 +3389,16 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>0.01764923255067579</v>
+        <v>0.1263031914002365</v>
       </c>
       <c r="C174" t="n">
-        <v>0.01796231284970418</v>
+        <v>0.1338342768805368</v>
       </c>
       <c r="D174" t="n">
-        <v>0.3994887712251232</v>
+        <v>0.5653123634775011</v>
       </c>
       <c r="E174" t="n">
-        <v>0.4105480868665977</v>
+        <v>0.5420792079207921</v>
       </c>
     </row>
     <row r="175">
@@ -3406,16 +3406,16 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>0.01750858706357174</v>
+        <v>0.1256598114139504</v>
       </c>
       <c r="C175" t="n">
-        <v>0.01766112970653921</v>
+        <v>0.1333700492978096</v>
       </c>
       <c r="D175" t="n">
-        <v>0.4161037064086179</v>
+        <v>0.5626911314984709</v>
       </c>
       <c r="E175" t="n">
-        <v>0.37435367114788</v>
+        <v>0.5371287128712872</v>
       </c>
     </row>
     <row r="176">
@@ -3423,16 +3423,16 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>0.01757289939235116</v>
+        <v>0.1245378560076157</v>
       </c>
       <c r="C176" t="n">
-        <v>0.01768616784829646</v>
+        <v>0.1338825640933854</v>
       </c>
       <c r="D176" t="n">
-        <v>0.404783640679204</v>
+        <v>0.5753604193971167</v>
       </c>
       <c r="E176" t="n">
-        <v>0.4550155118924509</v>
+        <v>0.5247524752475248</v>
       </c>
     </row>
     <row r="177">
@@ -3440,16 +3440,16 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>0.01762675910884904</v>
+        <v>0.1244950849148962</v>
       </c>
       <c r="C177" t="n">
-        <v>0.01765124191297218</v>
+        <v>0.1341464200190135</v>
       </c>
       <c r="D177" t="n">
-        <v>0.4161037064086179</v>
+        <v>0.5779816513761468</v>
       </c>
       <c r="E177" t="n">
-        <v>0.4488107549120993</v>
+        <v>0.5371287128712872</v>
       </c>
     </row>
     <row r="178">
@@ -3457,16 +3457,16 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>0.01760370578876761</v>
+        <v>0.1247012654526366</v>
       </c>
       <c r="C178" t="n">
-        <v>0.01766895886976272</v>
+        <v>0.1339930945209094</v>
       </c>
       <c r="D178" t="n">
-        <v>0.4031404053313858</v>
+        <v>0.5819134993446921</v>
       </c>
       <c r="E178" t="n">
-        <v>0.4188210961737332</v>
+        <v>0.5222772277227723</v>
       </c>
     </row>
     <row r="179">
@@ -3474,16 +3474,16 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>0.01758794611059996</v>
+        <v>0.1249209145704905</v>
       </c>
       <c r="C179" t="n">
-        <v>0.01782790082506835</v>
+        <v>0.134590500167438</v>
       </c>
       <c r="D179" t="n">
-        <v>0.407704947964214</v>
+        <v>0.5753604193971167</v>
       </c>
       <c r="E179" t="n">
-        <v>0.4281282316442606</v>
+        <v>0.5024752475247525</v>
       </c>
     </row>
     <row r="180">
@@ -3491,16 +3491,16 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>0.01754387513582789</v>
+        <v>0.1250014410664638</v>
       </c>
       <c r="C180" t="n">
-        <v>0.01764619530877098</v>
+        <v>0.134733749287469</v>
       </c>
       <c r="D180" t="n">
-        <v>0.4122694905970422</v>
+        <v>0.5679335954565312</v>
       </c>
       <c r="E180" t="n">
-        <v>0.4208893485005171</v>
+        <v>0.5371287128712872</v>
       </c>
     </row>
     <row r="181">
@@ -3508,16 +3508,16 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>0.0175315530884058</v>
+        <v>0.125133100276192</v>
       </c>
       <c r="C181" t="n">
-        <v>0.01776216819416732</v>
+        <v>0.1334888509341649</v>
       </c>
       <c r="D181" t="n">
-        <v>0.4051488040898302</v>
+        <v>0.5788553953691569</v>
       </c>
       <c r="E181" t="n">
-        <v>0.4550155118924509</v>
+        <v>0.551980198019802</v>
       </c>
     </row>
     <row r="182">
@@ -3525,16 +3525,16 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>0.0175492862499384</v>
+        <v>0.125271909766727</v>
       </c>
       <c r="C182" t="n">
-        <v>0.01767224265495315</v>
+        <v>0.135619193315506</v>
       </c>
       <c r="D182" t="n">
-        <v>0.4086178564907796</v>
+        <v>0.5705548274355614</v>
       </c>
       <c r="E182" t="n">
-        <v>0.4343329886246122</v>
+        <v>0.5173267326732673</v>
       </c>
     </row>
     <row r="183">
@@ -3542,16 +3542,16 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>0.01757274634139829</v>
+        <v>0.1251827482548025</v>
       </c>
       <c r="C183" t="n">
-        <v>0.01771773345535621</v>
+        <v>0.1340058871677944</v>
       </c>
       <c r="D183" t="n">
-        <v>0.4036881504473252</v>
+        <v>0.5688073394495413</v>
       </c>
       <c r="E183" t="n">
-        <v>0.4332988624612203</v>
+        <v>0.5272277227722773</v>
       </c>
     </row>
     <row r="184">
@@ -3559,16 +3559,16 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>0.01760680298862416</v>
+        <v>0.1245372800363435</v>
       </c>
       <c r="C184" t="n">
-        <v>0.0177254038862884</v>
+        <v>0.1332947760820389</v>
       </c>
       <c r="D184" t="n">
-        <v>0.4069746211429615</v>
+        <v>0.5845347313237221</v>
       </c>
       <c r="E184" t="n">
-        <v>0.3960703205791106</v>
+        <v>0.5420792079207921</v>
       </c>
     </row>
     <row r="185">
@@ -3576,16 +3576,16 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>0.01760660353398254</v>
+        <v>0.1247109439637926</v>
       </c>
       <c r="C185" t="n">
-        <v>0.01771088573150337</v>
+        <v>0.1340281920773642</v>
       </c>
       <c r="D185" t="n">
-        <v>0.4113565820704765</v>
+        <v>0.5718654434250765</v>
       </c>
       <c r="E185" t="n">
-        <v>0.4560496380558428</v>
+        <v>0.5445544554455446</v>
       </c>
     </row>
     <row r="186">
@@ -3593,16 +3593,16 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>0.01755148719259819</v>
+        <v>0.1245861432204644</v>
       </c>
       <c r="C186" t="n">
-        <v>0.0176621800637804</v>
+        <v>0.1341020039149693</v>
       </c>
       <c r="D186" t="n">
-        <v>0.4119043271864159</v>
+        <v>0.5757972913936217</v>
       </c>
       <c r="E186" t="n">
-        <v>0.4167528438469493</v>
+        <v>0.5247524752475248</v>
       </c>
     </row>
     <row r="187">
@@ -3610,16 +3610,16 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>0.01757390739742753</v>
+        <v>0.1244386517339283</v>
       </c>
       <c r="C187" t="n">
-        <v>0.01765245047863573</v>
+        <v>0.1341879208173071</v>
       </c>
       <c r="D187" t="n">
-        <v>0.4113565820704765</v>
+        <v>0.5766710353866317</v>
       </c>
       <c r="E187" t="n">
-        <v>0.4074457083764219</v>
+        <v>0.5420792079207921</v>
       </c>
     </row>
     <row r="188">
@@ -3627,16 +3627,16 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>0.01752317230065548</v>
+        <v>0.1248226308574279</v>
       </c>
       <c r="C188" t="n">
-        <v>0.01768516161246225</v>
+        <v>0.1341502176863807</v>
       </c>
       <c r="D188" t="n">
-        <v>0.4166514515245572</v>
+        <v>0.581039755351682</v>
       </c>
       <c r="E188" t="n">
-        <v>0.3929679420889349</v>
+        <v>0.5247524752475248</v>
       </c>
     </row>
     <row r="189">
@@ -3644,16 +3644,16 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>0.01759123633247475</v>
+        <v>0.1250605260332426</v>
       </c>
       <c r="C189" t="n">
-        <v>0.01791963825235143</v>
+        <v>0.134435127888407</v>
       </c>
       <c r="D189" t="n">
-        <v>0.4168340332298704</v>
+        <v>0.5762341633901267</v>
       </c>
       <c r="E189" t="n">
-        <v>0.3867631851085833</v>
+        <v>0.495049504950495</v>
       </c>
     </row>
     <row r="190">
@@ -3661,16 +3661,16 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>0.01758124181177727</v>
+        <v>0.1235905248257849</v>
       </c>
       <c r="C190" t="n">
-        <v>0.01768325828015804</v>
+        <v>0.1334644630551338</v>
       </c>
       <c r="D190" t="n">
-        <v>0.4024100785101333</v>
+        <v>0.5871559633027523</v>
       </c>
       <c r="E190" t="n">
-        <v>0.4105480868665977</v>
+        <v>0.5198019801980198</v>
       </c>
     </row>
     <row r="191">
@@ -3678,16 +3678,16 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>0.01752851118311979</v>
+        <v>0.1240508517043458</v>
       </c>
       <c r="C191" t="n">
-        <v>0.01771033479599282</v>
+        <v>0.1344550443547113</v>
       </c>
       <c r="D191" t="n">
-        <v>0.4075223662589009</v>
+        <v>0.582350371341197</v>
       </c>
       <c r="E191" t="n">
-        <v>0.4415718717683557</v>
+        <v>0.5123762376237624</v>
       </c>
     </row>
     <row r="192">
@@ -3695,16 +3695,16 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>0.01750504881750013</v>
+        <v>0.1236003827717569</v>
       </c>
       <c r="C192" t="n">
-        <v>0.01780982443597168</v>
+        <v>0.133599867778165</v>
       </c>
       <c r="D192" t="n">
-        <v>0.4120869088917291</v>
+        <v>0.5723023154215815</v>
       </c>
       <c r="E192" t="n">
-        <v>0.4229576008273009</v>
+        <v>0.5495049504950495</v>
       </c>
     </row>
     <row r="193">
@@ -3712,16 +3712,16 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>0.01751205052227475</v>
+        <v>0.1237213179055187</v>
       </c>
       <c r="C193" t="n">
-        <v>0.017921932565514</v>
+        <v>0.1333290966493743</v>
       </c>
       <c r="D193" t="n">
-        <v>0.4159211247033047</v>
+        <v>0.5814766273481869</v>
       </c>
       <c r="E193" t="n">
-        <v>0.452947259565667</v>
+        <v>0.5346534653465347</v>
       </c>
     </row>
     <row r="194">
@@ -3729,16 +3729,16 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>0.01760620211229421</v>
+        <v>0.1240980287806855</v>
       </c>
       <c r="C194" t="n">
-        <v>0.01772977027576417</v>
+        <v>0.1339770385197231</v>
       </c>
       <c r="D194" t="n">
-        <v>0.416286288113931</v>
+        <v>0.5740498034076016</v>
       </c>
       <c r="E194" t="n">
-        <v>0.4002068252326784</v>
+        <v>0.5198019801980198</v>
       </c>
     </row>
     <row r="195">
@@ -3746,16 +3746,16 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>0.01750697418614182</v>
+        <v>0.123959441565805</v>
       </c>
       <c r="C195" t="n">
-        <v>0.01769930316368118</v>
+        <v>0.1332522173013006</v>
       </c>
       <c r="D195" t="n">
-        <v>0.4100785101332847</v>
+        <v>0.5788553953691569</v>
       </c>
       <c r="E195" t="n">
-        <v>0.437435367114788</v>
+        <v>0.5346534653465347</v>
       </c>
     </row>
     <row r="196">
@@ -3763,16 +3763,16 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>0.01750888789159268</v>
+        <v>0.1236591819259855</v>
       </c>
       <c r="C196" t="n">
-        <v>0.01763545180438086</v>
+        <v>0.1336799625839506</v>
       </c>
       <c r="D196" t="n">
-        <v>0.3998539346357495</v>
+        <v>0.5784185233726518</v>
       </c>
       <c r="E196" t="n">
-        <v>0.4239917269906929</v>
+        <v>0.5272277227722773</v>
       </c>
     </row>
     <row r="197">
@@ -3780,16 +3780,16 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>0.01749029576908364</v>
+        <v>0.123506923723552</v>
       </c>
       <c r="C197" t="n">
-        <v>0.01761060091666877</v>
+        <v>0.1333721769707543</v>
       </c>
       <c r="D197" t="n">
-        <v>0.4168340332298704</v>
+        <v>0.5928352992573176</v>
       </c>
       <c r="E197" t="n">
-        <v>0.4291623578076526</v>
+        <v>0.5346534653465347</v>
       </c>
     </row>
     <row r="198">
@@ -3797,16 +3797,16 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>0.01751452563113945</v>
+        <v>0.1227544167389472</v>
       </c>
       <c r="C198" t="n">
-        <v>0.01792124076746404</v>
+        <v>0.1339628941246442</v>
       </c>
       <c r="D198" t="n">
-        <v>0.4097133467226584</v>
+        <v>0.5840978593272171</v>
       </c>
       <c r="E198" t="n">
-        <v>0.3929679420889349</v>
+        <v>0.4975247524752475</v>
       </c>
     </row>
     <row r="199">
@@ -3814,16 +3814,16 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>0.01749970796409734</v>
+        <v>0.1237879970835315</v>
       </c>
       <c r="C199" t="n">
-        <v>0.01777769584441558</v>
+        <v>0.1339380219578743</v>
       </c>
       <c r="D199" t="n">
-        <v>0.4062442943217089</v>
+        <v>0.5889034512887724</v>
       </c>
       <c r="E199" t="n">
-        <v>0.4446742502585315</v>
+        <v>0.5445544554455446</v>
       </c>
     </row>
     <row r="200">
@@ -3831,16 +3831,16 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>0.01756284101108132</v>
+        <v>0.1241901630742682</v>
       </c>
       <c r="C200" t="n">
-        <v>0.01803795929299667</v>
+        <v>0.1339154658573014</v>
       </c>
       <c r="D200" t="n">
-        <v>0.4078875296695271</v>
+        <v>0.5797291393621669</v>
       </c>
       <c r="E200" t="n">
-        <v>0.3981385729058945</v>
+        <v>0.5074257425742574</v>
       </c>
     </row>
     <row r="201">
@@ -3848,16 +3848,16 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>0.01753201451542419</v>
+        <v>0.1238619906620847</v>
       </c>
       <c r="C201" t="n">
-        <v>0.01767352485330775</v>
+        <v>0.1331351569720677</v>
       </c>
       <c r="D201" t="n">
-        <v>0.410626255249224</v>
+        <v>0.5740498034076016</v>
       </c>
       <c r="E201" t="n">
-        <v>0.3660806618407446</v>
+        <v>0.5495049504950495</v>
       </c>
     </row>
     <row r="202">
@@ -3865,16 +3865,5116 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>0.01750365806050425</v>
+        <v>0.1232148824880521</v>
       </c>
       <c r="C202" t="n">
-        <v>0.01777613541344181</v>
+        <v>0.1333208616290774</v>
       </c>
       <c r="D202" t="n">
-        <v>0.4084352747854665</v>
+        <v>0.5788553953691569</v>
       </c>
       <c r="E202" t="n">
-        <v>0.4177869700103413</v>
+        <v>0.5346534653465347</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>0.1235897789398829</v>
+      </c>
+      <c r="C203" t="n">
+        <v>0.1330436521342822</v>
+      </c>
+      <c r="D203" t="n">
+        <v>0.5836609873307121</v>
+      </c>
+      <c r="E203" t="n">
+        <v>0.5445544554455446</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>0.1240505087706778</v>
+      </c>
+      <c r="C204" t="n">
+        <v>0.1336280937705721</v>
+      </c>
+      <c r="D204" t="n">
+        <v>0.5749235474006116</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0.5272277227722773</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>0.1230806070897314</v>
+      </c>
+      <c r="C205" t="n">
+        <v>0.1331129372119904</v>
+      </c>
+      <c r="D205" t="n">
+        <v>0.5915246832678025</v>
+      </c>
+      <c r="E205" t="n">
+        <v>0.5445544554455446</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>0.1229743431839678</v>
+      </c>
+      <c r="C206" t="n">
+        <v>0.1343533971479961</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0.5762341633901267</v>
+      </c>
+      <c r="E206" t="n">
+        <v>0.5371287128712872</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>0.1240286369704538</v>
+      </c>
+      <c r="C207" t="n">
+        <v>0.1352957891566413</v>
+      </c>
+      <c r="D207" t="n">
+        <v>0.5723023154215815</v>
+      </c>
+      <c r="E207" t="n">
+        <v>0.5272277227722773</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>0.1231151655730274</v>
+      </c>
+      <c r="C208" t="n">
+        <v>0.1332131272980145</v>
+      </c>
+      <c r="D208" t="n">
+        <v>0.5797291393621669</v>
+      </c>
+      <c r="E208" t="n">
+        <v>0.551980198019802</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>0.1232831656104988</v>
+      </c>
+      <c r="C209" t="n">
+        <v>0.1339322945901326</v>
+      </c>
+      <c r="D209" t="n">
+        <v>0.5840978593272171</v>
+      </c>
+      <c r="E209" t="n">
+        <v>0.504950495049505</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>0.1234453248067035</v>
+      </c>
+      <c r="C210" t="n">
+        <v>0.1336164836372648</v>
+      </c>
+      <c r="D210" t="n">
+        <v>0.5775447793796418</v>
+      </c>
+      <c r="E210" t="n">
+        <v>0.5148514851485149</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>0.122137647949987</v>
+      </c>
+      <c r="C211" t="n">
+        <v>0.1333200420652117</v>
+      </c>
+      <c r="D211" t="n">
+        <v>0.5919615552643076</v>
+      </c>
+      <c r="E211" t="n">
+        <v>0.5371287128712872</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>0.1227271716213889</v>
+      </c>
+      <c r="C212" t="n">
+        <v>0.132798361991133</v>
+      </c>
+      <c r="D212" t="n">
+        <v>0.582787243337702</v>
+      </c>
+      <c r="E212" t="n">
+        <v>0.5396039603960396</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>0.1224052287224266</v>
+      </c>
+      <c r="C213" t="n">
+        <v>0.1340524298804147</v>
+      </c>
+      <c r="D213" t="n">
+        <v>0.5880297072957623</v>
+      </c>
+      <c r="E213" t="n">
+        <v>0.504950495049505</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>0.1228547156271007</v>
+      </c>
+      <c r="C214" t="n">
+        <v>0.132957755454949</v>
+      </c>
+      <c r="D214" t="n">
+        <v>0.5836609873307121</v>
+      </c>
+      <c r="E214" t="n">
+        <v>0.5346534653465347</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>0.1228576532254616</v>
+      </c>
+      <c r="C215" t="n">
+        <v>0.1332888752222061</v>
+      </c>
+      <c r="D215" t="n">
+        <v>0.5788553953691569</v>
+      </c>
+      <c r="E215" t="n">
+        <v>0.5445544554455446</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>0.1222247193670935</v>
+      </c>
+      <c r="C216" t="n">
+        <v>0.1328611895442009</v>
+      </c>
+      <c r="D216" t="n">
+        <v>0.5889034512887724</v>
+      </c>
+      <c r="E216" t="n">
+        <v>0.5346534653465347</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>0.1215993501245975</v>
+      </c>
+      <c r="C217" t="n">
+        <v>0.1342229545116425</v>
+      </c>
+      <c r="D217" t="n">
+        <v>0.5880297072957623</v>
+      </c>
+      <c r="E217" t="n">
+        <v>0.5074257425742574</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>0.1214871917747789</v>
+      </c>
+      <c r="C218" t="n">
+        <v>0.1334491553051131</v>
+      </c>
+      <c r="D218" t="n">
+        <v>0.582350371341197</v>
+      </c>
+      <c r="E218" t="n">
+        <v>0.5148514851485149</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>0.1221812622000774</v>
+      </c>
+      <c r="C219" t="n">
+        <v>0.1329252677304404</v>
+      </c>
+      <c r="D219" t="n">
+        <v>0.5862822193097422</v>
+      </c>
+      <c r="E219" t="n">
+        <v>0.5396039603960396</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>0.1231616805824969</v>
+      </c>
+      <c r="C220" t="n">
+        <v>0.1334241458347865</v>
+      </c>
+      <c r="D220" t="n">
+        <v>0.5849716033202271</v>
+      </c>
+      <c r="E220" t="n">
+        <v>0.5099009900990099</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>0.1226473216795259</v>
+      </c>
+      <c r="C221" t="n">
+        <v>0.134173680629049</v>
+      </c>
+      <c r="D221" t="n">
+        <v>0.5788553953691569</v>
+      </c>
+      <c r="E221" t="n">
+        <v>0.5099009900990099</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>0.1215736104382409</v>
+      </c>
+      <c r="C222" t="n">
+        <v>0.1331757637006896</v>
+      </c>
+      <c r="D222" t="n">
+        <v>0.5954565312363478</v>
+      </c>
+      <c r="E222" t="n">
+        <v>0.5346534653465347</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>0.1213992084893915</v>
+      </c>
+      <c r="C223" t="n">
+        <v>0.1328235917857715</v>
+      </c>
+      <c r="D223" t="n">
+        <v>0.5897771952817824</v>
+      </c>
+      <c r="E223" t="n">
+        <v>0.5297029702970297</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>0.1218499932438135</v>
+      </c>
+      <c r="C224" t="n">
+        <v>0.1330897690994399</v>
+      </c>
+      <c r="D224" t="n">
+        <v>0.5919615552643076</v>
+      </c>
+      <c r="E224" t="n">
+        <v>0.5173267326732673</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>0.1210006893508964</v>
+      </c>
+      <c r="C225" t="n">
+        <v>0.1327807711703437</v>
+      </c>
+      <c r="D225" t="n">
+        <v>0.5814766273481869</v>
+      </c>
+      <c r="E225" t="n">
+        <v>0.5396039603960396</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>0.1209628163940377</v>
+      </c>
+      <c r="C226" t="n">
+        <v>0.1335557284099715</v>
+      </c>
+      <c r="D226" t="n">
+        <v>0.582350371341197</v>
+      </c>
+      <c r="E226" t="n">
+        <v>0.5198019801980198</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>0.1217709593474865</v>
+      </c>
+      <c r="C227" t="n">
+        <v>0.1331777125597</v>
+      </c>
+      <c r="D227" t="n">
+        <v>0.5849716033202271</v>
+      </c>
+      <c r="E227" t="n">
+        <v>0.5247524752475248</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>0.1218566958689027</v>
+      </c>
+      <c r="C228" t="n">
+        <v>0.1347629385335105</v>
+      </c>
+      <c r="D228" t="n">
+        <v>0.5784185233726518</v>
+      </c>
+      <c r="E228" t="n">
+        <v>0.5346534653465347</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>0.1220803643680281</v>
+      </c>
+      <c r="C229" t="n">
+        <v>0.1330308296850749</v>
+      </c>
+      <c r="D229" t="n">
+        <v>0.5932721712538226</v>
+      </c>
+      <c r="E229" t="n">
+        <v>0.5346534653465347</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>0.122036217401425</v>
+      </c>
+      <c r="C230" t="n">
+        <v>0.1327973167811121</v>
+      </c>
+      <c r="D230" t="n">
+        <v>0.5923984272608126</v>
+      </c>
+      <c r="E230" t="n">
+        <v>0.5420792079207921</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>0.1210086716132032</v>
+      </c>
+      <c r="C231" t="n">
+        <v>0.1336199875388827</v>
+      </c>
+      <c r="D231" t="n">
+        <v>0.5858453473132372</v>
+      </c>
+      <c r="E231" t="n">
+        <v>0.504950495049505</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>0.1201958356218206</v>
+      </c>
+      <c r="C232" t="n">
+        <v>0.1325644978455135</v>
+      </c>
+      <c r="D232" t="n">
+        <v>0.6046308431629532</v>
+      </c>
+      <c r="E232" t="n">
+        <v>0.5297029702970297</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>0.1208882685750723</v>
+      </c>
+      <c r="C233" t="n">
+        <v>0.1329134372728211</v>
+      </c>
+      <c r="D233" t="n">
+        <v>0.5889034512887724</v>
+      </c>
+      <c r="E233" t="n">
+        <v>0.504950495049505</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>0.121055204835203</v>
+      </c>
+      <c r="C234" t="n">
+        <v>0.1325606874057225</v>
+      </c>
+      <c r="D234" t="n">
+        <v>0.5950196592398427</v>
+      </c>
+      <c r="E234" t="n">
+        <v>0.5321782178217822</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>0.1204248517751694</v>
+      </c>
+      <c r="C235" t="n">
+        <v>0.1326594288860048</v>
+      </c>
+      <c r="D235" t="n">
+        <v>0.5980777632153779</v>
+      </c>
+      <c r="E235" t="n">
+        <v>0.5247524752475248</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>0.1209262147959736</v>
+      </c>
+      <c r="C236" t="n">
+        <v>0.1329226685421807</v>
+      </c>
+      <c r="D236" t="n">
+        <v>0.5928352992573176</v>
+      </c>
+      <c r="E236" t="n">
+        <v>0.5396039603960396</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>0.1210798416286707</v>
+      </c>
+      <c r="C237" t="n">
+        <v>0.1327090731688908</v>
+      </c>
+      <c r="D237" t="n">
+        <v>0.5884665792922673</v>
+      </c>
+      <c r="E237" t="n">
+        <v>0.5247524752475248</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>0.1205219705071714</v>
+      </c>
+      <c r="C238" t="n">
+        <v>0.1337679550051689</v>
+      </c>
+      <c r="D238" t="n">
+        <v>0.5819134993446921</v>
+      </c>
+      <c r="E238" t="n">
+        <v>0.504950495049505</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>0.1208994533452723</v>
+      </c>
+      <c r="C239" t="n">
+        <v>0.1328586105789457</v>
+      </c>
+      <c r="D239" t="n">
+        <v>0.5941459152468327</v>
+      </c>
+      <c r="E239" t="n">
+        <v>0.5173267326732673</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>0.119550200800101</v>
+      </c>
+      <c r="C240" t="n">
+        <v>0.1342129877635411</v>
+      </c>
+      <c r="D240" t="n">
+        <v>0.5889034512887724</v>
+      </c>
+      <c r="E240" t="n">
+        <v>0.4925742574257426</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>0.1209910116675827</v>
+      </c>
+      <c r="C241" t="n">
+        <v>0.1327171857867922</v>
+      </c>
+      <c r="D241" t="n">
+        <v>0.5862822193097422</v>
+      </c>
+      <c r="E241" t="n">
+        <v>0.5297029702970297</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>0.1207809634506702</v>
+      </c>
+      <c r="C242" t="n">
+        <v>0.1328216418623924</v>
+      </c>
+      <c r="D242" t="n">
+        <v>0.5819134993446921</v>
+      </c>
+      <c r="E242" t="n">
+        <v>0.5346534653465347</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>0.1211395187096463</v>
+      </c>
+      <c r="C243" t="n">
+        <v>0.133953937462398</v>
+      </c>
+      <c r="D243" t="n">
+        <v>0.580166011358672</v>
+      </c>
+      <c r="E243" t="n">
+        <v>0.5321782178217822</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>0.1207090982546409</v>
+      </c>
+      <c r="C244" t="n">
+        <v>0.1336242545928274</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0.5906509392747925</v>
+      </c>
+      <c r="E244" t="n">
+        <v>0.5495049504950495</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>0.1202418748289347</v>
+      </c>
+      <c r="C245" t="n">
+        <v>0.1331985401255744</v>
+      </c>
+      <c r="D245" t="n">
+        <v>0.5919615552643076</v>
+      </c>
+      <c r="E245" t="n">
+        <v>0.5148514851485149</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>0.1199524065272676</v>
+      </c>
+      <c r="C246" t="n">
+        <v>0.1328238993883133</v>
+      </c>
+      <c r="D246" t="n">
+        <v>0.599388379204893</v>
+      </c>
+      <c r="E246" t="n">
+        <v>0.5074257425742574</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>0.12075426388118</v>
+      </c>
+      <c r="C247" t="n">
+        <v>0.132567184312003</v>
+      </c>
+      <c r="D247" t="n">
+        <v>0.5937090432503277</v>
+      </c>
+      <c r="E247" t="n">
+        <v>0.5272277227722773</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>0.1201998403088914</v>
+      </c>
+      <c r="C248" t="n">
+        <v>0.1331983591829027</v>
+      </c>
+      <c r="D248" t="n">
+        <v>0.599825251201398</v>
+      </c>
+      <c r="E248" t="n">
+        <v>0.5024752475247525</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>0.1204005293548107</v>
+      </c>
+      <c r="C249" t="n">
+        <v>0.1328960146222796</v>
+      </c>
+      <c r="D249" t="n">
+        <v>0.5906509392747925</v>
+      </c>
+      <c r="E249" t="n">
+        <v>0.5445544554455446</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>0.1196363090227048</v>
+      </c>
+      <c r="C250" t="n">
+        <v>0.1335639314992087</v>
+      </c>
+      <c r="D250" t="n">
+        <v>0.598514635211883</v>
+      </c>
+      <c r="E250" t="n">
+        <v>0.5148514851485149</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>0.119853168932928</v>
+      </c>
+      <c r="C251" t="n">
+        <v>0.1336339126740183</v>
+      </c>
+      <c r="D251" t="n">
+        <v>0.5945827872433377</v>
+      </c>
+      <c r="E251" t="n">
+        <v>0.5123762376237624</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>0.1200736783858803</v>
+      </c>
+      <c r="C252" t="n">
+        <v>0.1325278878211975</v>
+      </c>
+      <c r="D252" t="n">
+        <v>0.5880297072957623</v>
+      </c>
+      <c r="E252" t="n">
+        <v>0.5297029702970297</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>0.1185405055681864</v>
+      </c>
+      <c r="C253" t="n">
+        <v>0.1331456239734377</v>
+      </c>
+      <c r="D253" t="n">
+        <v>0.5945827872433377</v>
+      </c>
+      <c r="E253" t="n">
+        <v>0.5123762376237624</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>0.1199480903645356</v>
+      </c>
+      <c r="C254" t="n">
+        <v>0.1325378875647272</v>
+      </c>
+      <c r="D254" t="n">
+        <v>0.5910878112712975</v>
+      </c>
+      <c r="E254" t="n">
+        <v>0.5074257425742574</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>0.1196508032994138</v>
+      </c>
+      <c r="C255" t="n">
+        <v>0.1325839183160237</v>
+      </c>
+      <c r="D255" t="n">
+        <v>0.5923984272608126</v>
+      </c>
+      <c r="E255" t="n">
+        <v>0.5321782178217822</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>0.1195024883167611</v>
+      </c>
+      <c r="C256" t="n">
+        <v>0.1328809516770499</v>
+      </c>
+      <c r="D256" t="n">
+        <v>0.5871559633027523</v>
+      </c>
+      <c r="E256" t="n">
+        <v>0.5123762376237624</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>0.1202497374680307</v>
+      </c>
+      <c r="C257" t="n">
+        <v>0.1332832755787032</v>
+      </c>
+      <c r="D257" t="n">
+        <v>0.582787243337702</v>
+      </c>
+      <c r="E257" t="n">
+        <v>0.504950495049505</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>0.1188457651684682</v>
+      </c>
+      <c r="C258" t="n">
+        <v>0.1323701749954905</v>
+      </c>
+      <c r="D258" t="n">
+        <v>0.5972040192223679</v>
+      </c>
+      <c r="E258" t="n">
+        <v>0.5247524752475248</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>0.1190704947544469</v>
+      </c>
+      <c r="C259" t="n">
+        <v>0.1334045178123883</v>
+      </c>
+      <c r="D259" t="n">
+        <v>0.5958934032328528</v>
+      </c>
+      <c r="E259" t="n">
+        <v>0.5024752475247525</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>0.1190198411544164</v>
+      </c>
+      <c r="C260" t="n">
+        <v>0.1323194642152105</v>
+      </c>
+      <c r="D260" t="n">
+        <v>0.6050677151594582</v>
+      </c>
+      <c r="E260" t="n">
+        <v>0.5470297029702971</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>0.1184538466235002</v>
+      </c>
+      <c r="C261" t="n">
+        <v>0.1324285566806793</v>
+      </c>
+      <c r="D261" t="n">
+        <v>0.5963302752293578</v>
+      </c>
+      <c r="E261" t="n">
+        <v>0.5420792079207921</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>0.1193959272156159</v>
+      </c>
+      <c r="C262" t="n">
+        <v>0.1323864012956619</v>
+      </c>
+      <c r="D262" t="n">
+        <v>0.5954565312363478</v>
+      </c>
+      <c r="E262" t="n">
+        <v>0.5222772277227723</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>0.1188538484275341</v>
+      </c>
+      <c r="C263" t="n">
+        <v>0.1326327973178455</v>
+      </c>
+      <c r="D263" t="n">
+        <v>0.598514635211883</v>
+      </c>
+      <c r="E263" t="n">
+        <v>0.5173267326732673</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>0.1197392232716084</v>
+      </c>
+      <c r="C264" t="n">
+        <v>0.1327643926654543</v>
+      </c>
+      <c r="D264" t="n">
+        <v>0.5928352992573176</v>
+      </c>
+      <c r="E264" t="n">
+        <v>0.5198019801980198</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>0.1180899935877985</v>
+      </c>
+      <c r="C265" t="n">
+        <v>0.1329966889960425</v>
+      </c>
+      <c r="D265" t="n">
+        <v>0.6076889471384884</v>
+      </c>
+      <c r="E265" t="n">
+        <v>0.5222772277227723</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>0.1187681038346556</v>
+      </c>
+      <c r="C266" t="n">
+        <v>0.1323473315153803</v>
+      </c>
+      <c r="D266" t="n">
+        <v>0.5976408912188729</v>
+      </c>
+      <c r="E266" t="n">
+        <v>0.5371287128712872</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>0.1185732136170069</v>
+      </c>
+      <c r="C267" t="n">
+        <v>0.1328097698943956</v>
+      </c>
+      <c r="D267" t="n">
+        <v>0.5958934032328528</v>
+      </c>
+      <c r="E267" t="n">
+        <v>0.5198019801980198</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>0.1191339499006669</v>
+      </c>
+      <c r="C268" t="n">
+        <v>0.132439669753824</v>
+      </c>
+      <c r="D268" t="n">
+        <v>0.5972040192223679</v>
+      </c>
+      <c r="E268" t="n">
+        <v>0.5074257425742574</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>0.118310817827781</v>
+      </c>
+      <c r="C269" t="n">
+        <v>0.1323341067348208</v>
+      </c>
+      <c r="D269" t="n">
+        <v>0.6041939711664482</v>
+      </c>
+      <c r="E269" t="n">
+        <v>0.5346534653465347</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>0.1182975373748276</v>
+      </c>
+      <c r="C270" t="n">
+        <v>0.1345605605414935</v>
+      </c>
+      <c r="D270" t="n">
+        <v>0.6020096111839232</v>
+      </c>
+      <c r="E270" t="n">
+        <v>0.4900990099009901</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>0.1193221091396279</v>
+      </c>
+      <c r="C271" t="n">
+        <v>0.132089553134782</v>
+      </c>
+      <c r="D271" t="n">
+        <v>0.5928352992573176</v>
+      </c>
+      <c r="E271" t="n">
+        <v>0.5247524752475248</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>0.1183959071834882</v>
+      </c>
+      <c r="C272" t="n">
+        <v>0.1330962883574622</v>
+      </c>
+      <c r="D272" t="n">
+        <v>0.6020096111839232</v>
+      </c>
+      <c r="E272" t="n">
+        <v>0.5099009900990099</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>0.1196063914232784</v>
+      </c>
+      <c r="C273" t="n">
+        <v>0.1338778861931392</v>
+      </c>
+      <c r="D273" t="n">
+        <v>0.5928352992573176</v>
+      </c>
+      <c r="E273" t="n">
+        <v>0.5346534653465347</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>0.1177701848662562</v>
+      </c>
+      <c r="C274" t="n">
+        <v>0.1324309536388942</v>
+      </c>
+      <c r="D274" t="n">
+        <v>0.599388379204893</v>
+      </c>
+      <c r="E274" t="n">
+        <v>0.5198019801980198</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>0.1181886701120271</v>
+      </c>
+      <c r="C275" t="n">
+        <v>0.1328013188072613</v>
+      </c>
+      <c r="D275" t="n">
+        <v>0.5893403232852774</v>
+      </c>
+      <c r="E275" t="n">
+        <v>0.5198019801980198</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>0.1179987947560019</v>
+      </c>
+      <c r="C276" t="n">
+        <v>0.1322211080363818</v>
+      </c>
+      <c r="D276" t="n">
+        <v>0.5972040192223679</v>
+      </c>
+      <c r="E276" t="n">
+        <v>0.5396039603960396</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>0.1184314888798528</v>
+      </c>
+      <c r="C277" t="n">
+        <v>0.1323221581322806</v>
+      </c>
+      <c r="D277" t="n">
+        <v>0.6076889471384884</v>
+      </c>
+      <c r="E277" t="n">
+        <v>0.5272277227722773</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>0.117602941683597</v>
+      </c>
+      <c r="C278" t="n">
+        <v>0.1318053635103362</v>
+      </c>
+      <c r="D278" t="n">
+        <v>0.6138051550895588</v>
+      </c>
+      <c r="E278" t="n">
+        <v>0.5247524752475248</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>0.1171532080819209</v>
+      </c>
+      <c r="C279" t="n">
+        <v>0.1322933807969093</v>
+      </c>
+      <c r="D279" t="n">
+        <v>0.6076889471384884</v>
+      </c>
+      <c r="E279" t="n">
+        <v>0.5396039603960396</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>0.1181553316613038</v>
+      </c>
+      <c r="C280" t="n">
+        <v>0.1323876508644649</v>
+      </c>
+      <c r="D280" t="n">
+        <v>0.616863259065094</v>
+      </c>
+      <c r="E280" t="n">
+        <v>0.5222772277227723</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>0.1170715226067437</v>
+      </c>
+      <c r="C281" t="n">
+        <v>0.1335137188434601</v>
+      </c>
+      <c r="D281" t="n">
+        <v>0.599388379204893</v>
+      </c>
+      <c r="E281" t="n">
+        <v>0.5321782178217822</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>0.1172993729511897</v>
+      </c>
+      <c r="C282" t="n">
+        <v>0.1330170482397079</v>
+      </c>
+      <c r="D282" t="n">
+        <v>0.6129314110965487</v>
+      </c>
+      <c r="E282" t="n">
+        <v>0.5123762376237624</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>0.1177360105017821</v>
+      </c>
+      <c r="C283" t="n">
+        <v>0.1326496547886304</v>
+      </c>
+      <c r="D283" t="n">
+        <v>0.6081258191349934</v>
+      </c>
+      <c r="E283" t="n">
+        <v>0.5420792079207921</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>0.1171343754976988</v>
+      </c>
+      <c r="C284" t="n">
+        <v>0.1328127320323672</v>
+      </c>
+      <c r="D284" t="n">
+        <v>0.6037570991699432</v>
+      </c>
+      <c r="E284" t="n">
+        <v>0.5222772277227723</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="n">
+        <v>0.1176590755995777</v>
+      </c>
+      <c r="C285" t="n">
+        <v>0.1322926133871078</v>
+      </c>
+      <c r="D285" t="n">
+        <v>0.6037570991699432</v>
+      </c>
+      <c r="E285" t="n">
+        <v>0.5148514851485149</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="n">
+        <v>0.1182406474318769</v>
+      </c>
+      <c r="C286" t="n">
+        <v>0.1331988243120057</v>
+      </c>
+      <c r="D286" t="n">
+        <v>0.599825251201398</v>
+      </c>
+      <c r="E286" t="n">
+        <v>0.5297029702970297</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="n">
+        <v>0.1167126171704796</v>
+      </c>
+      <c r="C287" t="n">
+        <v>0.1314871066382953</v>
+      </c>
+      <c r="D287" t="n">
+        <v>0.5976408912188729</v>
+      </c>
+      <c r="E287" t="n">
+        <v>0.5470297029702971</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="n">
+        <v>0.1175721144924561</v>
+      </c>
+      <c r="C288" t="n">
+        <v>0.1332120001316071</v>
+      </c>
+      <c r="D288" t="n">
+        <v>0.5928352992573176</v>
+      </c>
+      <c r="E288" t="n">
+        <v>0.5123762376237624</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="n">
+        <v>0.1172254019313388</v>
+      </c>
+      <c r="C289" t="n">
+        <v>0.1319266845073019</v>
+      </c>
+      <c r="D289" t="n">
+        <v>0.6120576671035387</v>
+      </c>
+      <c r="E289" t="n">
+        <v>0.5222772277227723</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="n">
+        <v>0.1168631772614188</v>
+      </c>
+      <c r="C290" t="n">
+        <v>0.1324915587902069</v>
+      </c>
+      <c r="D290" t="n">
+        <v>0.6020096111839232</v>
+      </c>
+      <c r="E290" t="n">
+        <v>0.5222772277227723</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="n">
+        <v>0.1163894047753678</v>
+      </c>
+      <c r="C291" t="n">
+        <v>0.1327760794333049</v>
+      </c>
+      <c r="D291" t="n">
+        <v>0.6129314110965487</v>
+      </c>
+      <c r="E291" t="n">
+        <v>0.5371287128712872</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="n">
+        <v>0.1170053711781899</v>
+      </c>
+      <c r="C292" t="n">
+        <v>0.132805018552712</v>
+      </c>
+      <c r="D292" t="n">
+        <v>0.6089995631280035</v>
+      </c>
+      <c r="E292" t="n">
+        <v>0.5297029702970297</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="n">
+        <v>0.1169723632435004</v>
+      </c>
+      <c r="C293" t="n">
+        <v>0.13320335320064</v>
+      </c>
+      <c r="D293" t="n">
+        <v>0.6055045871559633</v>
+      </c>
+      <c r="E293" t="n">
+        <v>0.5173267326732673</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="n">
+        <v>0.117303757617871</v>
+      </c>
+      <c r="C294" t="n">
+        <v>0.1331505988325392</v>
+      </c>
+      <c r="D294" t="n">
+        <v>0.5906509392747925</v>
+      </c>
+      <c r="E294" t="n">
+        <v>0.5470297029702971</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="n">
+        <v>0.1175488063858615</v>
+      </c>
+      <c r="C295" t="n">
+        <v>0.1329787724784442</v>
+      </c>
+      <c r="D295" t="n">
+        <v>0.6081258191349934</v>
+      </c>
+      <c r="E295" t="n">
+        <v>0.5198019801980198</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="n">
+        <v>0.115427378565073</v>
+      </c>
+      <c r="C296" t="n">
+        <v>0.1320167918290411</v>
+      </c>
+      <c r="D296" t="n">
+        <v>0.6124945391000437</v>
+      </c>
+      <c r="E296" t="n">
+        <v>0.5272277227722773</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="n">
+        <v>0.1163137894537714</v>
+      </c>
+      <c r="C297" t="n">
+        <v>0.1344566036547933</v>
+      </c>
+      <c r="D297" t="n">
+        <v>0.6068152031454783</v>
+      </c>
+      <c r="E297" t="n">
+        <v>0.4975247524752475</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="n">
+        <v>0.1161318522774511</v>
+      </c>
+      <c r="C298" t="n">
+        <v>0.1333534398249217</v>
+      </c>
+      <c r="D298" t="n">
+        <v>0.6094364351245085</v>
+      </c>
+      <c r="E298" t="n">
+        <v>0.551980198019802</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="n">
+        <v>0.1167322262707684</v>
+      </c>
+      <c r="C299" t="n">
+        <v>0.1336816783462252</v>
+      </c>
+      <c r="D299" t="n">
+        <v>0.6006989951944081</v>
+      </c>
+      <c r="E299" t="n">
+        <v>0.5198019801980198</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="n">
+        <v>0.1167588312592771</v>
+      </c>
+      <c r="C300" t="n">
+        <v>0.1330436382974897</v>
+      </c>
+      <c r="D300" t="n">
+        <v>0.6037570991699432</v>
+      </c>
+      <c r="E300" t="n">
+        <v>0.5123762376237624</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="n">
+        <v>0.1170443788998657</v>
+      </c>
+      <c r="C301" t="n">
+        <v>0.135210283100605</v>
+      </c>
+      <c r="D301" t="n">
+        <v>0.6020096111839232</v>
+      </c>
+      <c r="E301" t="n">
+        <v>0.4777227722772277</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="n">
+        <v>0.116928079062038</v>
+      </c>
+      <c r="C302" t="n">
+        <v>0.1318844077842576</v>
+      </c>
+      <c r="D302" t="n">
+        <v>0.6146788990825688</v>
+      </c>
+      <c r="E302" t="n">
+        <v>0.5346534653465347</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="n">
+        <v>0.1160996825330787</v>
+      </c>
+      <c r="C303" t="n">
+        <v>0.1333742918712752</v>
+      </c>
+      <c r="D303" t="n">
+        <v>0.6050677151594582</v>
+      </c>
+      <c r="E303" t="n">
+        <v>0.5297029702970297</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="n">
+        <v>0.1175411434637176</v>
+      </c>
+      <c r="C304" t="n">
+        <v>0.1327061003872327</v>
+      </c>
+      <c r="D304" t="n">
+        <v>0.6046308431629532</v>
+      </c>
+      <c r="E304" t="n">
+        <v>0.4876237623762376</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="n">
+        <v>0.115965424105525</v>
+      </c>
+      <c r="C305" t="n">
+        <v>0.1326698192528316</v>
+      </c>
+      <c r="D305" t="n">
+        <v>0.6203582350371342</v>
+      </c>
+      <c r="E305" t="n">
+        <v>0.5123762376237624</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="n">
+        <v>0.115438693927394</v>
+      </c>
+      <c r="C306" t="n">
+        <v>0.1329160875507764</v>
+      </c>
+      <c r="D306" t="n">
+        <v>0.6273481869812145</v>
+      </c>
+      <c r="E306" t="n">
+        <v>0.4975247524752475</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="n">
+        <v>0.1167881116271019</v>
+      </c>
+      <c r="C307" t="n">
+        <v>0.132744445332459</v>
+      </c>
+      <c r="D307" t="n">
+        <v>0.6072520751419834</v>
+      </c>
+      <c r="E307" t="n">
+        <v>0.5321782178217822</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="n">
+        <v>0.1162447509252363</v>
+      </c>
+      <c r="C308" t="n">
+        <v>0.1327948527676719</v>
+      </c>
+      <c r="D308" t="n">
+        <v>0.6002621231979031</v>
+      </c>
+      <c r="E308" t="n">
+        <v>0.5297029702970297</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="n">
+        <v>0.1154139501353105</v>
+      </c>
+      <c r="C309" t="n">
+        <v>0.1315580851265362</v>
+      </c>
+      <c r="D309" t="n">
+        <v>0.6129314110965487</v>
+      </c>
+      <c r="E309" t="n">
+        <v>0.5272277227722773</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="n">
+        <v>0.1153253983292315</v>
+      </c>
+      <c r="C310" t="n">
+        <v>0.134646583880697</v>
+      </c>
+      <c r="D310" t="n">
+        <v>0.6011358671909131</v>
+      </c>
+      <c r="E310" t="n">
+        <v>0.5024752475247525</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="n">
+        <v>0.1164871398359537</v>
+      </c>
+      <c r="C311" t="n">
+        <v>0.1325066909193993</v>
+      </c>
+      <c r="D311" t="n">
+        <v>0.6194844910441241</v>
+      </c>
+      <c r="E311" t="n">
+        <v>0.5321782178217822</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="n">
+        <v>0.114862365855111</v>
+      </c>
+      <c r="C312" t="n">
+        <v>0.1333117825644357</v>
+      </c>
+      <c r="D312" t="n">
+        <v>0.6295325469637396</v>
+      </c>
+      <c r="E312" t="n">
+        <v>0.5123762376237624</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="n">
+        <v>0.1152791881726848</v>
+      </c>
+      <c r="C313" t="n">
+        <v>0.1327978202274867</v>
+      </c>
+      <c r="D313" t="n">
+        <v>0.616863259065094</v>
+      </c>
+      <c r="E313" t="n">
+        <v>0.5024752475247525</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="n">
+        <v>0.1159455233977901</v>
+      </c>
+      <c r="C314" t="n">
+        <v>0.1311233980315072</v>
+      </c>
+      <c r="D314" t="n">
+        <v>0.6081258191349934</v>
+      </c>
+      <c r="E314" t="n">
+        <v>0.5272277227722773</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="n">
+        <v>0.1152151251832644</v>
+      </c>
+      <c r="C315" t="n">
+        <v>0.1317993625998497</v>
+      </c>
+      <c r="D315" t="n">
+        <v>0.6159895150720839</v>
+      </c>
+      <c r="E315" t="n">
+        <v>0.5247524752475248</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="n">
+        <v>0.1152380760759115</v>
+      </c>
+      <c r="C316" t="n">
+        <v>0.1316840382558959</v>
+      </c>
+      <c r="D316" t="n">
+        <v>0.6076889471384884</v>
+      </c>
+      <c r="E316" t="n">
+        <v>0.5346534653465347</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="n">
+        <v>0.1148575169758664</v>
+      </c>
+      <c r="C317" t="n">
+        <v>0.1321236406053816</v>
+      </c>
+      <c r="D317" t="n">
+        <v>0.6151157710790738</v>
+      </c>
+      <c r="E317" t="n">
+        <v>0.5198019801980198</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="n">
+        <v>0.1156826261430979</v>
+      </c>
+      <c r="C318" t="n">
+        <v>0.1338553237063544</v>
+      </c>
+      <c r="D318" t="n">
+        <v>0.6085626911314985</v>
+      </c>
+      <c r="E318" t="n">
+        <v>0.5321782178217822</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="n">
+        <v>0.115242607684599</v>
+      </c>
+      <c r="C319" t="n">
+        <v>0.1327349160398756</v>
+      </c>
+      <c r="D319" t="n">
+        <v>0.617300131061599</v>
+      </c>
+      <c r="E319" t="n">
+        <v>0.5074257425742574</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="n">
+        <v>0.1148434022648467</v>
+      </c>
+      <c r="C320" t="n">
+        <v>0.1320562469107764</v>
+      </c>
+      <c r="D320" t="n">
+        <v>0.6194844910441241</v>
+      </c>
+      <c r="E320" t="n">
+        <v>0.5272277227722773</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="n">
+        <v>0.1143583822995424</v>
+      </c>
+      <c r="C321" t="n">
+        <v>0.1316777403865542</v>
+      </c>
+      <c r="D321" t="n">
+        <v>0.6155526430755789</v>
+      </c>
+      <c r="E321" t="n">
+        <v>0.5198019801980198</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="n">
+        <v>0.1160960120873319</v>
+      </c>
+      <c r="C322" t="n">
+        <v>0.1322140587227685</v>
+      </c>
+      <c r="D322" t="n">
+        <v>0.6199213630406291</v>
+      </c>
+      <c r="E322" t="n">
+        <v>0.5024752475247525</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="n">
+        <v>0.1145507070339388</v>
+      </c>
+      <c r="C323" t="n">
+        <v>0.1320435106754303</v>
+      </c>
+      <c r="D323" t="n">
+        <v>0.617300131061599</v>
+      </c>
+      <c r="E323" t="n">
+        <v>0.5371287128712872</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="n">
+        <v>0.1152835614565346</v>
+      </c>
+      <c r="C324" t="n">
+        <v>0.1337551325559616</v>
+      </c>
+      <c r="D324" t="n">
+        <v>0.618173875054609</v>
+      </c>
+      <c r="E324" t="n">
+        <v>0.504950495049505</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="n">
+        <v>0.114478625357151</v>
+      </c>
+      <c r="C325" t="n">
+        <v>0.1321667666946139</v>
+      </c>
+      <c r="D325" t="n">
+        <v>0.6151157710790738</v>
+      </c>
+      <c r="E325" t="n">
+        <v>0.5371287128712872</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="n">
+        <v>0.114060687729054</v>
+      </c>
+      <c r="C326" t="n">
+        <v>0.1314908393791744</v>
+      </c>
+      <c r="D326" t="n">
+        <v>0.6277850589777195</v>
+      </c>
+      <c r="E326" t="n">
+        <v>0.5173267326732673</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="n">
+        <v>0.1142015477849378</v>
+      </c>
+      <c r="C327" t="n">
+        <v>0.1316842724170004</v>
+      </c>
+      <c r="D327" t="n">
+        <v>0.6138051550895588</v>
+      </c>
+      <c r="E327" t="n">
+        <v>0.5198019801980198</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="n">
+        <v>0.11438832928737</v>
+      </c>
+      <c r="C328" t="n">
+        <v>0.1322022740330015</v>
+      </c>
+      <c r="D328" t="n">
+        <v>0.6129314110965487</v>
+      </c>
+      <c r="E328" t="n">
+        <v>0.5272277227722773</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="n">
+        <v>0.114477652642462</v>
+      </c>
+      <c r="C329" t="n">
+        <v>0.1318435605083193</v>
+      </c>
+      <c r="D329" t="n">
+        <v>0.6129314110965487</v>
+      </c>
+      <c r="E329" t="n">
+        <v>0.5272277227722773</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="n">
+        <v>0.1138054370466206</v>
+      </c>
+      <c r="C330" t="n">
+        <v>0.1333556622266769</v>
+      </c>
+      <c r="D330" t="n">
+        <v>0.6124945391000437</v>
+      </c>
+      <c r="E330" t="n">
+        <v>0.5371287128712872</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="n">
+        <v>0.1137974597513676</v>
+      </c>
+      <c r="C331" t="n">
+        <v>0.1320599988102913</v>
+      </c>
+      <c r="D331" t="n">
+        <v>0.6146788990825688</v>
+      </c>
+      <c r="E331" t="n">
+        <v>0.5173267326732673</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="n">
+        <v>0.1139593124389648</v>
+      </c>
+      <c r="C332" t="n">
+        <v>0.1325651109218597</v>
+      </c>
+      <c r="D332" t="n">
+        <v>0.6046308431629532</v>
+      </c>
+      <c r="E332" t="n">
+        <v>0.5148514851485149</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="n">
+        <v>0.1130822319537401</v>
+      </c>
+      <c r="C333" t="n">
+        <v>0.1323272756167821</v>
+      </c>
+      <c r="D333" t="n">
+        <v>0.6295325469637396</v>
+      </c>
+      <c r="E333" t="n">
+        <v>0.5099009900990099</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="n">
+        <v>0.1144981053140428</v>
+      </c>
+      <c r="C334" t="n">
+        <v>0.1320121149931635</v>
+      </c>
+      <c r="D334" t="n">
+        <v>0.6006989951944081</v>
+      </c>
+      <c r="E334" t="n">
+        <v>0.5074257425742574</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="n">
+        <v>0.1133775232980649</v>
+      </c>
+      <c r="C335" t="n">
+        <v>0.1341876408883504</v>
+      </c>
+      <c r="D335" t="n">
+        <v>0.6260375709916994</v>
+      </c>
+      <c r="E335" t="n">
+        <v>0.4876237623762376</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="n">
+        <v>0.1130226409683625</v>
+      </c>
+      <c r="C336" t="n">
+        <v>0.1314519867300987</v>
+      </c>
+      <c r="D336" t="n">
+        <v>0.6151157710790738</v>
+      </c>
+      <c r="E336" t="n">
+        <v>0.5297029702970297</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" t="n">
+        <v>0.1142912368393607</v>
+      </c>
+      <c r="C337" t="n">
+        <v>0.1318025216460228</v>
+      </c>
+      <c r="D337" t="n">
+        <v>0.6286588029707296</v>
+      </c>
+      <c r="E337" t="n">
+        <v>0.5272277227722773</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" t="n">
+        <v>0.1128689508057303</v>
+      </c>
+      <c r="C338" t="n">
+        <v>0.1319950776440757</v>
+      </c>
+      <c r="D338" t="n">
+        <v>0.6225425950196593</v>
+      </c>
+      <c r="E338" t="n">
+        <v>0.5173267326732673</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="n">
+        <v>0.1129751780794726</v>
+      </c>
+      <c r="C339" t="n">
+        <v>0.1315151644604547</v>
+      </c>
+      <c r="D339" t="n">
+        <v>0.6120576671035387</v>
+      </c>
+      <c r="E339" t="n">
+        <v>0.5297029702970297</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="n">
+        <v>0.1115844197985199</v>
+      </c>
+      <c r="C340" t="n">
+        <v>0.1307902261614799</v>
+      </c>
+      <c r="D340" t="n">
+        <v>0.63652249890782</v>
+      </c>
+      <c r="E340" t="n">
+        <v>0.5297029702970297</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="n">
+        <v>0.1131658839682738</v>
+      </c>
+      <c r="C341" t="n">
+        <v>0.1332371394549097</v>
+      </c>
+      <c r="D341" t="n">
+        <v>0.6207951070336392</v>
+      </c>
+      <c r="E341" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="n">
+        <v>0.1126947107000483</v>
+      </c>
+      <c r="C342" t="n">
+        <v>0.1311171246426446</v>
+      </c>
+      <c r="D342" t="n">
+        <v>0.6199213630406291</v>
+      </c>
+      <c r="E342" t="n">
+        <v>0.5346534653465347</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="n">
+        <v>0.1121242363005877</v>
+      </c>
+      <c r="C343" t="n">
+        <v>0.1335534644978387</v>
+      </c>
+      <c r="D343" t="n">
+        <v>0.617300131061599</v>
+      </c>
+      <c r="E343" t="n">
+        <v>0.4801980198019802</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="n">
+        <v>0.1120012410812908</v>
+      </c>
+      <c r="C344" t="n">
+        <v>0.1319146773644856</v>
+      </c>
+      <c r="D344" t="n">
+        <v>0.6190476190476191</v>
+      </c>
+      <c r="E344" t="n">
+        <v>0.5321782178217822</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" t="n">
+        <v>0.1125236091514428</v>
+      </c>
+      <c r="C345" t="n">
+        <v>0.1328368006008012</v>
+      </c>
+      <c r="D345" t="n">
+        <v>0.6229794670161642</v>
+      </c>
+      <c r="E345" t="n">
+        <v>0.5272277227722773</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="n">
+        <v>0.1130205510805051</v>
+      </c>
+      <c r="C346" t="n">
+        <v>0.1341103091835976</v>
+      </c>
+      <c r="D346" t="n">
+        <v>0.6304062909567497</v>
+      </c>
+      <c r="E346" t="n">
+        <v>0.5173267326732673</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" t="n">
+        <v>0.1136552002280951</v>
+      </c>
+      <c r="C347" t="n">
+        <v>0.1321355860148157</v>
+      </c>
+      <c r="D347" t="n">
+        <v>0.6234163390126692</v>
+      </c>
+      <c r="E347" t="n">
+        <v>0.5148514851485149</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>346</v>
+      </c>
+      <c r="B348" t="n">
+        <v>0.1136750572671493</v>
+      </c>
+      <c r="C348" t="n">
+        <v>0.1313471677047866</v>
+      </c>
+      <c r="D348" t="n">
+        <v>0.6277850589777195</v>
+      </c>
+      <c r="E348" t="n">
+        <v>0.5272277227722773</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" t="n">
+        <v>0.1135606227649583</v>
+      </c>
+      <c r="C349" t="n">
+        <v>0.1326969595892089</v>
+      </c>
+      <c r="D349" t="n">
+        <v>0.6199213630406291</v>
+      </c>
+      <c r="E349" t="n">
+        <v>0.5272277227722773</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="n">
+        <v>0.1126964036375284</v>
+      </c>
+      <c r="C350" t="n">
+        <v>0.1320518510682242</v>
+      </c>
+      <c r="D350" t="n">
+        <v>0.618173875054609</v>
+      </c>
+      <c r="E350" t="n">
+        <v>0.5272277227722773</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" t="n">
+        <v>0.1124646516723765</v>
+      </c>
+      <c r="C351" t="n">
+        <v>0.1322616051350321</v>
+      </c>
+      <c r="D351" t="n">
+        <v>0.6164263870685889</v>
+      </c>
+      <c r="E351" t="n">
+        <v>0.5074257425742574</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" t="n">
+        <v>0.1128948256373405</v>
+      </c>
+      <c r="C352" t="n">
+        <v>0.1311551864658083</v>
+      </c>
+      <c r="D352" t="n">
+        <v>0.6225425950196593</v>
+      </c>
+      <c r="E352" t="n">
+        <v>0.5321782178217822</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="n">
+        <v>0.1121239490393135</v>
+      </c>
+      <c r="C353" t="n">
+        <v>0.1317659903849874</v>
+      </c>
+      <c r="D353" t="n">
+        <v>0.6277850589777195</v>
+      </c>
+      <c r="E353" t="n">
+        <v>0.5371287128712872</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="n">
+        <v>0.1112148532023032</v>
+      </c>
+      <c r="C354" t="n">
+        <v>0.1321427939193589</v>
+      </c>
+      <c r="D354" t="n">
+        <v>0.6352118829183049</v>
+      </c>
+      <c r="E354" t="n">
+        <v>0.5396039603960396</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="n">
+        <v>0.1122927088290453</v>
+      </c>
+      <c r="C355" t="n">
+        <v>0.1325407113347735</v>
+      </c>
+      <c r="D355" t="n">
+        <v>0.6238532110091743</v>
+      </c>
+      <c r="E355" t="n">
+        <v>0.5297029702970297</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="n">
+        <v>0.1110082225253185</v>
+      </c>
+      <c r="C356" t="n">
+        <v>0.1318220017211778</v>
+      </c>
+      <c r="D356" t="n">
+        <v>0.63564875491481</v>
+      </c>
+      <c r="E356" t="n">
+        <v>0.5321782178217822</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="n">
+        <v>0.1115448133399089</v>
+      </c>
+      <c r="C357" t="n">
+        <v>0.1327998329486166</v>
+      </c>
+      <c r="D357" t="n">
+        <v>0.6247269550021843</v>
+      </c>
+      <c r="E357" t="n">
+        <v>0.5074257425742574</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="n">
+        <v>0.113715688801474</v>
+      </c>
+      <c r="C358" t="n">
+        <v>0.1327970549464226</v>
+      </c>
+      <c r="D358" t="n">
+        <v>0.6081258191349934</v>
+      </c>
+      <c r="E358" t="n">
+        <v>0.5148514851485149</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="n">
+        <v>0.1112484774655766</v>
+      </c>
+      <c r="C359" t="n">
+        <v>0.1313387134245464</v>
+      </c>
+      <c r="D359" t="n">
+        <v>0.6290956749672346</v>
+      </c>
+      <c r="E359" t="n">
+        <v>0.5247524752475248</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="n">
+        <v>0.110671094722218</v>
+      </c>
+      <c r="C360" t="n">
+        <v>0.1316523551940918</v>
+      </c>
+      <c r="D360" t="n">
+        <v>0.6308431629532547</v>
+      </c>
+      <c r="E360" t="n">
+        <v>0.5297029702970297</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="n">
+        <v>0.1113811851375633</v>
+      </c>
+      <c r="C361" t="n">
+        <v>0.1318585170166833</v>
+      </c>
+      <c r="D361" t="n">
+        <v>0.6387068588903452</v>
+      </c>
+      <c r="E361" t="n">
+        <v>0.5222772277227723</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" t="n">
+        <v>0.1119430876440472</v>
+      </c>
+      <c r="C362" t="n">
+        <v>0.1321731071387018</v>
+      </c>
+      <c r="D362" t="n">
+        <v>0.6212319790301442</v>
+      </c>
+      <c r="E362" t="n">
+        <v>0.5099009900990099</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="n">
+        <v>0.1123336013406515</v>
+      </c>
+      <c r="C363" t="n">
+        <v>0.1327216625213623</v>
+      </c>
+      <c r="D363" t="n">
+        <v>0.6186107470511141</v>
+      </c>
+      <c r="E363" t="n">
+        <v>0.5099009900990099</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="n">
+        <v>0.1109714114831554</v>
+      </c>
+      <c r="C364" t="n">
+        <v>0.1316072270274162</v>
+      </c>
+      <c r="D364" t="n">
+        <v>0.6400174748798602</v>
+      </c>
+      <c r="E364" t="n">
+        <v>0.5198019801980198</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="n">
+        <v>0.1105678582357036</v>
+      </c>
+      <c r="C365" t="n">
+        <v>0.1325557082891464</v>
+      </c>
+      <c r="D365" t="n">
+        <v>0.6339012669287899</v>
+      </c>
+      <c r="E365" t="n">
+        <v>0.5222772277227723</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="n">
+        <v>0.112054083082411</v>
+      </c>
+      <c r="C366" t="n">
+        <v>0.1316107362508774</v>
+      </c>
+      <c r="D366" t="n">
+        <v>0.6282219309742245</v>
+      </c>
+      <c r="E366" t="n">
+        <v>0.5198019801980198</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="n">
+        <v>0.1115423314687279</v>
+      </c>
+      <c r="C367" t="n">
+        <v>0.1322962237255914</v>
+      </c>
+      <c r="D367" t="n">
+        <v>0.6277850589777195</v>
+      </c>
+      <c r="E367" t="n">
+        <v>0.5247524752475248</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="n">
+        <v>0.1103775900685125</v>
+      </c>
+      <c r="C368" t="n">
+        <v>0.1320605810199465</v>
+      </c>
+      <c r="D368" t="n">
+        <v>0.6334643949322848</v>
+      </c>
+      <c r="E368" t="n">
+        <v>0.5272277227722773</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="n">
+        <v>0.1102494222836362</v>
+      </c>
+      <c r="C369" t="n">
+        <v>0.1314070288624082</v>
+      </c>
+      <c r="D369" t="n">
+        <v>0.6439493228484054</v>
+      </c>
+      <c r="E369" t="n">
+        <v>0.5099009900990099</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="n">
+        <v>0.1107754125777218</v>
+      </c>
+      <c r="C370" t="n">
+        <v>0.1319968019212995</v>
+      </c>
+      <c r="D370" t="n">
+        <v>0.6260375709916994</v>
+      </c>
+      <c r="E370" t="n">
+        <v>0.5222772277227723</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="n">
+        <v>0.110792417700092</v>
+      </c>
+      <c r="C371" t="n">
+        <v>0.1314946530120713</v>
+      </c>
+      <c r="D371" t="n">
+        <v>0.6352118829183049</v>
+      </c>
+      <c r="E371" t="n">
+        <v>0.5371287128712872</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="n">
+        <v>0.1105054707990752</v>
+      </c>
+      <c r="C372" t="n">
+        <v>0.1318874603935651</v>
+      </c>
+      <c r="D372" t="n">
+        <v>0.636085626911315</v>
+      </c>
+      <c r="E372" t="n">
+        <v>0.5222772277227723</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" t="n">
+        <v>0.1103508642150296</v>
+      </c>
+      <c r="C373" t="n">
+        <v>0.1313481884343284</v>
+      </c>
+      <c r="D373" t="n">
+        <v>0.6321537789427698</v>
+      </c>
+      <c r="E373" t="n">
+        <v>0.5297029702970297</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>372</v>
+      </c>
+      <c r="B374" t="n">
+        <v>0.1110823878811465</v>
+      </c>
+      <c r="C374" t="n">
+        <v>0.1316680833697319</v>
+      </c>
+      <c r="D374" t="n">
+        <v>0.6299694189602446</v>
+      </c>
+      <c r="E374" t="n">
+        <v>0.504950495049505</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>373</v>
+      </c>
+      <c r="B375" t="n">
+        <v>0.1107679897298415</v>
+      </c>
+      <c r="C375" t="n">
+        <v>0.1320405889834677</v>
+      </c>
+      <c r="D375" t="n">
+        <v>0.6352118829183049</v>
+      </c>
+      <c r="E375" t="n">
+        <v>0.504950495049505</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>374</v>
+      </c>
+      <c r="B376" t="n">
+        <v>0.1101980072756608</v>
+      </c>
+      <c r="C376" t="n">
+        <v>0.1326964242117745</v>
+      </c>
+      <c r="D376" t="n">
+        <v>0.6470074268239406</v>
+      </c>
+      <c r="E376" t="n">
+        <v>0.5222772277227723</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>375</v>
+      </c>
+      <c r="B377" t="n">
+        <v>0.1108603537496593</v>
+      </c>
+      <c r="C377" t="n">
+        <v>0.1313432518924986</v>
+      </c>
+      <c r="D377" t="n">
+        <v>0.6151157710790738</v>
+      </c>
+      <c r="E377" t="n">
+        <v>0.5297029702970297</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>376</v>
+      </c>
+      <c r="B378" t="n">
+        <v>0.1102964687678549</v>
+      </c>
+      <c r="C378" t="n">
+        <v>0.134040080010891</v>
+      </c>
+      <c r="D378" t="n">
+        <v>0.6299694189602446</v>
+      </c>
+      <c r="E378" t="n">
+        <v>0.5024752475247525</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>377</v>
+      </c>
+      <c r="B379" t="n">
+        <v>0.1103854891326692</v>
+      </c>
+      <c r="C379" t="n">
+        <v>0.1319073247058051</v>
+      </c>
+      <c r="D379" t="n">
+        <v>0.6260375709916994</v>
+      </c>
+      <c r="E379" t="n">
+        <v>0.5321782178217822</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>378</v>
+      </c>
+      <c r="B380" t="n">
+        <v>0.1106931399554014</v>
+      </c>
+      <c r="C380" t="n">
+        <v>0.1320572197437286</v>
+      </c>
+      <c r="D380" t="n">
+        <v>0.6312800349497597</v>
+      </c>
+      <c r="E380" t="n">
+        <v>0.5198019801980198</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>379</v>
+      </c>
+      <c r="B381" t="n">
+        <v>0.110629267576668</v>
+      </c>
+      <c r="C381" t="n">
+        <v>0.1320974166904177</v>
+      </c>
+      <c r="D381" t="n">
+        <v>0.6308431629532547</v>
+      </c>
+      <c r="E381" t="n">
+        <v>0.5321782178217822</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>380</v>
+      </c>
+      <c r="B382" t="n">
+        <v>0.1105778413928217</v>
+      </c>
+      <c r="C382" t="n">
+        <v>0.1333509428160531</v>
+      </c>
+      <c r="D382" t="n">
+        <v>0.6260375709916994</v>
+      </c>
+      <c r="E382" t="n">
+        <v>0.495049504950495</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>381</v>
+      </c>
+      <c r="B383" t="n">
+        <v>0.1111094910237524</v>
+      </c>
+      <c r="C383" t="n">
+        <v>0.1319536907332284</v>
+      </c>
+      <c r="D383" t="n">
+        <v>0.6260375709916994</v>
+      </c>
+      <c r="E383" t="n">
+        <v>0.5173267326732673</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>382</v>
+      </c>
+      <c r="B384" t="n">
+        <v>0.1102769850856728</v>
+      </c>
+      <c r="C384" t="n">
+        <v>0.1326761352164405</v>
+      </c>
+      <c r="D384" t="n">
+        <v>0.6299694189602446</v>
+      </c>
+      <c r="E384" t="n">
+        <v>0.504950495049505</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>383</v>
+      </c>
+      <c r="B385" t="n">
+        <v>0.1100288337717454</v>
+      </c>
+      <c r="C385" t="n">
+        <v>0.1316732263990811</v>
+      </c>
+      <c r="D385" t="n">
+        <v>0.6264744429882044</v>
+      </c>
+      <c r="E385" t="n">
+        <v>0.5198019801980198</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>384</v>
+      </c>
+      <c r="B386" t="n">
+        <v>0.1100841535048352</v>
+      </c>
+      <c r="C386" t="n">
+        <v>0.1316583177873067</v>
+      </c>
+      <c r="D386" t="n">
+        <v>0.6330275229357798</v>
+      </c>
+      <c r="E386" t="n">
+        <v>0.5198019801980198</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>385</v>
+      </c>
+      <c r="B387" t="n">
+        <v>0.1097809012151427</v>
+      </c>
+      <c r="C387" t="n">
+        <v>0.1335639442716326</v>
+      </c>
+      <c r="D387" t="n">
+        <v>0.6387068588903452</v>
+      </c>
+      <c r="E387" t="n">
+        <v>0.495049504950495</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>386</v>
+      </c>
+      <c r="B388" t="n">
+        <v>0.108882575813267</v>
+      </c>
+      <c r="C388" t="n">
+        <v>0.13150312432221</v>
+      </c>
+      <c r="D388" t="n">
+        <v>0.6234163390126692</v>
+      </c>
+      <c r="E388" t="n">
+        <v>0.5247524752475248</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>387</v>
+      </c>
+      <c r="B389" t="n">
+        <v>0.1090945593184895</v>
+      </c>
+      <c r="C389" t="n">
+        <v>0.131240151822567</v>
+      </c>
+      <c r="D389" t="n">
+        <v>0.6452599388379205</v>
+      </c>
+      <c r="E389" t="n">
+        <v>0.5420792079207921</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>388</v>
+      </c>
+      <c r="B390" t="n">
+        <v>0.1096390814830859</v>
+      </c>
+      <c r="C390" t="n">
+        <v>0.1312859090311187</v>
+      </c>
+      <c r="D390" t="n">
+        <v>0.6378331148973351</v>
+      </c>
+      <c r="E390" t="n">
+        <v>0.5198019801980198</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>389</v>
+      </c>
+      <c r="B391" t="n">
+        <v>0.1085075129651361</v>
+      </c>
+      <c r="C391" t="n">
+        <v>0.1318860916154725</v>
+      </c>
+      <c r="D391" t="n">
+        <v>0.6426387068588904</v>
+      </c>
+      <c r="E391" t="n">
+        <v>0.5148514851485149</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>390</v>
+      </c>
+      <c r="B392" t="n">
+        <v>0.1099977791309357</v>
+      </c>
+      <c r="C392" t="n">
+        <v>0.1308308648211615</v>
+      </c>
+      <c r="D392" t="n">
+        <v>0.6443861948449104</v>
+      </c>
+      <c r="E392" t="n">
+        <v>0.5297029702970297</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>391</v>
+      </c>
+      <c r="B393" t="n">
+        <v>0.1085723646812969</v>
+      </c>
+      <c r="C393" t="n">
+        <v>0.1328895847712244</v>
+      </c>
+      <c r="D393" t="n">
+        <v>0.6391437308868502</v>
+      </c>
+      <c r="E393" t="n">
+        <v>0.5247524752475248</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>392</v>
+      </c>
+      <c r="B394" t="n">
+        <v>0.1092293276968929</v>
+      </c>
+      <c r="C394" t="n">
+        <v>0.1316091567277908</v>
+      </c>
+      <c r="D394" t="n">
+        <v>0.6387068588903452</v>
+      </c>
+      <c r="E394" t="n">
+        <v>0.5321782178217822</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>393</v>
+      </c>
+      <c r="B395" t="n">
+        <v>0.108007795487841</v>
+      </c>
+      <c r="C395" t="n">
+        <v>0.1319335699081421</v>
+      </c>
+      <c r="D395" t="n">
+        <v>0.6347750109217999</v>
+      </c>
+      <c r="E395" t="n">
+        <v>0.5123762376237624</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>394</v>
+      </c>
+      <c r="B396" t="n">
+        <v>0.1083721530934175</v>
+      </c>
+      <c r="C396" t="n">
+        <v>0.1315231174230576</v>
+      </c>
+      <c r="D396" t="n">
+        <v>0.6491917868064657</v>
+      </c>
+      <c r="E396" t="n">
+        <v>0.5222772277227723</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>395</v>
+      </c>
+      <c r="B397" t="n">
+        <v>0.1077504996210337</v>
+      </c>
+      <c r="C397" t="n">
+        <v>0.1334117331675121</v>
+      </c>
+      <c r="D397" t="n">
+        <v>0.6408912188728703</v>
+      </c>
+      <c r="E397" t="n">
+        <v>0.5099009900990099</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>396</v>
+      </c>
+      <c r="B398" t="n">
+        <v>0.1088614863240057</v>
+      </c>
+      <c r="C398" t="n">
+        <v>0.1325969185147967</v>
+      </c>
+      <c r="D398" t="n">
+        <v>0.6382699868938401</v>
+      </c>
+      <c r="E398" t="n">
+        <v>0.5123762376237624</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>397</v>
+      </c>
+      <c r="B399" t="n">
+        <v>0.1078624340395133</v>
+      </c>
+      <c r="C399" t="n">
+        <v>0.1321796359760421</v>
+      </c>
+      <c r="D399" t="n">
+        <v>0.6408912188728703</v>
+      </c>
+      <c r="E399" t="n">
+        <v>0.5148514851485149</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>398</v>
+      </c>
+      <c r="B400" t="n">
+        <v>0.1086382896949847</v>
+      </c>
+      <c r="C400" t="n">
+        <v>0.1325025015643665</v>
+      </c>
+      <c r="D400" t="n">
+        <v>0.63652249890782</v>
+      </c>
+      <c r="E400" t="n">
+        <v>0.5272277227722773</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>399</v>
+      </c>
+      <c r="B401" t="n">
+        <v>0.1081268307235506</v>
+      </c>
+      <c r="C401" t="n">
+        <v>0.1333489013569696</v>
+      </c>
+      <c r="D401" t="n">
+        <v>0.6404543468763653</v>
+      </c>
+      <c r="E401" t="n">
+        <v>0.4876237623762376</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>400</v>
+      </c>
+      <c r="B402" t="n">
+        <v>0.1088189360582166</v>
+      </c>
+      <c r="C402" t="n">
+        <v>0.1314972277198519</v>
+      </c>
+      <c r="D402" t="n">
+        <v>0.6413280908693753</v>
+      </c>
+      <c r="E402" t="n">
+        <v>0.5198019801980198</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>401</v>
+      </c>
+      <c r="B403" t="n">
+        <v>0.1076601035892963</v>
+      </c>
+      <c r="C403" t="n">
+        <v>0.1318884481276785</v>
+      </c>
+      <c r="D403" t="n">
+        <v>0.6430755788553953</v>
+      </c>
+      <c r="E403" t="n">
+        <v>0.5222772277227723</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>402</v>
+      </c>
+      <c r="B404" t="n">
+        <v>0.1079637130929364</v>
+      </c>
+      <c r="C404" t="n">
+        <v>0.1311296480042594</v>
+      </c>
+      <c r="D404" t="n">
+        <v>0.6382699868938401</v>
+      </c>
+      <c r="E404" t="n">
+        <v>0.5321782178217822</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>403</v>
+      </c>
+      <c r="B405" t="n">
+        <v>0.1082405385871728</v>
+      </c>
+      <c r="C405" t="n">
+        <v>0.13233711038317</v>
+      </c>
+      <c r="D405" t="n">
+        <v>0.6347750109217999</v>
+      </c>
+      <c r="E405" t="n">
+        <v>0.5371287128712872</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>404</v>
+      </c>
+      <c r="B406" t="n">
+        <v>0.1077278159144852</v>
+      </c>
+      <c r="C406" t="n">
+        <v>0.1324484337653433</v>
+      </c>
+      <c r="D406" t="n">
+        <v>0.6461336828309305</v>
+      </c>
+      <c r="E406" t="n">
+        <v>0.5222772277227723</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>405</v>
+      </c>
+      <c r="B407" t="n">
+        <v>0.1063512344327238</v>
+      </c>
+      <c r="C407" t="n">
+        <v>0.1349101002727236</v>
+      </c>
+      <c r="D407" t="n">
+        <v>0.6417649628658803</v>
+      </c>
+      <c r="E407" t="n">
+        <v>0.4727722772277227</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>406</v>
+      </c>
+      <c r="B408" t="n">
+        <v>0.1089282379382187</v>
+      </c>
+      <c r="C408" t="n">
+        <v>0.131587307368006</v>
+      </c>
+      <c r="D408" t="n">
+        <v>0.6347750109217999</v>
+      </c>
+      <c r="E408" t="n">
+        <v>0.5272277227722773</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>407</v>
+      </c>
+      <c r="B409" t="n">
+        <v>0.1068820212450292</v>
+      </c>
+      <c r="C409" t="n">
+        <v>0.1318039425781795</v>
+      </c>
+      <c r="D409" t="n">
+        <v>0.6417649628658803</v>
+      </c>
+      <c r="E409" t="n">
+        <v>0.5371287128712872</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>408</v>
+      </c>
+      <c r="B410" t="n">
+        <v>0.1089314427226782</v>
+      </c>
+      <c r="C410" t="n">
+        <v>0.1341896461588996</v>
+      </c>
+      <c r="D410" t="n">
+        <v>0.6369593709043251</v>
+      </c>
+      <c r="E410" t="n">
+        <v>0.4752475247524752</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>409</v>
+      </c>
+      <c r="B411" t="n">
+        <v>0.1090062966363298</v>
+      </c>
+      <c r="C411" t="n">
+        <v>0.1337246256215232</v>
+      </c>
+      <c r="D411" t="n">
+        <v>0.63564875491481</v>
+      </c>
+      <c r="E411" t="n">
+        <v>0.5074257425742574</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>410</v>
+      </c>
+      <c r="B412" t="n">
+        <v>0.1072437583158414</v>
+      </c>
+      <c r="C412" t="n">
+        <v>0.1308039448090962</v>
+      </c>
+      <c r="D412" t="n">
+        <v>0.6452599388379205</v>
+      </c>
+      <c r="E412" t="n">
+        <v>0.5198019801980198</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>411</v>
+      </c>
+      <c r="B413" t="n">
+        <v>0.1081458696474632</v>
+      </c>
+      <c r="C413" t="n">
+        <v>0.1326977504151208</v>
+      </c>
+      <c r="D413" t="n">
+        <v>0.6448230668414154</v>
+      </c>
+      <c r="E413" t="n">
+        <v>0.4826732673267327</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>412</v>
+      </c>
+      <c r="B414" t="n">
+        <v>0.1083119759956996</v>
+      </c>
+      <c r="C414" t="n">
+        <v>0.1332071444817952</v>
+      </c>
+      <c r="D414" t="n">
+        <v>0.6343381389252949</v>
+      </c>
+      <c r="E414" t="n">
+        <v>0.5123762376237624</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>413</v>
+      </c>
+      <c r="B415" t="n">
+        <v>0.1070712918622626</v>
+      </c>
+      <c r="C415" t="n">
+        <v>0.1312091425061226</v>
+      </c>
+      <c r="D415" t="n">
+        <v>0.6435124508519003</v>
+      </c>
+      <c r="E415" t="n">
+        <v>0.5420792079207921</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>414</v>
+      </c>
+      <c r="B416" t="n">
+        <v>0.1075766804731554</v>
+      </c>
+      <c r="C416" t="n">
+        <v>0.1351595116513116</v>
+      </c>
+      <c r="D416" t="n">
+        <v>0.654871122761031</v>
+      </c>
+      <c r="E416" t="n">
+        <v>0.4876237623762376</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>415</v>
+      </c>
+      <c r="B417" t="n">
+        <v>0.1086577195674181</v>
+      </c>
+      <c r="C417" t="n">
+        <v>0.1321774635996137</v>
+      </c>
+      <c r="D417" t="n">
+        <v>0.6312800349497597</v>
+      </c>
+      <c r="E417" t="n">
+        <v>0.4925742574257426</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>416</v>
+      </c>
+      <c r="B418" t="n">
+        <v>0.1076368157648378</v>
+      </c>
+      <c r="C418" t="n">
+        <v>0.1317386786852564</v>
+      </c>
+      <c r="D418" t="n">
+        <v>0.6400174748798602</v>
+      </c>
+      <c r="E418" t="n">
+        <v>0.5346534653465347</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>417</v>
+      </c>
+      <c r="B419" t="n">
+        <v>0.1073257881734106</v>
+      </c>
+      <c r="C419" t="n">
+        <v>0.1338316063795771</v>
+      </c>
+      <c r="D419" t="n">
+        <v>0.6443861948449104</v>
+      </c>
+      <c r="E419" t="n">
+        <v>0.5272277227722773</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>418</v>
+      </c>
+      <c r="B420" t="n">
+        <v>0.1082821200705237</v>
+      </c>
+      <c r="C420" t="n">
+        <v>0.1334757421697889</v>
+      </c>
+      <c r="D420" t="n">
+        <v>0.6304062909567497</v>
+      </c>
+      <c r="E420" t="n">
+        <v>0.5272277227722773</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>419</v>
+      </c>
+      <c r="B421" t="n">
+        <v>0.1066826147337755</v>
+      </c>
+      <c r="C421" t="n">
+        <v>0.1323180539267404</v>
+      </c>
+      <c r="D421" t="n">
+        <v>0.654871122761031</v>
+      </c>
+      <c r="E421" t="n">
+        <v>0.504950495049505</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>420</v>
+      </c>
+      <c r="B422" t="n">
+        <v>0.1050733706603448</v>
+      </c>
+      <c r="C422" t="n">
+        <v>0.1326287133353097</v>
+      </c>
+      <c r="D422" t="n">
+        <v>0.6561817387505461</v>
+      </c>
+      <c r="E422" t="n">
+        <v>0.5198019801980198</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>421</v>
+      </c>
+      <c r="B423" t="n">
+        <v>0.1057171685000261</v>
+      </c>
+      <c r="C423" t="n">
+        <v>0.1317367457917758</v>
+      </c>
+      <c r="D423" t="n">
+        <v>0.6491917868064657</v>
+      </c>
+      <c r="E423" t="n">
+        <v>0.5272277227722773</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>422</v>
+      </c>
+      <c r="B424" t="n">
+        <v>0.1066716389937533</v>
+      </c>
+      <c r="C424" t="n">
+        <v>0.1308269298502377</v>
+      </c>
+      <c r="D424" t="n">
+        <v>0.6439493228484054</v>
+      </c>
+      <c r="E424" t="n">
+        <v>0.5148514851485149</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>423</v>
+      </c>
+      <c r="B425" t="n">
+        <v>0.1064292053795523</v>
+      </c>
+      <c r="C425" t="n">
+        <v>0.1327460291130202</v>
+      </c>
+      <c r="D425" t="n">
+        <v>0.6496286588029707</v>
+      </c>
+      <c r="E425" t="n">
+        <v>0.5222772277227723</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>424</v>
+      </c>
+      <c r="B426" t="n">
+        <v>0.1058828242950969</v>
+      </c>
+      <c r="C426" t="n">
+        <v>0.1331885936004775</v>
+      </c>
+      <c r="D426" t="n">
+        <v>0.6526867627785059</v>
+      </c>
+      <c r="E426" t="n">
+        <v>0.5148514851485149</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>425</v>
+      </c>
+      <c r="B427" t="n">
+        <v>0.1070688695957263</v>
+      </c>
+      <c r="C427" t="n">
+        <v>0.131317067359175</v>
+      </c>
+      <c r="D427" t="n">
+        <v>0.6395806028833552</v>
+      </c>
+      <c r="E427" t="n">
+        <v>0.5123762376237624</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>426</v>
+      </c>
+      <c r="B428" t="n">
+        <v>0.1059099464780754</v>
+      </c>
+      <c r="C428" t="n">
+        <v>0.1319064210568155</v>
+      </c>
+      <c r="D428" t="n">
+        <v>0.6378331148973351</v>
+      </c>
+      <c r="E428" t="n">
+        <v>0.4876237623762376</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>427</v>
+      </c>
+      <c r="B429" t="n">
+        <v>0.1063835465659698</v>
+      </c>
+      <c r="C429" t="n">
+        <v>0.1342010029724666</v>
+      </c>
+      <c r="D429" t="n">
+        <v>0.6535605067715159</v>
+      </c>
+      <c r="E429" t="n">
+        <v>0.5024752475247525</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>428</v>
+      </c>
+      <c r="B430" t="n">
+        <v>0.1070555212597052</v>
+      </c>
+      <c r="C430" t="n">
+        <v>0.131968478006976</v>
+      </c>
+      <c r="D430" t="n">
+        <v>0.6474442988204456</v>
+      </c>
+      <c r="E430" t="n">
+        <v>0.5173267326732673</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>429</v>
+      </c>
+      <c r="B431" t="n">
+        <v>0.106417787157827</v>
+      </c>
+      <c r="C431" t="n">
+        <v>0.1309046702725547</v>
+      </c>
+      <c r="D431" t="n">
+        <v>0.6487549148099607</v>
+      </c>
+      <c r="E431" t="n">
+        <v>0.5297029702970297</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>430</v>
+      </c>
+      <c r="B432" t="n">
+        <v>0.1062544532534149</v>
+      </c>
+      <c r="C432" t="n">
+        <v>0.1324214796934809</v>
+      </c>
+      <c r="D432" t="n">
+        <v>0.6378331148973351</v>
+      </c>
+      <c r="E432" t="n">
+        <v>0.5024752475247525</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>431</v>
+      </c>
+      <c r="B433" t="n">
+        <v>0.1058222773588366</v>
+      </c>
+      <c r="C433" t="n">
+        <v>0.1320590930325644</v>
+      </c>
+      <c r="D433" t="n">
+        <v>0.6456968108344255</v>
+      </c>
+      <c r="E433" t="n">
+        <v>0.5173267326732673</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>432</v>
+      </c>
+      <c r="B434" t="n">
+        <v>0.1061926384766897</v>
+      </c>
+      <c r="C434" t="n">
+        <v>0.132041694862502</v>
+      </c>
+      <c r="D434" t="n">
+        <v>0.653997378768021</v>
+      </c>
+      <c r="E434" t="n">
+        <v>0.5198019801980198</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>433</v>
+      </c>
+      <c r="B435" t="n">
+        <v>0.1066123969439003</v>
+      </c>
+      <c r="C435" t="n">
+        <v>0.1316329858132771</v>
+      </c>
+      <c r="D435" t="n">
+        <v>0.6518130187854958</v>
+      </c>
+      <c r="E435" t="n">
+        <v>0.5272277227722773</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>434</v>
+      </c>
+      <c r="B436" t="n">
+        <v>0.1068815555837419</v>
+      </c>
+      <c r="C436" t="n">
+        <v>0.1330177294356482</v>
+      </c>
+      <c r="D436" t="n">
+        <v>0.6452599388379205</v>
+      </c>
+      <c r="E436" t="n">
+        <v>0.5074257425742574</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>435</v>
+      </c>
+      <c r="B437" t="n">
+        <v>0.1062569092545244</v>
+      </c>
+      <c r="C437" t="n">
+        <v>0.1318448622311865</v>
+      </c>
+      <c r="D437" t="n">
+        <v>0.6404543468763653</v>
+      </c>
+      <c r="E437" t="n">
+        <v>0.5148514851485149</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>436</v>
+      </c>
+      <c r="B438" t="n">
+        <v>0.1061593412111203</v>
+      </c>
+      <c r="C438" t="n">
+        <v>0.1306847440344947</v>
+      </c>
+      <c r="D438" t="n">
+        <v>0.6408912188728703</v>
+      </c>
+      <c r="E438" t="n">
+        <v>0.5396039603960396</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>437</v>
+      </c>
+      <c r="B439" t="n">
+        <v>0.1052864562306139</v>
+      </c>
+      <c r="C439" t="n">
+        <v>0.1316254532762936</v>
+      </c>
+      <c r="D439" t="n">
+        <v>0.6452599388379205</v>
+      </c>
+      <c r="E439" t="n">
+        <v>0.551980198019802</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>438</v>
+      </c>
+      <c r="B440" t="n">
+        <v>0.1066437967949443</v>
+      </c>
+      <c r="C440" t="n">
+        <v>0.1330672757966178</v>
+      </c>
+      <c r="D440" t="n">
+        <v>0.6470074268239406</v>
+      </c>
+      <c r="E440" t="n">
+        <v>0.504950495049505</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>439</v>
+      </c>
+      <c r="B441" t="n">
+        <v>0.1052205899937285</v>
+      </c>
+      <c r="C441" t="n">
+        <v>0.1325282220329557</v>
+      </c>
+      <c r="D441" t="n">
+        <v>0.6526867627785059</v>
+      </c>
+      <c r="E441" t="n">
+        <v>0.5173267326732673</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>440</v>
+      </c>
+      <c r="B442" t="n">
+        <v>0.105562519075142</v>
+      </c>
+      <c r="C442" t="n">
+        <v>0.1317028882248061</v>
+      </c>
+      <c r="D442" t="n">
+        <v>0.6491917868064657</v>
+      </c>
+      <c r="E442" t="n">
+        <v>0.5297029702970297</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>441</v>
+      </c>
+      <c r="B443" t="n">
+        <v>0.1054429467767477</v>
+      </c>
+      <c r="C443" t="n">
+        <v>0.1336367556027004</v>
+      </c>
+      <c r="D443" t="n">
+        <v>0.6334643949322848</v>
+      </c>
+      <c r="E443" t="n">
+        <v>0.5272277227722773</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>442</v>
+      </c>
+      <c r="B444" t="n">
+        <v>0.1053555367721452</v>
+      </c>
+      <c r="C444" t="n">
+        <v>0.1320046314171382</v>
+      </c>
+      <c r="D444" t="n">
+        <v>0.6456968108344255</v>
+      </c>
+      <c r="E444" t="n">
+        <v>0.5148514851485149</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>443</v>
+      </c>
+      <c r="B445" t="n">
+        <v>0.1059972145077255</v>
+      </c>
+      <c r="C445" t="n">
+        <v>0.1311477848461696</v>
+      </c>
+      <c r="D445" t="n">
+        <v>0.6574923547400612</v>
+      </c>
+      <c r="E445" t="n">
+        <v>0.5321782178217822</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>444</v>
+      </c>
+      <c r="B446" t="n">
+        <v>0.1046685698545641</v>
+      </c>
+      <c r="C446" t="n">
+        <v>0.130909152328968</v>
+      </c>
+      <c r="D446" t="n">
+        <v>0.6513761467889908</v>
+      </c>
+      <c r="E446" t="n">
+        <v>0.5272277227722773</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>445</v>
+      </c>
+      <c r="B447" t="n">
+        <v>0.105544178850121</v>
+      </c>
+      <c r="C447" t="n">
+        <v>0.1322165408304759</v>
+      </c>
+      <c r="D447" t="n">
+        <v>0.6513761467889908</v>
+      </c>
+      <c r="E447" t="n">
+        <v>0.504950495049505</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>446</v>
+      </c>
+      <c r="B448" t="n">
+        <v>0.1051214589840836</v>
+      </c>
+      <c r="C448" t="n">
+        <v>0.1315192825027875</v>
+      </c>
+      <c r="D448" t="n">
+        <v>0.6443861948449104</v>
+      </c>
+      <c r="E448" t="n">
+        <v>0.5099009900990099</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>447</v>
+      </c>
+      <c r="B449" t="n">
+        <v>0.1049791083981593</v>
+      </c>
+      <c r="C449" t="n">
+        <v>0.1335479021072388</v>
+      </c>
+      <c r="D449" t="n">
+        <v>0.6413280908693753</v>
+      </c>
+      <c r="E449" t="n">
+        <v>0.5123762376237624</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>448</v>
+      </c>
+      <c r="B450" t="n">
+        <v>0.105544725432992</v>
+      </c>
+      <c r="C450" t="n">
+        <v>0.1343096877847399</v>
+      </c>
+      <c r="D450" t="n">
+        <v>0.6596767147225863</v>
+      </c>
+      <c r="E450" t="n">
+        <v>0.4801980198019802</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>449</v>
+      </c>
+      <c r="B451" t="n">
+        <v>0.106257021220194</v>
+      </c>
+      <c r="C451" t="n">
+        <v>0.1327175625732967</v>
+      </c>
+      <c r="D451" t="n">
+        <v>0.6456968108344255</v>
+      </c>
+      <c r="E451" t="n">
+        <v>0.5173267326732673</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>450</v>
+      </c>
+      <c r="B452" t="n">
+        <v>0.1048197322007683</v>
+      </c>
+      <c r="C452" t="n">
+        <v>0.1338286495634488</v>
+      </c>
+      <c r="D452" t="n">
+        <v>0.654434250764526</v>
+      </c>
+      <c r="E452" t="n">
+        <v>0.5396039603960396</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>451</v>
+      </c>
+      <c r="B453" t="n">
+        <v>0.1038619964900944</v>
+      </c>
+      <c r="C453" t="n">
+        <v>0.1329868137836456</v>
+      </c>
+      <c r="D453" t="n">
+        <v>0.6487549148099607</v>
+      </c>
+      <c r="E453" t="n">
+        <v>0.5123762376237624</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>452</v>
+      </c>
+      <c r="B454" t="n">
+        <v>0.1049294312381082</v>
+      </c>
+      <c r="C454" t="n">
+        <v>0.1324951893516949</v>
+      </c>
+      <c r="D454" t="n">
+        <v>0.6435124508519003</v>
+      </c>
+      <c r="E454" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>453</v>
+      </c>
+      <c r="B455" t="n">
+        <v>0.1030421045919259</v>
+      </c>
+      <c r="C455" t="n">
+        <v>0.1339103952050209</v>
+      </c>
+      <c r="D455" t="n">
+        <v>0.6627348186981215</v>
+      </c>
+      <c r="E455" t="n">
+        <v>0.5148514851485149</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>454</v>
+      </c>
+      <c r="B456" t="n">
+        <v>0.1042648046794865</v>
+      </c>
+      <c r="C456" t="n">
+        <v>0.1316368665013994</v>
+      </c>
+      <c r="D456" t="n">
+        <v>0.6500655307994757</v>
+      </c>
+      <c r="E456" t="n">
+        <v>0.5148514851485149</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>455</v>
+      </c>
+      <c r="B457" t="n">
+        <v>0.1045604859375291</v>
+      </c>
+      <c r="C457" t="n">
+        <v>0.1325390189886093</v>
+      </c>
+      <c r="D457" t="n">
+        <v>0.6618610747051114</v>
+      </c>
+      <c r="E457" t="n">
+        <v>0.5198019801980198</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>456</v>
+      </c>
+      <c r="B458" t="n">
+        <v>0.1038172770705488</v>
+      </c>
+      <c r="C458" t="n">
+        <v>0.1335730616535459</v>
+      </c>
+      <c r="D458" t="n">
+        <v>0.6618610747051114</v>
+      </c>
+      <c r="E458" t="n">
+        <v>0.5272277227722773</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>457</v>
+      </c>
+      <c r="B459" t="n">
+        <v>0.1049571786489752</v>
+      </c>
+      <c r="C459" t="n">
+        <v>0.1330658176115581</v>
+      </c>
+      <c r="D459" t="n">
+        <v>0.6500655307994757</v>
+      </c>
+      <c r="E459" t="n">
+        <v>0.5148514851485149</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>458</v>
+      </c>
+      <c r="B460" t="n">
+        <v>0.1051318407472637</v>
+      </c>
+      <c r="C460" t="n">
+        <v>0.1316184422799519</v>
+      </c>
+      <c r="D460" t="n">
+        <v>0.6588029707295763</v>
+      </c>
+      <c r="E460" t="n">
+        <v>0.5074257425742574</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>459</v>
+      </c>
+      <c r="B461" t="n">
+        <v>0.103464261111286</v>
+      </c>
+      <c r="C461" t="n">
+        <v>0.1316995652658599</v>
+      </c>
+      <c r="D461" t="n">
+        <v>0.6622979467016165</v>
+      </c>
+      <c r="E461" t="n">
+        <v>0.5148514851485149</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>460</v>
+      </c>
+      <c r="B462" t="n">
+        <v>0.1036676087727149</v>
+      </c>
+      <c r="C462" t="n">
+        <v>0.1315930028046881</v>
+      </c>
+      <c r="D462" t="n">
+        <v>0.654434250764526</v>
+      </c>
+      <c r="E462" t="n">
+        <v>0.5024752475247525</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>461</v>
+      </c>
+      <c r="B463" t="n">
+        <v>0.1036149147484038</v>
+      </c>
+      <c r="C463" t="n">
+        <v>0.132966867515019</v>
+      </c>
+      <c r="D463" t="n">
+        <v>0.6649191786806465</v>
+      </c>
+      <c r="E463" t="n">
+        <v>0.5099009900990099</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>462</v>
+      </c>
+      <c r="B464" t="n">
+        <v>0.104431473546558</v>
+      </c>
+      <c r="C464" t="n">
+        <v>0.1318141658391271</v>
+      </c>
+      <c r="D464" t="n">
+        <v>0.6531236347750109</v>
+      </c>
+      <c r="E464" t="n">
+        <v>0.5420792079207921</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>463</v>
+      </c>
+      <c r="B465" t="n">
+        <v>0.1041047349572182</v>
+      </c>
+      <c r="C465" t="n">
+        <v>0.1309227081281798</v>
+      </c>
+      <c r="D465" t="n">
+        <v>0.6470074268239406</v>
+      </c>
+      <c r="E465" t="n">
+        <v>0.5148514851485149</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>464</v>
+      </c>
+      <c r="B466" t="n">
+        <v>0.1037036437127325</v>
+      </c>
+      <c r="C466" t="n">
+        <v>0.132113299199513</v>
+      </c>
+      <c r="D466" t="n">
+        <v>0.6636085626911316</v>
+      </c>
+      <c r="E466" t="n">
+        <v>0.5148514851485149</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>465</v>
+      </c>
+      <c r="B467" t="n">
+        <v>0.1043573340608014</v>
+      </c>
+      <c r="C467" t="n">
+        <v>0.1320119138274874</v>
+      </c>
+      <c r="D467" t="n">
+        <v>0.6631716906946264</v>
+      </c>
+      <c r="E467" t="n">
+        <v>0.5099009900990099</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>466</v>
+      </c>
+      <c r="B468" t="n">
+        <v>0.103016940669881</v>
+      </c>
+      <c r="C468" t="n">
+        <v>0.1326194448130471</v>
+      </c>
+      <c r="D468" t="n">
+        <v>0.6583660987330712</v>
+      </c>
+      <c r="E468" t="n">
+        <v>0.5024752475247525</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>467</v>
+      </c>
+      <c r="B469" t="n">
+        <v>0.1036410526269012</v>
+      </c>
+      <c r="C469" t="n">
+        <v>0.1323973089456558</v>
+      </c>
+      <c r="D469" t="n">
+        <v>0.6566186107470511</v>
+      </c>
+      <c r="E469" t="n">
+        <v>0.5099009900990099</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>468</v>
+      </c>
+      <c r="B470" t="n">
+        <v>0.1046082033879227</v>
+      </c>
+      <c r="C470" t="n">
+        <v>0.1312905528715679</v>
+      </c>
+      <c r="D470" t="n">
+        <v>0.6618610747051114</v>
+      </c>
+      <c r="E470" t="n">
+        <v>0.5099009900990099</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>469</v>
+      </c>
+      <c r="B471" t="n">
+        <v>0.104326915823751</v>
+      </c>
+      <c r="C471" t="n">
+        <v>0.1323462352156639</v>
+      </c>
+      <c r="D471" t="n">
+        <v>0.6609873307121014</v>
+      </c>
+      <c r="E471" t="n">
+        <v>0.5272277227722773</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>470</v>
+      </c>
+      <c r="B472" t="n">
+        <v>0.1026706689347823</v>
+      </c>
+      <c r="C472" t="n">
+        <v>0.1328843736222812</v>
+      </c>
+      <c r="D472" t="n">
+        <v>0.6657929226736566</v>
+      </c>
+      <c r="E472" t="n">
+        <v>0.5074257425742574</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>471</v>
+      </c>
+      <c r="B473" t="n">
+        <v>0.1021977509889338</v>
+      </c>
+      <c r="C473" t="n">
+        <v>0.1324419464383806</v>
+      </c>
+      <c r="D473" t="n">
+        <v>0.6745303626037571</v>
+      </c>
+      <c r="E473" t="n">
+        <v>0.504950495049505</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>472</v>
+      </c>
+      <c r="B474" t="n">
+        <v>0.1033113714721468</v>
+      </c>
+      <c r="C474" t="n">
+        <v>0.1347302389996392</v>
+      </c>
+      <c r="D474" t="n">
+        <v>0.6513761467889908</v>
+      </c>
+      <c r="E474" t="n">
+        <v>0.4900990099009901</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>473</v>
+      </c>
+      <c r="B475" t="n">
+        <v>0.1029807389196422</v>
+      </c>
+      <c r="C475" t="n">
+        <v>0.1336774315152849</v>
+      </c>
+      <c r="D475" t="n">
+        <v>0.6697247706422018</v>
+      </c>
+      <c r="E475" t="n">
+        <v>0.5123762376237624</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>474</v>
+      </c>
+      <c r="B476" t="n">
+        <v>0.1029009107086394</v>
+      </c>
+      <c r="C476" t="n">
+        <v>0.1334912755659648</v>
+      </c>
+      <c r="D476" t="n">
+        <v>0.6561817387505461</v>
+      </c>
+      <c r="E476" t="n">
+        <v>0.5123762376237624</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>475</v>
+      </c>
+      <c r="B477" t="n">
+        <v>0.1027802177187469</v>
+      </c>
+      <c r="C477" t="n">
+        <v>0.1327477352959769</v>
+      </c>
+      <c r="D477" t="n">
+        <v>0.6522498907820009</v>
+      </c>
+      <c r="E477" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>476</v>
+      </c>
+      <c r="B478" t="n">
+        <v>0.1020191226982408</v>
+      </c>
+      <c r="C478" t="n">
+        <v>0.1317448956625802</v>
+      </c>
+      <c r="D478" t="n">
+        <v>0.6614242027086064</v>
+      </c>
+      <c r="E478" t="n">
+        <v>0.5024752475247525</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>477</v>
+      </c>
+      <c r="B479" t="n">
+        <v>0.1018651258200407</v>
+      </c>
+      <c r="C479" t="n">
+        <v>0.1313576549291611</v>
+      </c>
+      <c r="D479" t="n">
+        <v>0.6601135867190913</v>
+      </c>
+      <c r="E479" t="n">
+        <v>0.5123762376237624</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>478</v>
+      </c>
+      <c r="B480" t="n">
+        <v>0.1023192169765631</v>
+      </c>
+      <c r="C480" t="n">
+        <v>0.1339953509824617</v>
+      </c>
+      <c r="D480" t="n">
+        <v>0.672346002621232</v>
+      </c>
+      <c r="E480" t="n">
+        <v>0.4900990099009901</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>479</v>
+      </c>
+      <c r="B481" t="n">
+        <v>0.1021002390318447</v>
+      </c>
+      <c r="C481" t="n">
+        <v>0.1336900740861893</v>
+      </c>
+      <c r="D481" t="n">
+        <v>0.6553079947575361</v>
+      </c>
+      <c r="E481" t="n">
+        <v>0.5173267326732673</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>480</v>
+      </c>
+      <c r="B482" t="n">
+        <v>0.101033859161867</v>
+      </c>
+      <c r="C482" t="n">
+        <v>0.1316858434251376</v>
+      </c>
+      <c r="D482" t="n">
+        <v>0.6828309305373526</v>
+      </c>
+      <c r="E482" t="n">
+        <v>0.5321782178217822</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>481</v>
+      </c>
+      <c r="B483" t="n">
+        <v>0.1022388136221303</v>
+      </c>
+      <c r="C483" t="n">
+        <v>0.132058247923851</v>
+      </c>
+      <c r="D483" t="n">
+        <v>0.6662297946701616</v>
+      </c>
+      <c r="E483" t="n">
+        <v>0.5024752475247525</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>482</v>
+      </c>
+      <c r="B484" t="n">
+        <v>0.1016500815749168</v>
+      </c>
+      <c r="C484" t="n">
+        <v>0.1361310907772609</v>
+      </c>
+      <c r="D484" t="n">
+        <v>0.6675404106596767</v>
+      </c>
+      <c r="E484" t="n">
+        <v>0.4900990099009901</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="n">
+        <v>483</v>
+      </c>
+      <c r="B485" t="n">
+        <v>0.1020762500249677</v>
+      </c>
+      <c r="C485" t="n">
+        <v>0.1327719103012766</v>
+      </c>
+      <c r="D485" t="n">
+        <v>0.6574923547400612</v>
+      </c>
+      <c r="E485" t="n">
+        <v>0.5074257425742574</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="n">
+        <v>484</v>
+      </c>
+      <c r="B486" t="n">
+        <v>0.1023294656640953</v>
+      </c>
+      <c r="C486" t="n">
+        <v>0.1319282608372825</v>
+      </c>
+      <c r="D486" t="n">
+        <v>0.6662297946701616</v>
+      </c>
+      <c r="E486" t="n">
+        <v>0.5099009900990099</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>485</v>
+      </c>
+      <c r="B487" t="n">
+        <v>0.103650749143627</v>
+      </c>
+      <c r="C487" t="n">
+        <v>0.1324956927980696</v>
+      </c>
+      <c r="D487" t="n">
+        <v>0.6535605067715159</v>
+      </c>
+      <c r="E487" t="n">
+        <v>0.5222772277227723</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>486</v>
+      </c>
+      <c r="B488" t="n">
+        <v>0.1022584715651141</v>
+      </c>
+      <c r="C488" t="n">
+        <v>0.132070317864418</v>
+      </c>
+      <c r="D488" t="n">
+        <v>0.6705985146352119</v>
+      </c>
+      <c r="E488" t="n">
+        <v>0.5371287128712872</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>487</v>
+      </c>
+      <c r="B489" t="n">
+        <v>0.100795216858387</v>
+      </c>
+      <c r="C489" t="n">
+        <v>0.1324957513383457</v>
+      </c>
+      <c r="D489" t="n">
+        <v>0.6684141546526867</v>
+      </c>
+      <c r="E489" t="n">
+        <v>0.5445544554455446</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>488</v>
+      </c>
+      <c r="B490" t="n">
+        <v>0.1023774231887526</v>
+      </c>
+      <c r="C490" t="n">
+        <v>0.1346070383276258</v>
+      </c>
+      <c r="D490" t="n">
+        <v>0.6627348186981215</v>
+      </c>
+      <c r="E490" t="n">
+        <v>0.4925742574257426</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>489</v>
+      </c>
+      <c r="B491" t="n">
+        <v>0.1029703292167849</v>
+      </c>
+      <c r="C491" t="n">
+        <v>0.1332017779350281</v>
+      </c>
+      <c r="D491" t="n">
+        <v>0.6588029707295763</v>
+      </c>
+      <c r="E491" t="n">
+        <v>0.5371287128712872</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
+        <v>490</v>
+      </c>
+      <c r="B492" t="n">
+        <v>0.101627761291133</v>
+      </c>
+      <c r="C492" t="n">
+        <v>0.1334453980837549</v>
+      </c>
+      <c r="D492" t="n">
+        <v>0.6675404106596767</v>
+      </c>
+      <c r="E492" t="n">
+        <v>0.504950495049505</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>491</v>
+      </c>
+      <c r="B493" t="n">
+        <v>0.1022551506757736</v>
+      </c>
+      <c r="C493" t="n">
+        <v>0.1320973868880953</v>
+      </c>
+      <c r="D493" t="n">
+        <v>0.6531236347750109</v>
+      </c>
+      <c r="E493" t="n">
+        <v>0.5148514851485149</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="n">
+        <v>492</v>
+      </c>
+      <c r="B494" t="n">
+        <v>0.1022535972297192</v>
+      </c>
+      <c r="C494" t="n">
+        <v>0.1339150475604194</v>
+      </c>
+      <c r="D494" t="n">
+        <v>0.672782874617737</v>
+      </c>
+      <c r="E494" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="n">
+        <v>493</v>
+      </c>
+      <c r="B495" t="n">
+        <v>0.1024631712999609</v>
+      </c>
+      <c r="C495" t="n">
+        <v>0.1329508391874177</v>
+      </c>
+      <c r="D495" t="n">
+        <v>0.6614242027086064</v>
+      </c>
+      <c r="E495" t="n">
+        <v>0.5198019801980198</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>494</v>
+      </c>
+      <c r="B496" t="n">
+        <v>0.1014958222707113</v>
+      </c>
+      <c r="C496" t="n">
+        <v>0.1318910579596247</v>
+      </c>
+      <c r="D496" t="n">
+        <v>0.6740934906072521</v>
+      </c>
+      <c r="E496" t="n">
+        <v>0.5495049504950495</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>495</v>
+      </c>
+      <c r="B497" t="n">
+        <v>0.101599868800905</v>
+      </c>
+      <c r="C497" t="n">
+        <v>0.1331263908318111</v>
+      </c>
+      <c r="D497" t="n">
+        <v>0.6671035386631717</v>
+      </c>
+      <c r="E497" t="n">
+        <v>0.495049504950495</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>496</v>
+      </c>
+      <c r="B498" t="n">
+        <v>0.1015313609192769</v>
+      </c>
+      <c r="C498" t="n">
+        <v>0.1324205047317914</v>
+      </c>
+      <c r="D498" t="n">
+        <v>0.6653560506771516</v>
+      </c>
+      <c r="E498" t="n">
+        <v>0.5272277227722773</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>497</v>
+      </c>
+      <c r="B499" t="n">
+        <v>0.09977172501385212</v>
+      </c>
+      <c r="C499" t="n">
+        <v>0.1335954368114471</v>
+      </c>
+      <c r="D499" t="n">
+        <v>0.6858890345128877</v>
+      </c>
+      <c r="E499" t="n">
+        <v>0.5222772277227723</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="n">
+        <v>498</v>
+      </c>
+      <c r="B500" t="n">
+        <v>0.09985889680683613</v>
+      </c>
+      <c r="C500" t="n">
+        <v>0.1353296062776021</v>
+      </c>
+      <c r="D500" t="n">
+        <v>0.6684141546526867</v>
+      </c>
+      <c r="E500" t="n">
+        <v>0.4727722772277227</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="n">
+        <v>499</v>
+      </c>
+      <c r="B501" t="n">
+        <v>0.1021074373275042</v>
+      </c>
+      <c r="C501" t="n">
+        <v>0.1329480920519148</v>
+      </c>
+      <c r="D501" t="n">
+        <v>0.6574923547400612</v>
+      </c>
+      <c r="E501" t="n">
+        <v>0.5346534653465347</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="n">
+        <v>500</v>
+      </c>
+      <c r="B502" t="n">
+        <v>0.101189446532064</v>
+      </c>
+      <c r="C502" t="n">
+        <v>0.1319332388894899</v>
+      </c>
+      <c r="D502" t="n">
+        <v>0.6719091306247269</v>
+      </c>
+      <c r="E502" t="n">
+        <v>0.5371287128712872</v>
       </c>
     </row>
   </sheetData>

--- a/FC_figure_bank/Protein + mRNALossAccDF.xlsx
+++ b/FC_figure_bank/Protein + mRNALossAccDF.xlsx
@@ -465,16 +465,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.167630919638802</v>
+        <v>0.1721657006179585</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1696297228336334</v>
+        <v>0.1717537211047279</v>
       </c>
       <c r="D2" t="n">
-        <v>0.239907192575406</v>
+        <v>0.3848653667595172</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2230483271375465</v>
+        <v>0.3840445269016697</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.190614567083471</v>
+        <v>0.2245537941070164</v>
       </c>
       <c r="C3" t="n">
-        <v>0.165901318192482</v>
+        <v>0.1782604985766941</v>
       </c>
       <c r="D3" t="n">
-        <v>0.239907192575406</v>
+        <v>0.1536675951717734</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3234200743494424</v>
+        <v>0.1020408163265306</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.181590806473704</v>
+        <v>0.2108696028590202</v>
       </c>
       <c r="C4" t="n">
-        <v>0.161214143037796</v>
+        <v>0.1720033867491616</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2784222737819025</v>
+        <v>0.1731662024141133</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3736059479553903</v>
+        <v>0.1799628942486085</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1755200365886969</v>
+        <v>0.2062246220953324</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1582038617796368</v>
+        <v>0.1683899097972446</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3025522041763341</v>
+        <v>0.1754874651810585</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4052044609665427</v>
+        <v>0.2226345083487941</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1731694134719232</v>
+        <v>0.1970847441869623</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1554150879383087</v>
+        <v>0.1636852125326792</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2895591647331787</v>
+        <v>0.212627669452182</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4405204460966543</v>
+        <v>0.3061224489795918</v>
       </c>
     </row>
     <row r="7">
@@ -550,16 +550,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1680909500402563</v>
+        <v>0.1863848233924192</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1536197844478819</v>
+        <v>0.1599001271857156</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3169373549883991</v>
+        <v>0.2242339832869081</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4460966542750929</v>
+        <v>0.3970315398886827</v>
       </c>
     </row>
     <row r="8">
@@ -567,16 +567,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1633687729344648</v>
+        <v>0.1826099503566237</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1512970593240526</v>
+        <v>0.1566926605171627</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3373549883990719</v>
+        <v>0.2493036211699164</v>
       </c>
       <c r="E8" t="n">
-        <v>0.483271375464684</v>
+        <v>0.4211502782931354</v>
       </c>
     </row>
     <row r="9">
@@ -584,16 +584,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1602825347115012</v>
+        <v>0.1754825417609776</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1495873298909929</v>
+        <v>0.1545028256045448</v>
       </c>
       <c r="D9" t="n">
-        <v>0.365661252900232</v>
+        <v>0.2985143918291551</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5074349442379182</v>
+        <v>0.4564007421150278</v>
       </c>
     </row>
     <row r="10">
@@ -601,16 +601,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1589235128725276</v>
+        <v>0.1735661617096733</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1479685737027062</v>
+        <v>0.1521397233009338</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3786542923433875</v>
+        <v>0.3129062209842154</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5148698884758365</v>
+        <v>0.4897959183673469</v>
       </c>
     </row>
     <row r="11">
@@ -618,16 +618,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1577869351295864</v>
+        <v>0.1694685154977967</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1472032169500987</v>
+        <v>0.150910754998525</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3786542923433875</v>
+        <v>0.3365831012070566</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5204460966542751</v>
+        <v>0.4990723562152133</v>
       </c>
     </row>
     <row r="12">
@@ -635,16 +635,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1571133675820687</v>
+        <v>0.1671202077585108</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1456825600730048</v>
+        <v>0.1494412885771857</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3758700696055685</v>
+        <v>0.3426183844011142</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5185873605947955</v>
+        <v>0.5027829313543599</v>
       </c>
     </row>
     <row r="13">
@@ -652,16 +652,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1540326050975744</v>
+        <v>0.166834014303544</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1451349722014533</v>
+        <v>0.1491767217715581</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3805104408352668</v>
+        <v>0.3556174558960074</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5353159851301115</v>
+        <v>0.4916512059369202</v>
       </c>
     </row>
     <row r="14">
@@ -669,16 +669,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1553163432023104</v>
+        <v>0.1609274197150679</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1434269530905617</v>
+        <v>0.1479512850443522</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4023201856148492</v>
+        <v>0.3853296193129062</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5464684014869888</v>
+        <v>0.5027829313543599</v>
       </c>
     </row>
     <row r="15">
@@ -686,16 +686,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1544739297207664</v>
+        <v>0.1624957735047621</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1438874105612437</v>
+        <v>0.1470249791940053</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4129930394431555</v>
+        <v>0.3857938718662953</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5446096654275093</v>
+        <v>0.5120593692022264</v>
       </c>
     </row>
     <row r="16">
@@ -703,16 +703,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1522592012496556</v>
+        <v>0.1577271687633851</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1424072451061673</v>
+        <v>0.1463587168190214</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4120649651972158</v>
+        <v>0.4034354688950789</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5557620817843866</v>
+        <v>0.5139146567717996</v>
       </c>
     </row>
     <row r="17">
@@ -720,16 +720,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1483521564480136</v>
+        <v>0.1607610109974356</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1421933290031221</v>
+        <v>0.1455059001843134</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4292343387470998</v>
+        <v>0.3992571959145775</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5464684014869888</v>
+        <v>0.5250463821892394</v>
       </c>
     </row>
     <row r="18">
@@ -737,16 +737,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1496625314740574</v>
+        <v>0.1562500070123111</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1415488421916962</v>
+        <v>0.1452369954850939</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4218097447795824</v>
+        <v>0.4155060352831941</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5631970260223048</v>
+        <v>0.5083487940630798</v>
       </c>
     </row>
     <row r="19">
@@ -754,16 +754,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1475181697922594</v>
+        <v>0.1544222283889266</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1418448868725035</v>
+        <v>0.1443066696325938</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4464037122969838</v>
+        <v>0.435933147632312</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5669144981412639</v>
+        <v>0.5213358070500927</v>
       </c>
     </row>
     <row r="20">
@@ -771,16 +771,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1457419320940971</v>
+        <v>0.1565474679364878</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1408835417694516</v>
+        <v>0.1436303241385354</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4524361948955917</v>
+        <v>0.4368616527390901</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5520446096654275</v>
+        <v>0.5176252319109462</v>
       </c>
     </row>
     <row r="21">
@@ -788,16 +788,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1459439957843107</v>
+        <v>0.1547195863197832</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1405902935398949</v>
+        <v>0.1436694049172931</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4357308584686775</v>
+        <v>0.4456824512534819</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5724907063197026</v>
+        <v>0.5102040816326531</v>
       </c>
     </row>
     <row r="22">
@@ -805,16 +805,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1456330558832954</v>
+        <v>0.1523311712286052</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1398362807101673</v>
+        <v>0.1433470812108782</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4436194895591647</v>
+        <v>0.4345403899721448</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5743494423791822</v>
+        <v>0.5287569573283859</v>
       </c>
     </row>
     <row r="23">
@@ -822,16 +822,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.1455793016973664</v>
+        <v>0.1541211513035438</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1399428322911263</v>
+        <v>0.1427386196123229</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4561484918793504</v>
+        <v>0.447075208913649</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5669144981412639</v>
+        <v>0.5213358070500927</v>
       </c>
     </row>
     <row r="24">
@@ -839,16 +839,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.1451073481756098</v>
+        <v>0.1515967859064832</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1395579212241703</v>
+        <v>0.142478364209334</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4607888631090487</v>
+        <v>0.4428969359331476</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5799256505576208</v>
+        <v>0.5287569573283859</v>
       </c>
     </row>
     <row r="25">
@@ -856,16 +856,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.1452257460092797</v>
+        <v>0.1523419408237233</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1394142889314228</v>
+        <v>0.1418705234924952</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4640371229698376</v>
+        <v>0.447539461467038</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5799256505576208</v>
+        <v>0.5194805194805194</v>
       </c>
     </row>
     <row r="26">
@@ -873,16 +873,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.1415518373250961</v>
+        <v>0.1489582351025413</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1396111539668507</v>
+        <v>0.141549128625128</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4705336426914153</v>
+        <v>0.4651810584958218</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5817843866171004</v>
+        <v>0.5250463821892394</v>
       </c>
     </row>
     <row r="27">
@@ -890,16 +890,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1445765591719571</v>
+        <v>0.1491576115436414</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1391577546795209</v>
+        <v>0.1417088541719649</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4482598607888631</v>
+        <v>0.4707520891364902</v>
       </c>
       <c r="E27" t="n">
-        <v>0.5855018587360595</v>
+        <v>0.5287569573283859</v>
       </c>
     </row>
     <row r="28">
@@ -907,16 +907,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1438847057083074</v>
+        <v>0.1491852994350826</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1390639237231678</v>
+        <v>0.1412998967700534</v>
       </c>
       <c r="D28" t="n">
-        <v>0.459860788863109</v>
+        <v>0.4749303621169916</v>
       </c>
       <c r="E28" t="n">
-        <v>0.5929368029739777</v>
+        <v>0.5194805194805194</v>
       </c>
     </row>
     <row r="29">
@@ -924,16 +924,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.1439665928483009</v>
+        <v>0.1488784227301093</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1380756903025839</v>
+        <v>0.1409318099419276</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4556844547563805</v>
+        <v>0.4535747446610957</v>
       </c>
       <c r="E29" t="n">
-        <v>0.5892193308550185</v>
+        <v>0.5231910946196661</v>
       </c>
     </row>
     <row r="30">
@@ -941,16 +941,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.1419004138339968</v>
+        <v>0.1480406325529603</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1382456984784868</v>
+        <v>0.1408369061019686</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4459396751740139</v>
+        <v>0.4758588672237697</v>
       </c>
       <c r="E30" t="n">
-        <v>0.587360594795539</v>
+        <v>0.5194805194805194</v>
       </c>
     </row>
     <row r="31">
@@ -958,16 +958,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1436342855586725</v>
+        <v>0.1478381713523584</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1381081425481372</v>
+        <v>0.1406014834841093</v>
       </c>
       <c r="D31" t="n">
-        <v>0.459860788863109</v>
+        <v>0.4712163416898793</v>
       </c>
       <c r="E31" t="n">
-        <v>0.587360594795539</v>
+        <v>0.5231910946196661</v>
       </c>
     </row>
     <row r="32">
@@ -975,16 +975,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.1416612019871964</v>
+        <v>0.1467844497631578</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1379875656631258</v>
+        <v>0.1408614433474011</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4895591647331787</v>
+        <v>0.4823584029712163</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5947955390334573</v>
+        <v>0.5231910946196661</v>
       </c>
     </row>
     <row r="33">
@@ -992,16 +992,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.140201317913392</v>
+        <v>0.1476099955684999</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1370287901825375</v>
+        <v>0.1406781284345521</v>
       </c>
       <c r="D33" t="n">
-        <v>0.4733178654292343</v>
+        <v>0.4809656453110492</v>
       </c>
       <c r="E33" t="n">
-        <v>0.5762081784386617</v>
+        <v>0.5250463821892394</v>
       </c>
     </row>
     <row r="34">
@@ -1009,16 +1009,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.141731977901038</v>
+        <v>0.1439723368076717</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1373512016402351</v>
+        <v>0.1407459038827154</v>
       </c>
       <c r="D34" t="n">
-        <v>0.4723897911832947</v>
+        <v>0.5027855153203342</v>
       </c>
       <c r="E34" t="n">
-        <v>0.5947955390334573</v>
+        <v>0.5250463821892394</v>
       </c>
     </row>
     <row r="35">
@@ -1026,16 +1026,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.1404498662142193</v>
+        <v>0.1455989865695729</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1369699637095133</v>
+        <v>0.1402878868911001</v>
       </c>
       <c r="D35" t="n">
-        <v>0.491415313225058</v>
+        <v>0.4986072423398329</v>
       </c>
       <c r="E35" t="n">
-        <v>0.5910780669144982</v>
+        <v>0.5231910946196661</v>
       </c>
     </row>
     <row r="36">
@@ -1043,16 +1043,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.1405604354598943</v>
+        <v>0.1456017980680746</v>
       </c>
       <c r="C36" t="n">
-        <v>0.1368931399451362</v>
+        <v>0.1402433100673887</v>
       </c>
       <c r="D36" t="n">
-        <v>0.4733178654292343</v>
+        <v>0.4879294336118848</v>
       </c>
       <c r="E36" t="n">
-        <v>0.5985130111524164</v>
+        <v>0.5287569573283859</v>
       </c>
     </row>
     <row r="37">
@@ -1060,16 +1060,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1419291509424939</v>
+        <v>0.1445804941741859</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1371554699209001</v>
+        <v>0.1399689200851652</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4825986078886311</v>
+        <v>0.4916434540389972</v>
       </c>
       <c r="E37" t="n">
-        <v>0.6022304832713755</v>
+        <v>0.5343228200371057</v>
       </c>
     </row>
     <row r="38">
@@ -1077,16 +1077,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.1401161985362277</v>
+        <v>0.1443463912343278</v>
       </c>
       <c r="C38" t="n">
-        <v>0.1368687980704837</v>
+        <v>0.1399783798389965</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4770301624129931</v>
+        <v>0.4944289693593314</v>
       </c>
       <c r="E38" t="n">
-        <v>0.6022304832713755</v>
+        <v>0.5287569573283859</v>
       </c>
     </row>
     <row r="39">
@@ -1094,16 +1094,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.1406298514236422</v>
+        <v>0.1459294242017409</v>
       </c>
       <c r="C39" t="n">
-        <v>0.1369994315836165</v>
+        <v>0.1393950225578414</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4812064965197216</v>
+        <v>0.4902506963788301</v>
       </c>
       <c r="E39" t="n">
-        <v>0.5985130111524164</v>
+        <v>0.5306122448979592</v>
       </c>
     </row>
     <row r="40">
@@ -1111,16 +1111,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.13985150636119</v>
+        <v>0.1441412543987527</v>
       </c>
       <c r="C40" t="n">
-        <v>0.1362383969955974</v>
+        <v>0.1394419074058533</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4965197215777262</v>
+        <v>0.4953574744661096</v>
       </c>
       <c r="E40" t="n">
-        <v>0.587360594795539</v>
+        <v>0.5231910946196661</v>
       </c>
     </row>
     <row r="41">
@@ -1128,16 +1128,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.1397851346170201</v>
+        <v>0.1436364067827954</v>
       </c>
       <c r="C41" t="n">
-        <v>0.1365111867586772</v>
+        <v>0.1394409967793359</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4802784222737819</v>
+        <v>0.4925719591457753</v>
       </c>
       <c r="E41" t="n">
-        <v>0.5966542750929368</v>
+        <v>0.5213358070500927</v>
       </c>
     </row>
     <row r="42">
@@ -1145,16 +1145,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.1390807751347037</v>
+        <v>0.1425159393864519</v>
       </c>
       <c r="C42" t="n">
-        <v>0.135676610800955</v>
+        <v>0.1388968245850669</v>
       </c>
       <c r="D42" t="n">
-        <v>0.4867749419953596</v>
+        <v>0.5023212627669452</v>
       </c>
       <c r="E42" t="n">
-        <v>0.5855018587360595</v>
+        <v>0.5287569573283859</v>
       </c>
     </row>
     <row r="43">
@@ -1162,16 +1162,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.1380351433420882</v>
+        <v>0.1426314691848615</v>
       </c>
       <c r="C43" t="n">
-        <v>0.1364256590604782</v>
+        <v>0.1389097885953056</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4691415313225058</v>
+        <v>0.4995357474466109</v>
       </c>
       <c r="E43" t="n">
-        <v>0.5910780669144982</v>
+        <v>0.5287569573283859</v>
       </c>
     </row>
     <row r="44">
@@ -1179,16 +1179,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.1378381745341946</v>
+        <v>0.1426660909372217</v>
       </c>
       <c r="C44" t="n">
-        <v>0.1355996628602346</v>
+        <v>0.1393064699239201</v>
       </c>
       <c r="D44" t="n">
-        <v>0.494199535962877</v>
+        <v>0.5204271123491179</v>
       </c>
       <c r="E44" t="n">
-        <v>0.587360594795539</v>
+        <v>0.5287569573283859</v>
       </c>
     </row>
     <row r="45">
@@ -1196,16 +1196,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.1391460295109188</v>
+        <v>0.1413640130092116</v>
       </c>
       <c r="C45" t="n">
-        <v>0.1355158529347844</v>
+        <v>0.1391764879226685</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5002320185614849</v>
+        <v>0.5092850510677809</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5929368029739777</v>
+        <v>0.5324675324675324</v>
       </c>
     </row>
     <row r="46">
@@ -1213,16 +1213,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.137889957822421</v>
+        <v>0.1408242092413061</v>
       </c>
       <c r="C46" t="n">
-        <v>0.1352478812138239</v>
+        <v>0.1395024723476834</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4863109048723898</v>
+        <v>0.5060352831940576</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5929368029739777</v>
+        <v>0.5269016697588126</v>
       </c>
     </row>
     <row r="47">
@@ -1230,16 +1230,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.1377520896494389</v>
+        <v>0.1435642474714448</v>
       </c>
       <c r="C47" t="n">
-        <v>0.1346698742773798</v>
+        <v>0.1386298967732323</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4863109048723898</v>
+        <v>0.4870009285051068</v>
       </c>
       <c r="E47" t="n">
-        <v>0.5910780669144982</v>
+        <v>0.5361781076066791</v>
       </c>
     </row>
     <row r="48">
@@ -1247,16 +1247,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.1357665219727685</v>
+        <v>0.1406040423933198</v>
       </c>
       <c r="C48" t="n">
-        <v>0.1350807646910349</v>
+        <v>0.1389096420672205</v>
       </c>
       <c r="D48" t="n">
-        <v>0.505800464037123</v>
+        <v>0.5069637883008357</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5780669144981413</v>
+        <v>0.5324675324675324</v>
       </c>
     </row>
     <row r="49">
@@ -1264,16 +1264,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.1370049844331601</v>
+        <v>0.141973944271312</v>
       </c>
       <c r="C49" t="n">
-        <v>0.1360817957255575</v>
+        <v>0.1386583223938942</v>
       </c>
       <c r="D49" t="n">
-        <v>0.4932714617169374</v>
+        <v>0.5041782729805014</v>
       </c>
       <c r="E49" t="n">
-        <v>0.5836431226765799</v>
+        <v>0.5287569573283859</v>
       </c>
     </row>
     <row r="50">
@@ -1281,16 +1281,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.1372333127347862</v>
+        <v>0.1403058642411933</v>
       </c>
       <c r="C50" t="n">
-        <v>0.1351710855960846</v>
+        <v>0.1384453665879038</v>
       </c>
       <c r="D50" t="n">
-        <v>0.4997679814385151</v>
+        <v>0.5134633240482822</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5910780669144982</v>
+        <v>0.5306122448979592</v>
       </c>
     </row>
     <row r="51">
@@ -1298,16 +1298,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.1348746857222389</v>
+        <v>0.1415440516875071</v>
       </c>
       <c r="C51" t="n">
-        <v>0.1348256824745072</v>
+        <v>0.138397285507785</v>
       </c>
       <c r="D51" t="n">
-        <v>0.5155452436194896</v>
+        <v>0.5078922934076138</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5929368029739777</v>
+        <v>0.5343228200371057</v>
       </c>
     </row>
     <row r="52">
@@ -1315,16 +1315,16 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.1369102018720963</v>
+        <v>0.1397086822373026</v>
       </c>
       <c r="C52" t="n">
-        <v>0.134787196914355</v>
+        <v>0.1382868281669087</v>
       </c>
       <c r="D52" t="n">
-        <v>0.505800464037123</v>
+        <v>0.5176415970287837</v>
       </c>
       <c r="E52" t="n">
-        <v>0.5892193308550185</v>
+        <v>0.5398886827458256</v>
       </c>
     </row>
     <row r="53">
@@ -1332,16 +1332,16 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.1371937238556497</v>
+        <v>0.1402613454881836</v>
       </c>
       <c r="C53" t="n">
-        <v>0.1347314632601208</v>
+        <v>0.1382623116175334</v>
       </c>
       <c r="D53" t="n">
-        <v>0.505800464037123</v>
+        <v>0.5167130919220055</v>
       </c>
       <c r="E53" t="n">
-        <v>0.5910780669144982</v>
+        <v>0.5343228200371057</v>
       </c>
     </row>
     <row r="54">
@@ -1349,16 +1349,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.1339682741638492</v>
+        <v>0.1397887365344693</v>
       </c>
       <c r="C54" t="n">
-        <v>0.1344941945539581</v>
+        <v>0.1383935726351208</v>
       </c>
       <c r="D54" t="n">
-        <v>0.5192575406032482</v>
+        <v>0.5259981429897864</v>
       </c>
       <c r="E54" t="n">
-        <v>0.5892193308550185</v>
+        <v>0.5361781076066791</v>
       </c>
     </row>
     <row r="55">
@@ -1366,16 +1366,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.1339992376811364</v>
+        <v>0.1398175729109961</v>
       </c>
       <c r="C55" t="n">
-        <v>0.1339941802952025</v>
+        <v>0.1381275372372733</v>
       </c>
       <c r="D55" t="n">
-        <v>0.5211136890951276</v>
+        <v>0.5297121634168988</v>
       </c>
       <c r="E55" t="n">
-        <v>0.5892193308550185</v>
+        <v>0.5269016697588126</v>
       </c>
     </row>
     <row r="56">
@@ -1383,16 +1383,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.1364136596812922</v>
+        <v>0.1398306464885964</v>
       </c>
       <c r="C56" t="n">
-        <v>0.1344518562157949</v>
+        <v>0.1376202586624357</v>
       </c>
       <c r="D56" t="n">
-        <v>0.5187935034802784</v>
+        <v>0.5171773444753947</v>
       </c>
       <c r="E56" t="n">
-        <v>0.5966542750929368</v>
+        <v>0.5528756957328386</v>
       </c>
     </row>
     <row r="57">
@@ -1400,16 +1400,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.1365130832966636</v>
+        <v>0.1401269488474902</v>
       </c>
       <c r="C57" t="n">
-        <v>0.1344330600566334</v>
+        <v>0.1376514674888717</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5136890951276102</v>
+        <v>0.521355617455896</v>
       </c>
       <c r="E57" t="n">
-        <v>0.5966542750929368</v>
+        <v>0.5417439703153989</v>
       </c>
     </row>
     <row r="58">
@@ -1417,16 +1417,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.1351377304424258</v>
+        <v>0.1391824525507057</v>
       </c>
       <c r="C58" t="n">
-        <v>0.1336673373977343</v>
+        <v>0.1374875845180618</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5243619489559165</v>
+        <v>0.5167130919220055</v>
       </c>
       <c r="E58" t="n">
-        <v>0.5929368029739777</v>
+        <v>0.549165120593692</v>
       </c>
     </row>
     <row r="59">
@@ -1434,16 +1434,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.1347502474399174</v>
+        <v>0.1384028998367927</v>
       </c>
       <c r="C59" t="n">
-        <v>0.1342228005329768</v>
+        <v>0.1376532249980503</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5201856148491879</v>
+        <v>0.5506035283194057</v>
       </c>
       <c r="E59" t="n">
-        <v>0.5929368029739777</v>
+        <v>0.5306122448979592</v>
       </c>
     </row>
     <row r="60">
@@ -1451,16 +1451,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.1334998406031553</v>
+        <v>0.1402517274460372</v>
       </c>
       <c r="C60" t="n">
-        <v>0.1333752787775463</v>
+        <v>0.137603814403216</v>
       </c>
       <c r="D60" t="n">
-        <v>0.5271461716937355</v>
+        <v>0.5278551532033426</v>
       </c>
       <c r="E60" t="n">
-        <v>0.6003717472118959</v>
+        <v>0.5398886827458256</v>
       </c>
     </row>
     <row r="61">
@@ -1468,16 +1468,16 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1332606914288857</v>
+        <v>0.1382773281896816</v>
       </c>
       <c r="C61" t="n">
-        <v>0.1334638347228368</v>
+        <v>0.1375077093640963</v>
       </c>
       <c r="D61" t="n">
-        <v>0.5155452436194896</v>
+        <v>0.5366759517177344</v>
       </c>
       <c r="E61" t="n">
-        <v>0.5947955390334573</v>
+        <v>0.5435992578849722</v>
       </c>
     </row>
     <row r="62">
@@ -1485,16 +1485,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.1340109510895084</v>
+        <v>0.1374554397428737</v>
       </c>
       <c r="C62" t="n">
-        <v>0.1336699773867925</v>
+        <v>0.1372616150312954</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5155452436194896</v>
+        <v>0.531104921077066</v>
       </c>
       <c r="E62" t="n">
-        <v>0.6003717472118959</v>
+        <v>0.5473098330241187</v>
       </c>
     </row>
     <row r="63">
@@ -1502,16 +1502,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.1348455276559381</v>
+        <v>0.1379362016039736</v>
       </c>
       <c r="C63" t="n">
-        <v>0.1330795221858554</v>
+        <v>0.1370544847514894</v>
       </c>
       <c r="D63" t="n">
-        <v>0.5160092807424594</v>
+        <v>0.5236768802228412</v>
       </c>
       <c r="E63" t="n">
-        <v>0.5985130111524164</v>
+        <v>0.5435992578849722</v>
       </c>
     </row>
     <row r="64">
@@ -1519,16 +1519,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.1329270820407306</v>
+        <v>0.1353538965477663</v>
       </c>
       <c r="C64" t="n">
-        <v>0.1332859463161892</v>
+        <v>0.1372199356555939</v>
       </c>
       <c r="D64" t="n">
-        <v>0.5433874709976798</v>
+        <v>0.542711234911792</v>
       </c>
       <c r="E64" t="n">
-        <v>0.6059479553903345</v>
+        <v>0.5417439703153989</v>
       </c>
     </row>
     <row r="65">
@@ -1536,16 +1536,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.1340477839112282</v>
+        <v>0.1352018705185722</v>
       </c>
       <c r="C65" t="n">
-        <v>0.1328544724318716</v>
+        <v>0.1369987461302015</v>
       </c>
       <c r="D65" t="n">
-        <v>0.5034802784222738</v>
+        <v>0.5445682451253482</v>
       </c>
       <c r="E65" t="n">
-        <v>0.6096654275092936</v>
+        <v>0.5473098330241187</v>
       </c>
     </row>
     <row r="66">
@@ -1553,16 +1553,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.1319133525385576</v>
+        <v>0.1362087321193779</v>
       </c>
       <c r="C66" t="n">
-        <v>0.1335712075233459</v>
+        <v>0.1370860098136796</v>
       </c>
       <c r="D66" t="n">
-        <v>0.5359628770301624</v>
+        <v>0.5445682451253482</v>
       </c>
       <c r="E66" t="n">
-        <v>0.5892193308550185</v>
+        <v>0.5398886827458256</v>
       </c>
     </row>
     <row r="67">
@@ -1570,16 +1570,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.1343277412302354</v>
+        <v>0.1357072740793228</v>
       </c>
       <c r="C67" t="n">
-        <v>0.1324521592921681</v>
+        <v>0.1368567215071784</v>
       </c>
       <c r="D67" t="n">
-        <v>0.5225058004640372</v>
+        <v>0.531569173630455</v>
       </c>
       <c r="E67" t="n">
-        <v>0.5985130111524164</v>
+        <v>0.5417439703153989</v>
       </c>
     </row>
     <row r="68">
@@ -1587,16 +1587,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.1341576256296214</v>
+        <v>0.13726557046175</v>
       </c>
       <c r="C68" t="n">
-        <v>0.1322926473286417</v>
+        <v>0.1371496841311455</v>
       </c>
       <c r="D68" t="n">
-        <v>0.5252900232018561</v>
+        <v>0.5380687093779016</v>
       </c>
       <c r="E68" t="n">
-        <v>0.5985130111524164</v>
+        <v>0.5361781076066791</v>
       </c>
     </row>
     <row r="69">
@@ -1604,16 +1604,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.1341235508375308</v>
+        <v>0.1373291716856115</v>
       </c>
       <c r="C69" t="n">
-        <v>0.1327131572696898</v>
+        <v>0.136928608847989</v>
       </c>
       <c r="D69" t="n">
-        <v>0.5336426914153132</v>
+        <v>0.5338904363974002</v>
       </c>
       <c r="E69" t="n">
-        <v>0.604089219330855</v>
+        <v>0.5435992578849722</v>
       </c>
     </row>
     <row r="70">
@@ -1621,16 +1621,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.1320189603549593</v>
+        <v>0.1361629590392113</v>
       </c>
       <c r="C70" t="n">
-        <v>0.1327002189225621</v>
+        <v>0.1367424668537246</v>
       </c>
       <c r="D70" t="n">
-        <v>0.5303944315545244</v>
+        <v>0.5348189415041783</v>
       </c>
       <c r="E70" t="n">
-        <v>0.6022304832713755</v>
+        <v>0.5417439703153989</v>
       </c>
     </row>
     <row r="71">
@@ -1638,16 +1638,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.1330607859965633</v>
+        <v>0.1350661408813561</v>
       </c>
       <c r="C71" t="n">
-        <v>0.132630983988444</v>
+        <v>0.136657554242346</v>
       </c>
       <c r="D71" t="n">
-        <v>0.5406032482598608</v>
+        <v>0.5454967502321263</v>
       </c>
       <c r="E71" t="n">
-        <v>0.5947955390334573</v>
+        <v>0.5435992578849722</v>
       </c>
     </row>
     <row r="72">
@@ -1655,16 +1655,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.132524719571366</v>
+        <v>0.1358139644212583</v>
       </c>
       <c r="C72" t="n">
-        <v>0.133057527244091</v>
+        <v>0.136981708308061</v>
       </c>
       <c r="D72" t="n">
-        <v>0.5378190255220417</v>
+        <v>0.5352831940575673</v>
       </c>
       <c r="E72" t="n">
-        <v>0.6078066914498141</v>
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="73">
@@ -1672,16 +1672,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.1321738180430496</v>
+        <v>0.135477703941219</v>
       </c>
       <c r="C73" t="n">
-        <v>0.1324806693527434</v>
+        <v>0.1366686738199658</v>
       </c>
       <c r="D73" t="n">
-        <v>0.5252900232018561</v>
+        <v>0.5547818012999072</v>
       </c>
       <c r="E73" t="n">
-        <v>0.604089219330855</v>
+        <v>0.5435992578849722</v>
       </c>
     </row>
     <row r="74">
@@ -1689,16 +1689,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.132151401218246</v>
+        <v>0.1369434783563894</v>
       </c>
       <c r="C74" t="n">
-        <v>0.1324985085262192</v>
+        <v>0.1362573876976967</v>
       </c>
       <c r="D74" t="n">
-        <v>0.5285382830626451</v>
+        <v>0.5362116991643454</v>
       </c>
       <c r="E74" t="n">
-        <v>0.604089219330855</v>
+        <v>0.5510204081632653</v>
       </c>
     </row>
     <row r="75">
@@ -1706,16 +1706,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.1309201410588096</v>
+        <v>0.1358340792357922</v>
       </c>
       <c r="C75" t="n">
-        <v>0.1322542395856645</v>
+        <v>0.1364700082275603</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5438515081206496</v>
+        <v>0.5478180129990715</v>
       </c>
       <c r="E75" t="n">
-        <v>0.604089219330855</v>
+        <v>0.5510204081632653</v>
       </c>
     </row>
     <row r="76">
@@ -1723,16 +1723,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.1318805579315214</v>
+        <v>0.1359658780343392</v>
       </c>
       <c r="C76" t="n">
-        <v>0.1318742061654727</v>
+        <v>0.1363439667556021</v>
       </c>
       <c r="D76" t="n">
-        <v>0.5373549883990719</v>
+        <v>0.5376044568245125</v>
       </c>
       <c r="E76" t="n">
-        <v>0.604089219330855</v>
+        <v>0.5473098330241187</v>
       </c>
     </row>
     <row r="77">
@@ -1740,16 +1740,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.1312402640195454</v>
+        <v>0.13625918372589</v>
       </c>
       <c r="C77" t="n">
-        <v>0.1316230388151275</v>
+        <v>0.1359874217046632</v>
       </c>
       <c r="D77" t="n">
-        <v>0.5531322505800464</v>
+        <v>0.5482822655524605</v>
       </c>
       <c r="E77" t="n">
-        <v>0.6059479553903345</v>
+        <v>0.5528756957328386</v>
       </c>
     </row>
     <row r="78">
@@ -1757,16 +1757,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.1305212139645044</v>
+        <v>0.133358549545793</v>
       </c>
       <c r="C78" t="n">
-        <v>0.1315073263314035</v>
+        <v>0.1361204261581103</v>
       </c>
       <c r="D78" t="n">
-        <v>0.5559164733178654</v>
+        <v>0.5515320334261838</v>
       </c>
       <c r="E78" t="n">
-        <v>0.604089219330855</v>
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="79">
@@ -1774,16 +1774,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.1312331020393792</v>
+        <v>0.1347960693871274</v>
       </c>
       <c r="C79" t="n">
-        <v>0.1320689982838101</v>
+        <v>0.1364322478572527</v>
       </c>
       <c r="D79" t="n">
-        <v>0.5494199535962877</v>
+        <v>0.5571030640668524</v>
       </c>
       <c r="E79" t="n">
-        <v>0.6059479553903345</v>
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="80">
@@ -1791,16 +1791,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.1303969198728309</v>
+        <v>0.1343971872154404</v>
       </c>
       <c r="C80" t="n">
-        <v>0.132053688996368</v>
+        <v>0.1367101677589946</v>
       </c>
       <c r="D80" t="n">
-        <v>0.5303944315545244</v>
+        <v>0.5584958217270195</v>
       </c>
       <c r="E80" t="n">
-        <v>0.6078066914498141</v>
+        <v>0.5435992578849722</v>
       </c>
     </row>
     <row r="81">
@@ -1808,16 +1808,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.1314960220719085</v>
+        <v>0.1347968170748037</v>
       </c>
       <c r="C81" t="n">
-        <v>0.1322512287232611</v>
+        <v>0.1357606773575147</v>
       </c>
       <c r="D81" t="n">
-        <v>0.5364269141531323</v>
+        <v>0.5598885793871866</v>
       </c>
       <c r="E81" t="n">
-        <v>0.6115241635687733</v>
+        <v>0.5510204081632653</v>
       </c>
     </row>
     <row r="82">
@@ -1825,16 +1825,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.1302621268174227</v>
+        <v>0.134632260483854</v>
       </c>
       <c r="C82" t="n">
-        <v>0.1313123189740711</v>
+        <v>0.1360284644696448</v>
       </c>
       <c r="D82" t="n">
-        <v>0.5498839907192575</v>
+        <v>0.5608170844939647</v>
       </c>
       <c r="E82" t="n">
-        <v>0.6078066914498141</v>
+        <v>0.5473098330241187</v>
       </c>
     </row>
     <row r="83">
@@ -1842,16 +1842,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.1305349357426167</v>
+        <v>0.1334864306537544</v>
       </c>
       <c r="C83" t="n">
-        <v>0.1313418423136075</v>
+        <v>0.1358429110712475</v>
       </c>
       <c r="D83" t="n">
-        <v>0.5531322505800464</v>
+        <v>0.5408542246982359</v>
       </c>
       <c r="E83" t="n">
-        <v>0.5985130111524164</v>
+        <v>0.5473098330241187</v>
       </c>
     </row>
     <row r="84">
@@ -1859,16 +1859,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.1306942578624277</v>
+        <v>0.1336880192598876</v>
       </c>
       <c r="C84" t="n">
-        <v>0.1316240173247125</v>
+        <v>0.1359126857585377</v>
       </c>
       <c r="D84" t="n">
-        <v>0.5317865429234339</v>
+        <v>0.5538532961931291</v>
       </c>
       <c r="E84" t="n">
-        <v>0.6022304832713755</v>
+        <v>0.5473098330241187</v>
       </c>
     </row>
     <row r="85">
@@ -1876,16 +1876,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.1294214521699092</v>
+        <v>0.1337412271429511</v>
       </c>
       <c r="C85" t="n">
-        <v>0.1308497107691235</v>
+        <v>0.1361137396759457</v>
       </c>
       <c r="D85" t="n">
-        <v>0.5498839907192575</v>
+        <v>0.5557103064066853</v>
       </c>
       <c r="E85" t="n">
-        <v>0.6022304832713755</v>
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="86">
@@ -1893,16 +1893,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.1308136832188158</v>
+        <v>0.1325666873770601</v>
       </c>
       <c r="C86" t="n">
-        <v>0.1310150888231066</v>
+        <v>0.135739697350396</v>
       </c>
       <c r="D86" t="n">
-        <v>0.5461716937354988</v>
+        <v>0.5482822655524605</v>
       </c>
       <c r="E86" t="n">
-        <v>0.604089219330855</v>
+        <v>0.5361781076066791</v>
       </c>
     </row>
     <row r="87">
@@ -1910,16 +1910,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.1307242819491555</v>
+        <v>0.1333896116737057</v>
       </c>
       <c r="C87" t="n">
-        <v>0.1310624364349577</v>
+        <v>0.1351226816574732</v>
       </c>
       <c r="D87" t="n">
-        <v>0.5545243619489559</v>
+        <v>0.5673166202414113</v>
       </c>
       <c r="E87" t="n">
-        <v>0.604089219330855</v>
+        <v>0.5528756957328386</v>
       </c>
     </row>
     <row r="88">
@@ -1927,16 +1927,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.1304837265873657</v>
+        <v>0.133589613087037</v>
       </c>
       <c r="C88" t="n">
-        <v>0.1309684365987778</v>
+        <v>0.135583666463693</v>
       </c>
       <c r="D88" t="n">
-        <v>0.5447795823665893</v>
+        <v>0.5571030640668524</v>
       </c>
       <c r="E88" t="n">
-        <v>0.6078066914498141</v>
+        <v>0.5435992578849722</v>
       </c>
     </row>
     <row r="89">
@@ -1944,16 +1944,16 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.1284381602616871</v>
+        <v>0.1324247831807417</v>
       </c>
       <c r="C89" t="n">
-        <v>0.1308460798528459</v>
+        <v>0.1351047390037113</v>
       </c>
       <c r="D89" t="n">
-        <v>0.5614849187935035</v>
+        <v>0.5608170844939647</v>
       </c>
       <c r="E89" t="n">
-        <v>0.6115241635687733</v>
+        <v>0.5602968460111317</v>
       </c>
     </row>
     <row r="90">
@@ -1961,16 +1961,16 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.1287121069343651</v>
+        <v>0.1335100159049034</v>
       </c>
       <c r="C90" t="n">
-        <v>0.1301195389694638</v>
+        <v>0.1355628305011325</v>
       </c>
       <c r="D90" t="n">
-        <v>0.5693735498839907</v>
+        <v>0.552924791086351</v>
       </c>
       <c r="E90" t="n">
-        <v>0.6096654275092936</v>
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="91">
@@ -1978,16 +1978,16 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.1308851513792487</v>
+        <v>0.1322162878863952</v>
       </c>
       <c r="C91" t="n">
-        <v>0.1306249863571591</v>
+        <v>0.1352483688129319</v>
       </c>
       <c r="D91" t="n">
-        <v>0.5498839907192575</v>
+        <v>0.5636025998142989</v>
       </c>
       <c r="E91" t="n">
-        <v>0.604089219330855</v>
+        <v>0.5528756957328386</v>
       </c>
     </row>
     <row r="92">
@@ -1995,16 +1995,16 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.1292984244578025</v>
+        <v>0.1321170362917816</v>
       </c>
       <c r="C92" t="n">
-        <v>0.13065222154061</v>
+        <v>0.1350033995178011</v>
       </c>
       <c r="D92" t="n">
-        <v>0.5605568445475638</v>
+        <v>0.5575673166202414</v>
       </c>
       <c r="E92" t="n">
-        <v>0.6133828996282528</v>
+        <v>0.5584415584415584</v>
       </c>
     </row>
     <row r="93">
@@ -2012,16 +2012,16 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.1283556266742594</v>
+        <v>0.1319501921534538</v>
       </c>
       <c r="C93" t="n">
-        <v>0.1303957750399908</v>
+        <v>0.1354560802380244</v>
       </c>
       <c r="D93" t="n">
-        <v>0.568445475638051</v>
+        <v>0.5668523676880223</v>
       </c>
       <c r="E93" t="n">
-        <v>0.6133828996282528</v>
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="94">
@@ -2029,16 +2029,16 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.1298609472372953</v>
+        <v>0.1322755901252522</v>
       </c>
       <c r="C94" t="n">
-        <v>0.1307875232564079</v>
+        <v>0.1350777629348967</v>
       </c>
       <c r="D94" t="n">
-        <v>0.548491879350348</v>
+        <v>0.5636025998142989</v>
       </c>
       <c r="E94" t="n">
-        <v>0.6059479553903345</v>
+        <v>0.5510204081632653</v>
       </c>
     </row>
     <row r="95">
@@ -2046,16 +2046,16 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.127928620971301</v>
+        <v>0.1323033369639341</v>
       </c>
       <c r="C95" t="n">
-        <v>0.1309223522742589</v>
+        <v>0.1351781710982323</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5545243619489559</v>
+        <v>0.5575673166202414</v>
       </c>
       <c r="E95" t="n">
-        <v>0.6059479553903345</v>
+        <v>0.5528756957328386</v>
       </c>
     </row>
     <row r="96">
@@ -2063,16 +2063,16 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.1285746599383214</v>
+        <v>0.1317065730690956</v>
       </c>
       <c r="C96" t="n">
-        <v>0.1304567000932164</v>
+        <v>0.1351888014210595</v>
       </c>
       <c r="D96" t="n">
-        <v>0.5624129930394431</v>
+        <v>0.5668523676880223</v>
       </c>
       <c r="E96" t="n">
-        <v>0.6133828996282528</v>
+        <v>0.5547309833024119</v>
       </c>
     </row>
     <row r="97">
@@ -2080,16 +2080,16 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.1284691908341997</v>
+        <v>0.131706602871418</v>
       </c>
       <c r="C97" t="n">
-        <v>0.1306193760699696</v>
+        <v>0.1349901838435067</v>
       </c>
       <c r="D97" t="n">
-        <v>0.5656612529002321</v>
+        <v>0.5552460538532962</v>
       </c>
       <c r="E97" t="n">
-        <v>0.6115241635687733</v>
+        <v>0.549165120593692</v>
       </c>
     </row>
     <row r="98">
@@ -2097,16 +2097,16 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.1287412365131518</v>
+        <v>0.1313608922064304</v>
       </c>
       <c r="C98" t="n">
-        <v>0.1299396231770515</v>
+        <v>0.1347910546594196</v>
       </c>
       <c r="D98" t="n">
-        <v>0.5577726218097447</v>
+        <v>0.5687093779015785</v>
       </c>
       <c r="E98" t="n">
-        <v>0.6133828996282528</v>
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="99">
@@ -2114,16 +2114,16 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.1278308976222487</v>
+        <v>0.1331852786242962</v>
       </c>
       <c r="C99" t="n">
-        <v>0.1302302877108256</v>
+        <v>0.1355326821406682</v>
       </c>
       <c r="D99" t="n">
-        <v>0.5577726218097447</v>
+        <v>0.5436397400185701</v>
       </c>
       <c r="E99" t="n">
-        <v>0.6115241635687733</v>
+        <v>0.5473098330241187</v>
       </c>
     </row>
     <row r="100">
@@ -2131,16 +2131,16 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.1281958180753624</v>
+        <v>0.1330778688630637</v>
       </c>
       <c r="C100" t="n">
-        <v>0.1300371173355314</v>
+        <v>0.1350169546074337</v>
       </c>
       <c r="D100" t="n">
-        <v>0.5638051044083526</v>
+        <v>0.5594243268337976</v>
       </c>
       <c r="E100" t="n">
-        <v>0.6152416356877324</v>
+        <v>0.5473098330241187</v>
       </c>
     </row>
     <row r="101">
@@ -2148,16 +2148,16 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.1275648779290564</v>
+        <v>0.13129868467941</v>
       </c>
       <c r="C101" t="n">
-        <v>0.1291302699181769</v>
+        <v>0.1350934993889597</v>
       </c>
       <c r="D101" t="n">
-        <v>0.5698375870069605</v>
+        <v>0.5766016713091922</v>
       </c>
       <c r="E101" t="n">
-        <v>0.6133828996282528</v>
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="102">
@@ -2165,16 +2165,16 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.1275663136997644</v>
+        <v>0.1303638101500623</v>
       </c>
       <c r="C102" t="n">
-        <v>0.129068474802706</v>
+        <v>0.135550893843174</v>
       </c>
       <c r="D102" t="n">
-        <v>0.5624129930394431</v>
+        <v>0.5714948932219127</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6152416356877324</v>
+        <v>0.5417439703153989</v>
       </c>
     </row>
     <row r="103">
@@ -2182,16 +2182,16 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.1273609597016783</v>
+        <v>0.130552881561658</v>
       </c>
       <c r="C103" t="n">
-        <v>0.1286249897546238</v>
+        <v>0.135099235508177</v>
       </c>
       <c r="D103" t="n">
-        <v>0.5494199535962877</v>
+        <v>0.5724233983286908</v>
       </c>
       <c r="E103" t="n">
-        <v>0.604089219330855</v>
+        <v>0.5435992578849722</v>
       </c>
     </row>
     <row r="104">
@@ -2199,16 +2199,16 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.1269615367054939</v>
+        <v>0.131432856707012</v>
       </c>
       <c r="C104" t="n">
-        <v>0.1294140981303321</v>
+        <v>0.1347511369321081</v>
       </c>
       <c r="D104" t="n">
-        <v>0.5679814385150812</v>
+        <v>0.5622098421541318</v>
       </c>
       <c r="E104" t="n">
-        <v>0.6133828996282528</v>
+        <v>0.5547309833024119</v>
       </c>
     </row>
     <row r="105">
@@ -2216,16 +2216,16 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.1269378629239167</v>
+        <v>0.1291371128138374</v>
       </c>
       <c r="C105" t="n">
-        <v>0.1295089407099618</v>
+        <v>0.1351508233282301</v>
       </c>
       <c r="D105" t="n">
-        <v>0.5661252900232019</v>
+        <v>0.5807799442896936</v>
       </c>
       <c r="E105" t="n">
-        <v>0.6059479553903345</v>
+        <v>0.5361781076066791</v>
       </c>
     </row>
     <row r="106">
@@ -2233,16 +2233,16 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.1255886896568186</v>
+        <v>0.1310934345511829</v>
       </c>
       <c r="C106" t="n">
-        <v>0.1290702993671099</v>
+        <v>0.1348156150844362</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5758700696055684</v>
+        <v>0.5598885793871866</v>
       </c>
       <c r="E106" t="n">
-        <v>0.5985130111524164</v>
+        <v>0.5398886827458256</v>
       </c>
     </row>
     <row r="107">
@@ -2250,16 +2250,16 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.1261137005160837</v>
+        <v>0.1286472564234453</v>
       </c>
       <c r="C107" t="n">
-        <v>0.1289564735359616</v>
+        <v>0.1352286098731889</v>
       </c>
       <c r="D107" t="n">
-        <v>0.5573085846867749</v>
+        <v>0.584958217270195</v>
       </c>
       <c r="E107" t="n">
-        <v>0.604089219330855</v>
+        <v>0.5361781076066791</v>
       </c>
     </row>
     <row r="108">
@@ -2267,16 +2267,16 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.1266571581363678</v>
+        <v>0.1301193015978617</v>
       </c>
       <c r="C108" t="n">
-        <v>0.1287786546680662</v>
+        <v>0.1346595187981924</v>
       </c>
       <c r="D108" t="n">
-        <v>0.5744779582366589</v>
+        <v>0.5701021355617456</v>
       </c>
       <c r="E108" t="n">
-        <v>0.6115241635687733</v>
+        <v>0.549165120593692</v>
       </c>
     </row>
     <row r="109">
@@ -2284,16 +2284,16 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.1259159309899106</v>
+        <v>0.1293815448880196</v>
       </c>
       <c r="C109" t="n">
-        <v>0.1287382104330593</v>
+        <v>0.1349606745772892</v>
       </c>
       <c r="D109" t="n">
-        <v>0.5531322505800464</v>
+        <v>0.5608170844939647</v>
       </c>
       <c r="E109" t="n">
-        <v>0.6096654275092936</v>
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="110">
@@ -2301,16 +2301,16 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.1262488608412883</v>
+        <v>0.1279358664417968</v>
       </c>
       <c r="C110" t="n">
-        <v>0.1289521679282188</v>
+        <v>0.1349230292770598</v>
       </c>
       <c r="D110" t="n">
-        <v>0.5763341067285382</v>
+        <v>0.5766016713091922</v>
       </c>
       <c r="E110" t="n">
-        <v>0.6115241635687733</v>
+        <v>0.5435992578849722</v>
       </c>
     </row>
     <row r="111">
@@ -2318,16 +2318,16 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.1263415589928627</v>
+        <v>0.1290747269111521</v>
       </c>
       <c r="C111" t="n">
-        <v>0.1287063890033298</v>
+        <v>0.1343315127823088</v>
       </c>
       <c r="D111" t="n">
-        <v>0.5679814385150812</v>
+        <v>0.585886722376973</v>
       </c>
       <c r="E111" t="n">
-        <v>0.6022304832713755</v>
+        <v>0.5473098330241187</v>
       </c>
     </row>
     <row r="112">
@@ -2335,16 +2335,16 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.1247188192518318</v>
+        <v>0.1300662898403757</v>
       </c>
       <c r="C112" t="n">
-        <v>0.1288290296991666</v>
+        <v>0.1347082017196549</v>
       </c>
       <c r="D112" t="n">
-        <v>0.5698375870069605</v>
+        <v>0.5724233983286908</v>
       </c>
       <c r="E112" t="n">
-        <v>0.5985130111524164</v>
+        <v>0.5473098330241187</v>
       </c>
     </row>
     <row r="113">
@@ -2352,16 +2352,16 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.1258007158689639</v>
+        <v>0.1278986720477834</v>
       </c>
       <c r="C113" t="n">
-        <v>0.128435658911864</v>
+        <v>0.135035833550824</v>
       </c>
       <c r="D113" t="n">
-        <v>0.5587006960556845</v>
+        <v>0.5714948932219127</v>
       </c>
       <c r="E113" t="n">
-        <v>0.604089219330855</v>
+        <v>0.5398886827458256</v>
       </c>
     </row>
     <row r="114">
@@ -2369,16 +2369,16 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.12533765045159</v>
+        <v>0.1279215089538518</v>
       </c>
       <c r="C114" t="n">
-        <v>0.1287057275573412</v>
+        <v>0.1348138716485765</v>
       </c>
       <c r="D114" t="n">
-        <v>0.5781902552204177</v>
+        <v>0.575208913649025</v>
       </c>
       <c r="E114" t="n">
-        <v>0.604089219330855</v>
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="115">
@@ -2386,16 +2386,16 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.1250539989594151</v>
+        <v>0.1316428653457586</v>
       </c>
       <c r="C115" t="n">
-        <v>0.1286532754699389</v>
+        <v>0.1352746668789122</v>
       </c>
       <c r="D115" t="n">
-        <v>0.5679814385150812</v>
+        <v>0.5571030640668524</v>
       </c>
       <c r="E115" t="n">
-        <v>0.5966542750929368</v>
+        <v>0.5435992578849722</v>
       </c>
     </row>
     <row r="116">
@@ -2403,16 +2403,16 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.125150908880374</v>
+        <v>0.1276250810307615</v>
       </c>
       <c r="C116" t="n">
-        <v>0.1287131160497665</v>
+        <v>0.1345825708574719</v>
       </c>
       <c r="D116" t="n">
-        <v>0.568445475638051</v>
+        <v>0.5803156917363046</v>
       </c>
       <c r="E116" t="n">
-        <v>0.604089219330855</v>
+        <v>0.5510204081632653</v>
       </c>
     </row>
     <row r="117">
@@ -2420,16 +2420,16 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.1252054670716033</v>
+        <v>0.1294218895628172</v>
       </c>
       <c r="C117" t="n">
-        <v>0.1286923984686534</v>
+        <v>0.1347851165466838</v>
       </c>
       <c r="D117" t="n">
-        <v>0.5740139211136891</v>
+        <v>0.5770659238625813</v>
       </c>
       <c r="E117" t="n">
-        <v>0.5985130111524164</v>
+        <v>0.5473098330241187</v>
       </c>
     </row>
     <row r="118">
@@ -2437,16 +2437,16 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.12593683381291</v>
+        <v>0.1281691778670339</v>
       </c>
       <c r="C118" t="n">
-        <v>0.1283787356482612</v>
+        <v>0.1344233676791191</v>
       </c>
       <c r="D118" t="n">
-        <v>0.5749419953596288</v>
+        <v>0.5668523676880223</v>
       </c>
       <c r="E118" t="n">
-        <v>0.5966542750929368</v>
+        <v>0.549165120593692</v>
       </c>
     </row>
     <row r="119">
@@ -2454,16 +2454,16 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.1235541990574668</v>
+        <v>0.1286984162733835</v>
       </c>
       <c r="C119" t="n">
-        <v>0.1275731714235412</v>
+        <v>0.1349716261029243</v>
       </c>
       <c r="D119" t="n">
-        <v>0.5703016241299304</v>
+        <v>0.5696378830083565</v>
       </c>
       <c r="E119" t="n">
-        <v>0.604089219330855</v>
+        <v>0.5435992578849722</v>
       </c>
     </row>
     <row r="120">
@@ -2471,16 +2471,16 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.1264383514576098</v>
+        <v>0.1281635138918372</v>
       </c>
       <c r="C120" t="n">
-        <v>0.1276306096050474</v>
+        <v>0.1344277767671479</v>
       </c>
       <c r="D120" t="n">
-        <v>0.5647331786542923</v>
+        <v>0.5738161559888579</v>
       </c>
       <c r="E120" t="n">
-        <v>0.6003717472118959</v>
+        <v>0.549165120593692</v>
       </c>
     </row>
     <row r="121">
@@ -2488,16 +2488,16 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.1249443312339923</v>
+        <v>0.1287906693623346</v>
       </c>
       <c r="C121" t="n">
-        <v>0.1279975482159191</v>
+        <v>0.1346027246779866</v>
       </c>
       <c r="D121" t="n">
-        <v>0.5651972157772622</v>
+        <v>0.5789229340761374</v>
       </c>
       <c r="E121" t="n">
-        <v>0.6003717472118959</v>
+        <v>0.549165120593692</v>
       </c>
     </row>
     <row r="122">
@@ -2505,16 +2505,16 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.1245056403910413</v>
+        <v>0.1277944964959341</v>
       </c>
       <c r="C122" t="n">
-        <v>0.127717605067624</v>
+        <v>0.1349670506185955</v>
       </c>
       <c r="D122" t="n">
-        <v>0.5814385150812065</v>
+        <v>0.5812441968430826</v>
       </c>
       <c r="E122" t="n">
-        <v>0.5929368029739777</v>
+        <v>0.549165120593692</v>
       </c>
     </row>
     <row r="123">
@@ -2522,16 +2522,16 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0.1253737921223921</v>
+        <v>0.12746893263915</v>
       </c>
       <c r="C123" t="n">
-        <v>0.1277576237916946</v>
+        <v>0.134431724747022</v>
       </c>
       <c r="D123" t="n">
-        <v>0.5851508120649652</v>
+        <v>0.5779944289693594</v>
       </c>
       <c r="E123" t="n">
-        <v>0.6003717472118959</v>
+        <v>0.5528756957328386</v>
       </c>
     </row>
     <row r="124">
@@ -2539,16 +2539,16 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.1227622319232015</v>
+        <v>0.1279081036062802</v>
       </c>
       <c r="C124" t="n">
-        <v>0.1279560137126181</v>
+        <v>0.1347689007719358</v>
       </c>
       <c r="D124" t="n">
-        <v>0.6023201856148492</v>
+        <v>0.5821727019498607</v>
       </c>
       <c r="E124" t="n">
-        <v>0.6059479553903345</v>
+        <v>0.5528756957328386</v>
       </c>
     </row>
     <row r="125">
@@ -2556,16 +2556,16 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.1245873537571991</v>
+        <v>0.1284294779248097</v>
       </c>
       <c r="C125" t="n">
-        <v>0.1283197411232525</v>
+        <v>0.1349905191196336</v>
       </c>
       <c r="D125" t="n">
-        <v>0.5740139211136891</v>
+        <v>0.5756731662024142</v>
       </c>
       <c r="E125" t="n">
-        <v>0.604089219330855</v>
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="126">
@@ -2573,16 +2573,16 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.1245453221833005</v>
+        <v>0.1273655448766316</v>
       </c>
       <c r="C126" t="n">
-        <v>0.1280964803364542</v>
+        <v>0.1345964438385434</v>
       </c>
       <c r="D126" t="n">
-        <v>0.5614849187935035</v>
+        <v>0.5775301764159703</v>
       </c>
       <c r="E126" t="n">
-        <v>0.5929368029739777</v>
+        <v>0.5584415584415584</v>
       </c>
     </row>
     <row r="127">
@@ -2590,16 +2590,16 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.1232581480461008</v>
+        <v>0.1280156198669882</v>
       </c>
       <c r="C127" t="n">
-        <v>0.1274830169147915</v>
+        <v>0.1341955463091532</v>
       </c>
       <c r="D127" t="n">
-        <v>0.5781902552204177</v>
+        <v>0.5761374187558032</v>
       </c>
       <c r="E127" t="n">
-        <v>0.5966542750929368</v>
+        <v>0.5528756957328386</v>
       </c>
     </row>
     <row r="128">
@@ -2607,16 +2607,16 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0.1256000640637734</v>
+        <v>0.1257399984580629</v>
       </c>
       <c r="C128" t="n">
-        <v>0.1277562023864852</v>
+        <v>0.1343225265542666</v>
       </c>
       <c r="D128" t="n">
-        <v>0.582830626450116</v>
+        <v>0.596100278551532</v>
       </c>
       <c r="E128" t="n">
-        <v>0.5966542750929368</v>
+        <v>0.5528756957328386</v>
       </c>
     </row>
     <row r="129">
@@ -2624,16 +2624,16 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>0.1232995982555782</v>
+        <v>0.1265749041648472</v>
       </c>
       <c r="C129" t="n">
-        <v>0.1279884725809097</v>
+        <v>0.1343856602907181</v>
       </c>
       <c r="D129" t="n">
-        <v>0.5832946635730858</v>
+        <v>0.5896007428040855</v>
       </c>
       <c r="E129" t="n">
-        <v>0.6003717472118959</v>
+        <v>0.5528756957328386</v>
       </c>
     </row>
     <row r="130">
@@ -2641,16 +2641,16 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>0.1237279667573817</v>
+        <v>0.1273713313481387</v>
       </c>
       <c r="C130" t="n">
-        <v>0.1281983430186907</v>
+        <v>0.1344325757688946</v>
       </c>
       <c r="D130" t="n">
-        <v>0.5846867749419954</v>
+        <v>0.585422469823584</v>
       </c>
       <c r="E130" t="n">
-        <v>0.5966542750929368</v>
+        <v>0.5584415584415584</v>
       </c>
     </row>
     <row r="131">
@@ -2658,16 +2658,16 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0.1237439692896955</v>
+        <v>0.1248146310886916</v>
       </c>
       <c r="C131" t="n">
-        <v>0.1281926052437888</v>
+        <v>0.1346750557422638</v>
       </c>
       <c r="D131" t="n">
-        <v>0.57169373549884</v>
+        <v>0.5840297121634169</v>
       </c>
       <c r="E131" t="n">
-        <v>0.5985130111524164</v>
+        <v>0.5584415584415584</v>
       </c>
     </row>
     <row r="132">
@@ -2675,16 +2675,16 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>0.122403732555754</v>
+        <v>0.1261616627521375</v>
       </c>
       <c r="C132" t="n">
-        <v>0.1282754126522276</v>
+        <v>0.1344409154521095</v>
       </c>
       <c r="D132" t="n">
-        <v>0.5819025522041763</v>
+        <v>0.5775301764159703</v>
       </c>
       <c r="E132" t="n">
-        <v>0.5966542750929368</v>
+        <v>0.5584415584415584</v>
       </c>
     </row>
     <row r="133">
@@ -2692,16 +2692,16 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>0.1221310342935955</v>
+        <v>0.1258740955415894</v>
       </c>
       <c r="C133" t="n">
-        <v>0.1273240082793766</v>
+        <v>0.1349817365407944</v>
       </c>
       <c r="D133" t="n">
-        <v>0.5888631090487239</v>
+        <v>0.5951717734447539</v>
       </c>
       <c r="E133" t="n">
-        <v>0.6059479553903345</v>
+        <v>0.5547309833024119</v>
       </c>
     </row>
     <row r="134">
@@ -2709,16 +2709,16 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0.1217356284751612</v>
+        <v>0.1273632634650259</v>
       </c>
       <c r="C134" t="n">
-        <v>0.1274677978621589</v>
+        <v>0.134388778772619</v>
       </c>
       <c r="D134" t="n">
-        <v>0.5851508120649652</v>
+        <v>0.585422469823584</v>
       </c>
       <c r="E134" t="n">
-        <v>0.5985130111524164</v>
+        <v>0.5547309833024119</v>
       </c>
     </row>
     <row r="135">
@@ -2726,16 +2726,16 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>0.1220062852782362</v>
+        <v>0.1266335726660841</v>
       </c>
       <c r="C135" t="n">
-        <v>0.1276277949412664</v>
+        <v>0.1346906771262487</v>
       </c>
       <c r="D135" t="n">
-        <v>0.5967517401392112</v>
+        <v>0.5784586815227484</v>
       </c>
       <c r="E135" t="n">
-        <v>0.6022304832713755</v>
+        <v>0.5473098330241187</v>
       </c>
     </row>
     <row r="136">
@@ -2743,16 +2743,16 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>0.1215328852481702</v>
+        <v>0.1272351901759119</v>
       </c>
       <c r="C136" t="n">
-        <v>0.1273597967293527</v>
+        <v>0.1343573464287652</v>
       </c>
       <c r="D136" t="n">
-        <v>0.5860788863109049</v>
+        <v>0.5761374187558032</v>
       </c>
       <c r="E136" t="n">
-        <v>0.6003717472118959</v>
+        <v>0.5565862708719852</v>
       </c>
     </row>
     <row r="137">
@@ -2760,16 +2760,16 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0.120762994622483</v>
+        <v>0.125172502196887</v>
       </c>
       <c r="C137" t="n">
-        <v>0.1279648707972633</v>
+        <v>0.1344346031546593</v>
       </c>
       <c r="D137" t="n">
-        <v>0.5888631090487239</v>
+        <v>0.575208913649025</v>
       </c>
       <c r="E137" t="n">
-        <v>0.5892193308550185</v>
+        <v>0.549165120593692</v>
       </c>
     </row>
     <row r="138">
@@ -2777,16 +2777,16 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>0.1224551148274366</v>
+        <v>0.1260892012540032</v>
       </c>
       <c r="C138" t="n">
-        <v>0.1272429815597004</v>
+        <v>0.1344849301709069</v>
       </c>
       <c r="D138" t="n">
-        <v>0.5837587006960557</v>
+        <v>0.5877437325905293</v>
       </c>
       <c r="E138" t="n">
-        <v>0.6003717472118959</v>
+        <v>0.5528756957328386</v>
       </c>
     </row>
     <row r="139">
@@ -2794,16 +2794,16 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>0.122210510294227</v>
+        <v>0.124224068268257</v>
       </c>
       <c r="C139" t="n">
-        <v>0.1276014985309707</v>
+        <v>0.1346745325459374</v>
       </c>
       <c r="D139" t="n">
-        <v>0.5893271461716937</v>
+        <v>0.5868152274837511</v>
       </c>
       <c r="E139" t="n">
-        <v>0.5985130111524164</v>
+        <v>0.5584415584415584</v>
       </c>
     </row>
     <row r="140">
@@ -2811,16 +2811,16 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>0.1204519138178405</v>
+        <v>0.1257564453955959</v>
       </c>
       <c r="C140" t="n">
-        <v>0.1274766243166394</v>
+        <v>0.1340107892950376</v>
       </c>
       <c r="D140" t="n">
-        <v>0.5925754060324826</v>
+        <v>0.5705663881151346</v>
       </c>
       <c r="E140" t="n">
-        <v>0.5910780669144982</v>
+        <v>0.5640074211502782</v>
       </c>
     </row>
     <row r="141">
@@ -2828,16 +2828,16 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>0.1243442991638885</v>
+        <v>0.1233552367809941</v>
       </c>
       <c r="C141" t="n">
-        <v>0.1269997068577343</v>
+        <v>0.1347290832135412</v>
       </c>
       <c r="D141" t="n">
-        <v>0.5698375870069605</v>
+        <v>0.6044568245125348</v>
       </c>
       <c r="E141" t="n">
-        <v>0.5966542750929368</v>
+        <v>0.5602968460111317</v>
       </c>
     </row>
     <row r="142">
@@ -2845,16 +2845,16 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>0.122272940023857</v>
+        <v>0.1243427601807258</v>
       </c>
       <c r="C142" t="n">
-        <v>0.1278189818064372</v>
+        <v>0.1347957187228733</v>
       </c>
       <c r="D142" t="n">
-        <v>0.5962877030162413</v>
+        <v>0.5988857938718662</v>
       </c>
       <c r="E142" t="n">
-        <v>0.5985130111524164</v>
+        <v>0.5547309833024119</v>
       </c>
     </row>
     <row r="143">
@@ -2862,16 +2862,16 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0.1203286985264105</v>
+        <v>0.1254468424355283</v>
       </c>
       <c r="C143" t="n">
-        <v>0.1278771857420603</v>
+        <v>0.1343177325195736</v>
       </c>
       <c r="D143" t="n">
-        <v>0.588399071925754</v>
+        <v>0.5909935004642526</v>
       </c>
       <c r="E143" t="n">
-        <v>0.5985130111524164</v>
+        <v>0.5547309833024119</v>
       </c>
     </row>
     <row r="144">
@@ -2879,16 +2879,16 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>0.121195833910914</v>
+        <v>0.1247543418670402</v>
       </c>
       <c r="C144" t="n">
-        <v>0.1276777527398533</v>
+        <v>0.1339956762062179</v>
       </c>
       <c r="D144" t="n">
-        <v>0.582830626450116</v>
+        <v>0.585422469823584</v>
       </c>
       <c r="E144" t="n">
-        <v>0.5985130111524164</v>
+        <v>0.5658627087198516</v>
       </c>
     </row>
     <row r="145">
@@ -2896,16 +2896,16 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>0.1202386733801926</v>
+        <v>0.1259129877914401</v>
       </c>
       <c r="C145" t="n">
-        <v>0.1280561619334751</v>
+        <v>0.1339544049567646</v>
       </c>
       <c r="D145" t="n">
-        <v>0.5851508120649652</v>
+        <v>0.5803156917363046</v>
       </c>
       <c r="E145" t="n">
-        <v>0.5892193308550185</v>
+        <v>0.5602968460111317</v>
       </c>
     </row>
     <row r="146">
@@ -2913,16 +2913,16 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>0.120974247727324</v>
+        <v>0.1230592074639657</v>
       </c>
       <c r="C146" t="n">
-        <v>0.1277157382832633</v>
+        <v>0.1344195960296525</v>
       </c>
       <c r="D146" t="n">
-        <v>0.5832946635730858</v>
+        <v>0.5923862581244197</v>
       </c>
       <c r="E146" t="n">
-        <v>0.5966542750929368</v>
+        <v>0.5602968460111317</v>
       </c>
     </row>
     <row r="147">
@@ -2930,16 +2930,16 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>0.120977250749574</v>
+        <v>0.123323302496882</v>
       </c>
       <c r="C147" t="n">
-        <v>0.1277734670374129</v>
+        <v>0.1339016440841887</v>
       </c>
       <c r="D147" t="n">
-        <v>0.5921113689095128</v>
+        <v>0.6007428040854225</v>
       </c>
       <c r="E147" t="n">
-        <v>0.5947955390334573</v>
+        <v>0.5658627087198516</v>
       </c>
     </row>
     <row r="148">
@@ -2947,16 +2947,16 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>0.1204040087759495</v>
+        <v>0.1228852044133579</v>
       </c>
       <c r="C148" t="n">
-        <v>0.1275035159455405</v>
+        <v>0.134308945801523</v>
       </c>
       <c r="D148" t="n">
-        <v>0.5893271461716937</v>
+        <v>0.6039925719591458</v>
       </c>
       <c r="E148" t="n">
-        <v>0.5985130111524164</v>
+        <v>0.5510204081632653</v>
       </c>
     </row>
     <row r="149">
@@ -2964,16 +2964,16 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>0.1216573566198349</v>
+        <v>0.1259227958233917</v>
       </c>
       <c r="C149" t="n">
-        <v>0.1274964561065038</v>
+        <v>0.1341177167163955</v>
       </c>
       <c r="D149" t="n">
-        <v>0.5819025522041763</v>
+        <v>0.585422469823584</v>
       </c>
       <c r="E149" t="n">
-        <v>0.6003717472118959</v>
+        <v>0.5547309833024119</v>
       </c>
     </row>
     <row r="150">
@@ -2981,16 +2981,16 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>0.121041802360731</v>
+        <v>0.1228721507770174</v>
       </c>
       <c r="C150" t="n">
-        <v>0.127709620528751</v>
+        <v>0.1335339860783683</v>
       </c>
       <c r="D150" t="n">
-        <v>0.5832946635730858</v>
+        <v>0.5942432683379758</v>
       </c>
       <c r="E150" t="n">
-        <v>0.5985130111524164</v>
+        <v>0.5584415584415584</v>
       </c>
     </row>
     <row r="151">
@@ -2998,16 +2998,16 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>0.1201839797637042</v>
+        <v>0.1246181268464116</v>
       </c>
       <c r="C151" t="n">
-        <v>0.1273195801509751</v>
+        <v>0.1336281473437945</v>
       </c>
       <c r="D151" t="n">
-        <v>0.582830626450116</v>
+        <v>0.5923862581244197</v>
       </c>
       <c r="E151" t="n">
-        <v>0.6115241635687733</v>
+        <v>0.5602968460111317</v>
       </c>
     </row>
     <row r="152">
@@ -3015,16 +3015,16 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>0.1197901668355745</v>
+        <v>0.1241030848639853</v>
       </c>
       <c r="C152" t="n">
-        <v>0.127493475874265</v>
+        <v>0.1335246157315042</v>
       </c>
       <c r="D152" t="n">
-        <v>0.5953596287703016</v>
+        <v>0.5868152274837511</v>
       </c>
       <c r="E152" t="n">
-        <v>0.5947955390334573</v>
+        <v>0.5602968460111317</v>
       </c>
     </row>
   </sheetData>

--- a/FC_figure_bank/Protein + mRNALossAccDF.xlsx
+++ b/FC_figure_bank/Protein + mRNALossAccDF.xlsx
@@ -465,10 +465,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1721657006179585</v>
+        <v>0.1781628964578404</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1717537211047279</v>
+        <v>0.1776875323719448</v>
       </c>
       <c r="D2" t="n">
         <v>0.3848653667595172</v>
@@ -482,16 +482,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2245537941070164</v>
+        <v>0.2279172127737719</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1782604985766941</v>
+        <v>0.1827883174022039</v>
       </c>
       <c r="D3" t="n">
         <v>0.1536675951717734</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1020408163265306</v>
+        <v>0.1001855287569573</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2108696028590202</v>
+        <v>0.214630824239815</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1720033867491616</v>
+        <v>0.1768302222092946</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1731662024141133</v>
+        <v>0.1717734447539462</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1799628942486085</v>
+        <v>0.176252319109462</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2062246220953324</v>
+        <v>0.2107152579461827</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1683899097972446</v>
+        <v>0.1734282887644238</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1754874651810585</v>
+        <v>0.1773444753946147</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2226345083487941</v>
+        <v>0.2207792207792208</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1970847441869623</v>
+        <v>0.2017010375857353</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1636852125326792</v>
+        <v>0.1689082599348492</v>
       </c>
       <c r="D6" t="n">
-        <v>0.212627669452182</v>
+        <v>0.2093779015784587</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3061224489795918</v>
+        <v>0.2987012987012987</v>
       </c>
     </row>
     <row r="7">
@@ -550,16 +550,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1863848233924192</v>
+        <v>0.1912983305314008</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1599001271857156</v>
+        <v>0.1651448375648922</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2242339832869081</v>
+        <v>0.2265552460538533</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3970315398886827</v>
+        <v>0.3951762523191095</v>
       </c>
     </row>
     <row r="8">
@@ -567,16 +567,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1826099503566237</v>
+        <v>0.1879826779751217</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1566926605171627</v>
+        <v>0.162249066763454</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2493036211699164</v>
+        <v>0.2455896007428041</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4211502782931354</v>
+        <v>0.4174397031539889</v>
       </c>
     </row>
     <row r="9">
@@ -584,16 +584,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1754825417609776</v>
+        <v>0.1807117339442758</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1545028256045448</v>
+        <v>0.1602927363581128</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2985143918291551</v>
+        <v>0.2948003714020427</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4564007421150278</v>
+        <v>0.437847866419295</v>
       </c>
     </row>
     <row r="10">
@@ -601,16 +601,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1735661617096733</v>
+        <v>0.1792333967545453</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1521397233009338</v>
+        <v>0.1580803493658701</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3129062209842154</v>
+        <v>0.3101207056638812</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4897959183673469</v>
+        <v>0.4786641929499073</v>
       </c>
     </row>
     <row r="11">
@@ -618,16 +618,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1694685154977967</v>
+        <v>0.175142418812303</v>
       </c>
       <c r="C11" t="n">
-        <v>0.150910754998525</v>
+        <v>0.1569684478971693</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3365831012070566</v>
+        <v>0.33008356545961</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4990723562152133</v>
+        <v>0.4823747680890538</v>
       </c>
     </row>
     <row r="12">
@@ -635,16 +635,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1671202077585108</v>
+        <v>0.1730087175965309</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1494412885771857</v>
+        <v>0.1555947330262926</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3426183844011142</v>
+        <v>0.3342618384401114</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5027829313543599</v>
+        <v>0.4935064935064935</v>
       </c>
     </row>
     <row r="13">
@@ -652,16 +652,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.166834014303544</v>
+        <v>0.1733664554708144</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1491767217715581</v>
+        <v>0.1553250733349058</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3556174558960074</v>
+        <v>0.3454038997214485</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4916512059369202</v>
+        <v>0.4823747680890538</v>
       </c>
     </row>
     <row r="14">
@@ -669,16 +669,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1609274197150679</v>
+        <v>0.1669877552810837</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1479512850443522</v>
+        <v>0.1541740049918493</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3853296193129062</v>
+        <v>0.3765088207985144</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5027829313543599</v>
+        <v>0.4897959183673469</v>
       </c>
     </row>
     <row r="15">
@@ -686,16 +686,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1624957735047621</v>
+        <v>0.1689796154113377</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1470249791940053</v>
+        <v>0.1533327185445362</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3857938718662953</v>
+        <v>0.3811513463324048</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5120593692022264</v>
+        <v>0.5009276437847866</v>
       </c>
     </row>
     <row r="16">
@@ -703,16 +703,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1577271687633851</v>
+        <v>0.1637114654569065</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1463587168190214</v>
+        <v>0.1526728139983283</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4034354688950789</v>
+        <v>0.4025069637883008</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5139146567717996</v>
+        <v>0.4897959183673469</v>
       </c>
     </row>
     <row r="17">
@@ -720,16 +720,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1607610109974356</v>
+        <v>0.1667959690093994</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1455059001843134</v>
+        <v>0.1518347925610012</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3992571959145775</v>
+        <v>0.394150417827298</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5250463821892394</v>
+        <v>0.5046382189239332</v>
       </c>
     </row>
     <row r="18">
@@ -737,16 +737,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1562500070123111</v>
+        <v>0.1626008345800287</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1452369954850939</v>
+        <v>0.151676528983646</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4155060352831941</v>
+        <v>0.4052924791086351</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5083487940630798</v>
+        <v>0.4990723562152133</v>
       </c>
     </row>
     <row r="19">
@@ -754,16 +754,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1544222283889266</v>
+        <v>0.1609769980697071</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1443066696325938</v>
+        <v>0.1509806662797928</v>
       </c>
       <c r="D19" t="n">
-        <v>0.435933147632312</v>
+        <v>0.4206128133704735</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5213358070500927</v>
+        <v>0.5046382189239332</v>
       </c>
     </row>
     <row r="20">
@@ -771,16 +771,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1565474679364878</v>
+        <v>0.1632517234367483</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1436303241385354</v>
+        <v>0.1502139733897315</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4368616527390901</v>
+        <v>0.4192200557103064</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5176252319109462</v>
+        <v>0.5046382189239332</v>
       </c>
     </row>
     <row r="21">
@@ -788,16 +788,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1547195863197832</v>
+        <v>0.1612794478149975</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1436694049172931</v>
+        <v>0.1501858582099279</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4456824512534819</v>
+        <v>0.4350046425255339</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5102040816326531</v>
+        <v>0.5027829313543599</v>
       </c>
     </row>
     <row r="22">
@@ -805,16 +805,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1523311712286052</v>
+        <v>0.1590191914754755</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1433470812108782</v>
+        <v>0.1499867869748009</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4345403899721448</v>
+        <v>0.425255338904364</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5287569573283859</v>
+        <v>0.5083487940630798</v>
       </c>
     </row>
     <row r="23">
@@ -822,16 +822,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.1541211513035438</v>
+        <v>0.1606048967908411</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1427386196123229</v>
+        <v>0.1494064678748449</v>
       </c>
       <c r="D23" t="n">
-        <v>0.447075208913649</v>
+        <v>0.4377901578458682</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5213358070500927</v>
+        <v>0.5064935064935064</v>
       </c>
     </row>
     <row r="24">
@@ -839,16 +839,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.1515967859064832</v>
+        <v>0.15789384482538</v>
       </c>
       <c r="C24" t="n">
-        <v>0.142478364209334</v>
+        <v>0.1491390582587984</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4428969359331476</v>
+        <v>0.4382544103992572</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5287569573283859</v>
+        <v>0.5102040816326531</v>
       </c>
     </row>
     <row r="25">
@@ -856,16 +856,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.1523419408237233</v>
+        <v>0.1590495210360078</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1418705234924952</v>
+        <v>0.1487073368496365</v>
       </c>
       <c r="D25" t="n">
-        <v>0.447539461467038</v>
+        <v>0.4447539461467038</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5194805194805194</v>
+        <v>0.5176252319109462</v>
       </c>
     </row>
     <row r="26">
@@ -873,16 +873,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.1489582351025413</v>
+        <v>0.1556617253843476</v>
       </c>
       <c r="C26" t="n">
-        <v>0.141549128625128</v>
+        <v>0.1483283291260401</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4651810584958218</v>
+        <v>0.4558960074280409</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5250463821892394</v>
+        <v>0.5139146567717996</v>
       </c>
     </row>
     <row r="27">
@@ -890,16 +890,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1491576115436414</v>
+        <v>0.1557157096617362</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1417088541719649</v>
+        <v>0.148500907752249</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4707520891364902</v>
+        <v>0.4651810584958218</v>
       </c>
       <c r="E27" t="n">
-        <v>0.5287569573283859</v>
+        <v>0.5083487940630798</v>
       </c>
     </row>
     <row r="28">
@@ -907,16 +907,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1491852994350826</v>
+        <v>0.1556907344390364</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1412998967700534</v>
+        <v>0.1481134560373094</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4749303621169916</v>
+        <v>0.4623955431754875</v>
       </c>
       <c r="E28" t="n">
-        <v>0.5194805194805194</v>
+        <v>0.5064935064935064</v>
       </c>
     </row>
     <row r="29">
@@ -924,16 +924,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.1488784227301093</v>
+        <v>0.1556015273227411</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1409318099419276</v>
+        <v>0.1478177011013031</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4535747446610957</v>
+        <v>0.4442896935933148</v>
       </c>
       <c r="E29" t="n">
-        <v>0.5231910946196661</v>
+        <v>0.5102040816326531</v>
       </c>
     </row>
     <row r="30">
@@ -941,16 +941,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.1480406325529603</v>
+        <v>0.1550512432175524</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1408369061019686</v>
+        <v>0.147792077726788</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4758588672237697</v>
+        <v>0.4702878365831012</v>
       </c>
       <c r="E30" t="n">
-        <v>0.5194805194805194</v>
+        <v>0.5157699443413729</v>
       </c>
     </row>
     <row r="31">
@@ -958,16 +958,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1478381713523584</v>
+        <v>0.1548534920986961</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1406014834841093</v>
+        <v>0.1476400676700804</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4712163416898793</v>
+        <v>0.4647168059424327</v>
       </c>
       <c r="E31" t="n">
-        <v>0.5231910946196661</v>
+        <v>0.5250463821892394</v>
       </c>
     </row>
     <row r="32">
@@ -975,16 +975,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.1467844497631578</v>
+        <v>0.1535690588986172</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1408614433474011</v>
+        <v>0.1478969487879011</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4823584029712163</v>
+        <v>0.4735376044568245</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5231910946196661</v>
+        <v>0.5139146567717996</v>
       </c>
     </row>
     <row r="33">
@@ -992,16 +992,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1476099955684999</v>
+        <v>0.1545115406898891</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1406781284345521</v>
+        <v>0.1476255539390776</v>
       </c>
       <c r="D33" t="n">
-        <v>0.4809656453110492</v>
+        <v>0.4670380687093779</v>
       </c>
       <c r="E33" t="n">
-        <v>0.5250463821892394</v>
+        <v>0.5176252319109462</v>
       </c>
     </row>
     <row r="34">
@@ -1009,16 +1009,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.1439723368076717</v>
+        <v>0.1507157893741832</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1407459038827154</v>
+        <v>0.147650635904736</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5027855153203342</v>
+        <v>0.4911792014856082</v>
       </c>
       <c r="E34" t="n">
-        <v>0.5250463821892394</v>
+        <v>0.5213358070500927</v>
       </c>
     </row>
     <row r="35">
@@ -1026,16 +1026,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.1455989865695729</v>
+        <v>0.1524128217030974</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1402878868911001</v>
+        <v>0.1473913043737411</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4986072423398329</v>
+        <v>0.4749303621169916</v>
       </c>
       <c r="E35" t="n">
-        <v>0.5231910946196661</v>
+        <v>0.5213358070500927</v>
       </c>
     </row>
     <row r="36">
@@ -1043,13 +1043,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.1456017980680746</v>
+        <v>0.1525142929133247</v>
       </c>
       <c r="C36" t="n">
-        <v>0.1402433100673887</v>
+        <v>0.1473154409064187</v>
       </c>
       <c r="D36" t="n">
-        <v>0.4879294336118848</v>
+        <v>0.4712163416898793</v>
       </c>
       <c r="E36" t="n">
         <v>0.5287569573283859</v>
@@ -1060,16 +1060,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1445804941741859</v>
+        <v>0.1514777896158835</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1399689200851652</v>
+        <v>0.1469960295491748</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4916434540389972</v>
+        <v>0.4883936861652739</v>
       </c>
       <c r="E37" t="n">
-        <v>0.5343228200371057</v>
+        <v>0.5306122448979592</v>
       </c>
     </row>
     <row r="38">
@@ -1077,16 +1077,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.1443463912343278</v>
+        <v>0.1514629195718204</v>
       </c>
       <c r="C38" t="n">
-        <v>0.1399783798389965</v>
+        <v>0.1469809015591939</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4944289693593314</v>
+        <v>0.4818941504178273</v>
       </c>
       <c r="E38" t="n">
-        <v>0.5287569573283859</v>
+        <v>0.5231910946196661</v>
       </c>
     </row>
     <row r="39">
@@ -1094,16 +1094,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.1459294242017409</v>
+        <v>0.152769477928386</v>
       </c>
       <c r="C39" t="n">
-        <v>0.1393950225578414</v>
+        <v>0.1465505725807614</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4902506963788301</v>
+        <v>0.4805013927576602</v>
       </c>
       <c r="E39" t="n">
-        <v>0.5306122448979592</v>
+        <v>0.5250463821892394</v>
       </c>
     </row>
     <row r="40">
@@ -1111,16 +1111,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.1441412543987527</v>
+        <v>0.1510485406307613</v>
       </c>
       <c r="C40" t="n">
-        <v>0.1394419074058533</v>
+        <v>0.1464577996068531</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4953574744661096</v>
+        <v>0.4935004642525534</v>
       </c>
       <c r="E40" t="n">
-        <v>0.5231910946196661</v>
+        <v>0.5157699443413729</v>
       </c>
     </row>
     <row r="41">
@@ -1128,13 +1128,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.1436364067827954</v>
+        <v>0.1504102309837061</v>
       </c>
       <c r="C41" t="n">
-        <v>0.1394409967793359</v>
+        <v>0.1464920043945312</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4925719591457753</v>
+        <v>0.4828226555246054</v>
       </c>
       <c r="E41" t="n">
         <v>0.5213358070500927</v>
@@ -1145,16 +1145,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.1425159393864519</v>
+        <v>0.1492494559463333</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1388968245850669</v>
+        <v>0.1458604203330146</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5023212627669452</v>
+        <v>0.4958217270194986</v>
       </c>
       <c r="E42" t="n">
-        <v>0.5287569573283859</v>
+        <v>0.5250463821892394</v>
       </c>
     </row>
     <row r="43">
@@ -1162,16 +1162,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.1426314691848615</v>
+        <v>0.1493514241541133</v>
       </c>
       <c r="C43" t="n">
-        <v>0.1389097885953056</v>
+        <v>0.1458408898777432</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4995357474466109</v>
+        <v>0.4897864438254411</v>
       </c>
       <c r="E43" t="n">
-        <v>0.5287569573283859</v>
+        <v>0.5213358070500927</v>
       </c>
     </row>
     <row r="44">
@@ -1179,16 +1179,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.1426660909372217</v>
+        <v>0.1492962039568845</v>
       </c>
       <c r="C44" t="n">
-        <v>0.1393064699239201</v>
+        <v>0.1463864528470569</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5204271123491179</v>
+        <v>0.5074280408542247</v>
       </c>
       <c r="E44" t="n">
-        <v>0.5287569573283859</v>
+        <v>0.5157699443413729</v>
       </c>
     </row>
     <row r="45">
@@ -1196,16 +1196,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.1413640130092116</v>
+        <v>0.1480718531152781</v>
       </c>
       <c r="C45" t="n">
-        <v>0.1391764879226685</v>
+        <v>0.1462563458416197</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5092850510677809</v>
+        <v>0.4990714948932219</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5324675324675324</v>
+        <v>0.5213358070500927</v>
       </c>
     </row>
     <row r="46">
@@ -1213,16 +1213,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.1408242092413061</v>
+        <v>0.1476573729339768</v>
       </c>
       <c r="C46" t="n">
-        <v>0.1395024723476834</v>
+        <v>0.1463952329423693</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5060352831940576</v>
+        <v>0.4962859795728877</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5269016697588126</v>
+        <v>0.5343228200371057</v>
       </c>
     </row>
     <row r="47">
@@ -1230,16 +1230,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.1435642474714448</v>
+        <v>0.1504980994059759</v>
       </c>
       <c r="C47" t="n">
-        <v>0.1386298967732323</v>
+        <v>0.1455093655321333</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4870009285051068</v>
+        <v>0.478180129990715</v>
       </c>
       <c r="E47" t="n">
-        <v>0.5361781076066791</v>
+        <v>0.5324675324675324</v>
       </c>
     </row>
     <row r="48">
@@ -1247,16 +1247,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.1406040423933198</v>
+        <v>0.1471692100167274</v>
       </c>
       <c r="C48" t="n">
-        <v>0.1389096420672205</v>
+        <v>0.1457976731989119</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5069637883008357</v>
+        <v>0.4972144846796657</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5324675324675324</v>
+        <v>0.5269016697588126</v>
       </c>
     </row>
     <row r="49">
@@ -1264,16 +1264,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.141973944271312</v>
+        <v>0.1486220780540915</v>
       </c>
       <c r="C49" t="n">
-        <v>0.1386583223938942</v>
+        <v>0.1455417258871926</v>
       </c>
       <c r="D49" t="n">
-        <v>0.5041782729805014</v>
+        <v>0.4911792014856082</v>
       </c>
       <c r="E49" t="n">
-        <v>0.5287569573283859</v>
+        <v>0.5269016697588126</v>
       </c>
     </row>
     <row r="50">
@@ -1281,16 +1281,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.1403058642411933</v>
+        <v>0.1467465460300446</v>
       </c>
       <c r="C50" t="n">
-        <v>0.1384453665879038</v>
+        <v>0.1453935528794924</v>
       </c>
       <c r="D50" t="n">
-        <v>0.5134633240482822</v>
+        <v>0.510213556174559</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5306122448979592</v>
+        <v>0.5269016697588126</v>
       </c>
     </row>
     <row r="51">
@@ -1298,16 +1298,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.1415440516875071</v>
+        <v>0.1480235400445321</v>
       </c>
       <c r="C51" t="n">
-        <v>0.138397285507785</v>
+        <v>0.145272304614385</v>
       </c>
       <c r="D51" t="n">
-        <v>0.5078922934076138</v>
+        <v>0.4962859795728877</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5343228200371057</v>
+        <v>0.5361781076066791</v>
       </c>
     </row>
     <row r="52">
@@ -1315,16 +1315,16 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.1397086822373026</v>
+        <v>0.146125319030355</v>
       </c>
       <c r="C52" t="n">
-        <v>0.1382868281669087</v>
+        <v>0.1452054331700007</v>
       </c>
       <c r="D52" t="n">
-        <v>0.5176415970287837</v>
+        <v>0.5037140204271123</v>
       </c>
       <c r="E52" t="n">
-        <v>0.5398886827458256</v>
+        <v>0.5324675324675324</v>
       </c>
     </row>
     <row r="53">
@@ -1332,16 +1332,16 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.1402613454881836</v>
+        <v>0.1468139821115662</v>
       </c>
       <c r="C53" t="n">
-        <v>0.1382623116175334</v>
+        <v>0.1452008460958799</v>
       </c>
       <c r="D53" t="n">
-        <v>0.5167130919220055</v>
+        <v>0.4981429897864438</v>
       </c>
       <c r="E53" t="n">
-        <v>0.5343228200371057</v>
+        <v>0.5435992578849722</v>
       </c>
     </row>
     <row r="54">
@@ -1349,16 +1349,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.1397887365344693</v>
+        <v>0.1464131566531518</v>
       </c>
       <c r="C54" t="n">
-        <v>0.1383935726351208</v>
+        <v>0.1452735198868645</v>
       </c>
       <c r="D54" t="n">
-        <v>0.5259981429897864</v>
+        <v>0.5167130919220055</v>
       </c>
       <c r="E54" t="n">
-        <v>0.5361781076066791</v>
+        <v>0.5324675324675324</v>
       </c>
     </row>
     <row r="55">
@@ -1366,16 +1366,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.1398175729109961</v>
+        <v>0.1462098024785519</v>
       </c>
       <c r="C55" t="n">
-        <v>0.1381275372372733</v>
+        <v>0.1451594200399187</v>
       </c>
       <c r="D55" t="n">
-        <v>0.5297121634168988</v>
+        <v>0.5083565459610028</v>
       </c>
       <c r="E55" t="n">
-        <v>0.5269016697588126</v>
+        <v>0.5343228200371057</v>
       </c>
     </row>
     <row r="56">
@@ -1383,16 +1383,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.1398306464885964</v>
+        <v>0.1462278567692813</v>
       </c>
       <c r="C56" t="n">
-        <v>0.1376202586624357</v>
+        <v>0.1445231131381459</v>
       </c>
       <c r="D56" t="n">
-        <v>0.5171773444753947</v>
+        <v>0.5060352831940576</v>
       </c>
       <c r="E56" t="n">
-        <v>0.5528756957328386</v>
+        <v>0.5547309833024119</v>
       </c>
     </row>
     <row r="57">
@@ -1400,13 +1400,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.1401269488474902</v>
+        <v>0.1469268194016288</v>
       </c>
       <c r="C57" t="n">
-        <v>0.1376514674888717</v>
+        <v>0.1446423083543777</v>
       </c>
       <c r="D57" t="n">
-        <v>0.521355617455896</v>
+        <v>0.5129990714948932</v>
       </c>
       <c r="E57" t="n">
         <v>0.5417439703153989</v>
@@ -1417,13 +1417,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.1391824525507057</v>
+        <v>0.1455924031050766</v>
       </c>
       <c r="C58" t="n">
-        <v>0.1374875845180618</v>
+        <v>0.1444645308785968</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5167130919220055</v>
+        <v>0.5041782729805014</v>
       </c>
       <c r="E58" t="n">
         <v>0.549165120593692</v>
@@ -1434,16 +1434,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.1384028998367927</v>
+        <v>0.1449298185898977</v>
       </c>
       <c r="C59" t="n">
-        <v>0.1376532249980503</v>
+        <v>0.1446661187542809</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5506035283194057</v>
+        <v>0.5362116991643454</v>
       </c>
       <c r="E59" t="n">
-        <v>0.5306122448979592</v>
+        <v>0.5398886827458256</v>
       </c>
     </row>
     <row r="60">
@@ -1451,13 +1451,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.1402517274460372</v>
+        <v>0.1466960880686255</v>
       </c>
       <c r="C60" t="n">
-        <v>0.137603814403216</v>
+        <v>0.1445927007330788</v>
       </c>
       <c r="D60" t="n">
-        <v>0.5278551532033426</v>
+        <v>0.521355617455896</v>
       </c>
       <c r="E60" t="n">
         <v>0.5398886827458256</v>
@@ -1468,16 +1468,16 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1382773281896816</v>
+        <v>0.1445903817520422</v>
       </c>
       <c r="C61" t="n">
-        <v>0.1375077093640963</v>
+        <v>0.1446332542432679</v>
       </c>
       <c r="D61" t="n">
-        <v>0.5366759517177344</v>
+        <v>0.5269266480965645</v>
       </c>
       <c r="E61" t="n">
-        <v>0.5435992578849722</v>
+        <v>0.5398886827458256</v>
       </c>
     </row>
     <row r="62">
@@ -1485,13 +1485,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.1374554397428737</v>
+        <v>0.1439926264917149</v>
       </c>
       <c r="C62" t="n">
-        <v>0.1372616150312954</v>
+        <v>0.1440776718987359</v>
       </c>
       <c r="D62" t="n">
-        <v>0.531104921077066</v>
+        <v>0.5148560817084494</v>
       </c>
       <c r="E62" t="n">
         <v>0.5473098330241187</v>
@@ -1502,16 +1502,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.1379362016039736</v>
+        <v>0.1442187801003456</v>
       </c>
       <c r="C63" t="n">
-        <v>0.1370544847514894</v>
+        <v>0.1438998952507973</v>
       </c>
       <c r="D63" t="n">
-        <v>0.5236768802228412</v>
+        <v>0.5190343546889508</v>
       </c>
       <c r="E63" t="n">
-        <v>0.5435992578849722</v>
+        <v>0.5380333951762524</v>
       </c>
     </row>
     <row r="64">
@@ -1519,16 +1519,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.1353538965477663</v>
+        <v>0.1414384335717734</v>
       </c>
       <c r="C64" t="n">
-        <v>0.1372199356555939</v>
+        <v>0.1441433495945401</v>
       </c>
       <c r="D64" t="n">
-        <v>0.542711234911792</v>
+        <v>0.531104921077066</v>
       </c>
       <c r="E64" t="n">
-        <v>0.5417439703153989</v>
+        <v>0.5380333951762524</v>
       </c>
     </row>
     <row r="65">
@@ -1536,16 +1536,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.1352018705185722</v>
+        <v>0.1416968902682557</v>
       </c>
       <c r="C65" t="n">
-        <v>0.1369987461302015</v>
+        <v>0.1439395000537237</v>
       </c>
       <c r="D65" t="n">
-        <v>0.5445682451253482</v>
+        <v>0.5297121634168988</v>
       </c>
       <c r="E65" t="n">
-        <v>0.5473098330241187</v>
+        <v>0.5398886827458256</v>
       </c>
     </row>
     <row r="66">
@@ -1553,13 +1553,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.1362087321193779</v>
+        <v>0.1425713256878011</v>
       </c>
       <c r="C66" t="n">
-        <v>0.1370860098136796</v>
+        <v>0.143957354956203</v>
       </c>
       <c r="D66" t="n">
-        <v>0.5445682451253482</v>
+        <v>0.5403899721448467</v>
       </c>
       <c r="E66" t="n">
         <v>0.5398886827458256</v>
@@ -1570,16 +1570,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.1357072740793228</v>
+        <v>0.1420996853095644</v>
       </c>
       <c r="C67" t="n">
-        <v>0.1368567215071784</v>
+        <v>0.1437740011347665</v>
       </c>
       <c r="D67" t="n">
-        <v>0.531569173630455</v>
+        <v>0.5269266480965645</v>
       </c>
       <c r="E67" t="n">
-        <v>0.5417439703153989</v>
+        <v>0.5361781076066791</v>
       </c>
     </row>
     <row r="68">
@@ -1587,16 +1587,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.13726557046175</v>
+        <v>0.1438121607198435</v>
       </c>
       <c r="C68" t="n">
-        <v>0.1371496841311455</v>
+        <v>0.1440272082885106</v>
       </c>
       <c r="D68" t="n">
-        <v>0.5380687093779016</v>
+        <v>0.5278551532033426</v>
       </c>
       <c r="E68" t="n">
-        <v>0.5361781076066791</v>
+        <v>0.5380333951762524</v>
       </c>
     </row>
     <row r="69">
@@ -1604,16 +1604,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.1373291716856115</v>
+        <v>0.1438970127526452</v>
       </c>
       <c r="C69" t="n">
-        <v>0.136928608847989</v>
+        <v>0.143736473388142</v>
       </c>
       <c r="D69" t="n">
-        <v>0.5338904363974002</v>
+        <v>0.5297121634168988</v>
       </c>
       <c r="E69" t="n">
-        <v>0.5435992578849722</v>
+        <v>0.5380333951762524</v>
       </c>
     </row>
     <row r="70">
@@ -1621,16 +1621,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.1361629590392113</v>
+        <v>0.1423798648311811</v>
       </c>
       <c r="C70" t="n">
-        <v>0.1367424668537246</v>
+        <v>0.1435555534230338</v>
       </c>
       <c r="D70" t="n">
-        <v>0.5348189415041783</v>
+        <v>0.5329619312906221</v>
       </c>
       <c r="E70" t="n">
-        <v>0.5417439703153989</v>
+        <v>0.5343228200371057</v>
       </c>
     </row>
     <row r="71">
@@ -1638,13 +1638,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.1350661408813561</v>
+        <v>0.1414280641166603</v>
       </c>
       <c r="C71" t="n">
-        <v>0.136657554242346</v>
+        <v>0.1435112299190627</v>
       </c>
       <c r="D71" t="n">
-        <v>0.5454967502321263</v>
+        <v>0.5357474466109564</v>
       </c>
       <c r="E71" t="n">
         <v>0.5435992578849722</v>
@@ -1655,16 +1655,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.1358139644212583</v>
+        <v>0.1422327763455755</v>
       </c>
       <c r="C72" t="n">
-        <v>0.136981708308061</v>
+        <v>0.1437975019216537</v>
       </c>
       <c r="D72" t="n">
-        <v>0.5352831940575673</v>
+        <v>0.5264623955431755</v>
       </c>
       <c r="E72" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.5417439703153989</v>
       </c>
     </row>
     <row r="73">
@@ -1672,16 +1672,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.135477703941219</v>
+        <v>0.1415166668593884</v>
       </c>
       <c r="C73" t="n">
-        <v>0.1366686738199658</v>
+        <v>0.1434687905841404</v>
       </c>
       <c r="D73" t="n">
-        <v>0.5547818012999072</v>
+        <v>0.5487465181058496</v>
       </c>
       <c r="E73" t="n">
-        <v>0.5435992578849722</v>
+        <v>0.5398886827458256</v>
       </c>
     </row>
     <row r="74">
@@ -1689,16 +1689,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.1369434783563894</v>
+        <v>0.1432610522298252</v>
       </c>
       <c r="C74" t="n">
-        <v>0.1362573876976967</v>
+        <v>0.1430224105715752</v>
       </c>
       <c r="D74" t="n">
-        <v>0.5362116991643454</v>
+        <v>0.5218198700092851</v>
       </c>
       <c r="E74" t="n">
-        <v>0.5510204081632653</v>
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="75">
@@ -1706,16 +1706,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.1358340792357922</v>
+        <v>0.1420329020303839</v>
       </c>
       <c r="C75" t="n">
-        <v>0.1364700082275603</v>
+        <v>0.1432885858747694</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5478180129990715</v>
+        <v>0.5492107706592386</v>
       </c>
       <c r="E75" t="n">
-        <v>0.5510204081632653</v>
+        <v>0.5417439703153989</v>
       </c>
     </row>
     <row r="76">
@@ -1723,16 +1723,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.1359658780343392</v>
+        <v>0.142386756837368</v>
       </c>
       <c r="C76" t="n">
-        <v>0.1363439667556021</v>
+        <v>0.1432083720962206</v>
       </c>
       <c r="D76" t="n">
-        <v>0.5376044568245125</v>
+        <v>0.5301764159702879</v>
       </c>
       <c r="E76" t="n">
-        <v>0.5473098330241187</v>
+        <v>0.5398886827458256</v>
       </c>
     </row>
     <row r="77">
@@ -1740,16 +1740,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.13625918372589</v>
+        <v>0.1424181264112978</v>
       </c>
       <c r="C77" t="n">
-        <v>0.1359874217046632</v>
+        <v>0.1428286722964711</v>
       </c>
       <c r="D77" t="n">
-        <v>0.5482822655524605</v>
+        <v>0.542711234911792</v>
       </c>
       <c r="E77" t="n">
-        <v>0.5528756957328386</v>
+        <v>0.5435992578849722</v>
       </c>
     </row>
     <row r="78">
@@ -1757,16 +1757,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.133358549545793</v>
+        <v>0.1391634281505557</v>
       </c>
       <c r="C78" t="n">
-        <v>0.1361204261581103</v>
+        <v>0.1429613936278555</v>
       </c>
       <c r="D78" t="n">
-        <v>0.5515320334261838</v>
+        <v>0.5459610027855153</v>
       </c>
       <c r="E78" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.5473098330241187</v>
       </c>
     </row>
     <row r="79">
@@ -1774,13 +1774,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.1347960693871274</v>
+        <v>0.1409389573861571</v>
       </c>
       <c r="C79" t="n">
-        <v>0.1364322478572527</v>
+        <v>0.1434062520662943</v>
       </c>
       <c r="D79" t="n">
-        <v>0.5571030640668524</v>
+        <v>0.5496750232126276</v>
       </c>
       <c r="E79" t="n">
         <v>0.5454545454545454</v>
@@ -1791,13 +1791,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.1343971872154404</v>
+        <v>0.140533232513596</v>
       </c>
       <c r="C80" t="n">
-        <v>0.1367101677589946</v>
+        <v>0.1435304201311535</v>
       </c>
       <c r="D80" t="n">
-        <v>0.5584958217270195</v>
+        <v>0.5478180129990715</v>
       </c>
       <c r="E80" t="n">
         <v>0.5435992578849722</v>
@@ -1808,16 +1808,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.1347968170748037</v>
+        <v>0.1414485034697196</v>
       </c>
       <c r="C81" t="n">
-        <v>0.1357606773575147</v>
+        <v>0.1426773054732217</v>
       </c>
       <c r="D81" t="n">
-        <v>0.5598885793871866</v>
+        <v>0.5501392757660167</v>
       </c>
       <c r="E81" t="n">
-        <v>0.5510204081632653</v>
+        <v>0.5473098330241187</v>
       </c>
     </row>
     <row r="82">
@@ -1825,16 +1825,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.134632260483854</v>
+        <v>0.1408908947864</v>
       </c>
       <c r="C82" t="n">
-        <v>0.1360284644696448</v>
+        <v>0.1428317328294118</v>
       </c>
       <c r="D82" t="n">
-        <v>0.5608170844939647</v>
+        <v>0.5468895078922934</v>
       </c>
       <c r="E82" t="n">
-        <v>0.5473098330241187</v>
+        <v>0.5565862708719852</v>
       </c>
     </row>
     <row r="83">
@@ -1842,16 +1842,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.1334864306537544</v>
+        <v>0.1395646859617794</v>
       </c>
       <c r="C83" t="n">
-        <v>0.1358429110712475</v>
+        <v>0.1426796110139953</v>
       </c>
       <c r="D83" t="n">
-        <v>0.5408542246982359</v>
+        <v>0.532033426183844</v>
       </c>
       <c r="E83" t="n">
-        <v>0.5473098330241187</v>
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="84">
@@ -1859,16 +1859,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.1336880192598876</v>
+        <v>0.1398477304507704</v>
       </c>
       <c r="C84" t="n">
-        <v>0.1359126857585377</v>
+        <v>0.1426561640368568</v>
       </c>
       <c r="D84" t="n">
-        <v>0.5538532961931291</v>
+        <v>0.5487465181058496</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5473098330241187</v>
+        <v>0.5417439703153989</v>
       </c>
     </row>
     <row r="85">
@@ -1876,16 +1876,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.1337412271429511</v>
+        <v>0.1399050525882665</v>
       </c>
       <c r="C85" t="n">
-        <v>0.1361137396759457</v>
+        <v>0.1429147587882148</v>
       </c>
       <c r="D85" t="n">
-        <v>0.5557103064066853</v>
+        <v>0.5487465181058496</v>
       </c>
       <c r="E85" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.5380333951762524</v>
       </c>
     </row>
     <row r="86">
@@ -1893,13 +1893,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.1325666873770601</v>
+        <v>0.1384623640162103</v>
       </c>
       <c r="C86" t="n">
-        <v>0.135739697350396</v>
+        <v>0.1425901552041372</v>
       </c>
       <c r="D86" t="n">
-        <v>0.5482822655524605</v>
+        <v>0.5352831940575673</v>
       </c>
       <c r="E86" t="n">
         <v>0.5361781076066791</v>
@@ -1910,16 +1910,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.1333896116737057</v>
+        <v>0.1395023975740461</v>
       </c>
       <c r="C87" t="n">
-        <v>0.1351226816574732</v>
+        <v>0.1420260104868147</v>
       </c>
       <c r="D87" t="n">
-        <v>0.5673166202414113</v>
+        <v>0.5598885793871866</v>
       </c>
       <c r="E87" t="n">
-        <v>0.5528756957328386</v>
+        <v>0.5417439703153989</v>
       </c>
     </row>
     <row r="88">
@@ -1927,16 +1927,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.133589613087037</v>
+        <v>0.1399602638009717</v>
       </c>
       <c r="C88" t="n">
-        <v>0.135583666463693</v>
+        <v>0.1424096499880155</v>
       </c>
       <c r="D88" t="n">
-        <v>0.5571030640668524</v>
+        <v>0.5436397400185701</v>
       </c>
       <c r="E88" t="n">
-        <v>0.5435992578849722</v>
+        <v>0.549165120593692</v>
       </c>
     </row>
     <row r="89">
@@ -1944,16 +1944,16 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.1324247831807417</v>
+        <v>0.1386276111006737</v>
       </c>
       <c r="C89" t="n">
-        <v>0.1351047390037113</v>
+        <v>0.1419368510444959</v>
       </c>
       <c r="D89" t="n">
-        <v>0.5608170844939647</v>
+        <v>0.5580315691736305</v>
       </c>
       <c r="E89" t="n">
-        <v>0.5602968460111317</v>
+        <v>0.5528756957328386</v>
       </c>
     </row>
     <row r="90">
@@ -1961,16 +1961,16 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.1335100159049034</v>
+        <v>0.1394192775820985</v>
       </c>
       <c r="C90" t="n">
-        <v>0.1355628305011325</v>
+        <v>0.1424350813031197</v>
       </c>
       <c r="D90" t="n">
-        <v>0.552924791086351</v>
+        <v>0.5338904363974002</v>
       </c>
       <c r="E90" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.5510204081632653</v>
       </c>
     </row>
     <row r="91">
@@ -1978,16 +1978,16 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.1322162878863952</v>
+        <v>0.1382440425017301</v>
       </c>
       <c r="C91" t="n">
-        <v>0.1352483688129319</v>
+        <v>0.1420978241496616</v>
       </c>
       <c r="D91" t="n">
-        <v>0.5636025998142989</v>
+        <v>0.5547818012999072</v>
       </c>
       <c r="E91" t="n">
-        <v>0.5528756957328386</v>
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="92">
@@ -1995,13 +1995,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.1321170362917816</v>
+        <v>0.1378118200775455</v>
       </c>
       <c r="C92" t="n">
-        <v>0.1350033995178011</v>
+        <v>0.1419140100479126</v>
       </c>
       <c r="D92" t="n">
-        <v>0.5575673166202414</v>
+        <v>0.552460538532962</v>
       </c>
       <c r="E92" t="n">
         <v>0.5584415584415584</v>
@@ -2012,13 +2012,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.1319501921534538</v>
+        <v>0.137859456898535</v>
       </c>
       <c r="C93" t="n">
-        <v>0.1354560802380244</v>
+        <v>0.1424135209785568</v>
       </c>
       <c r="D93" t="n">
-        <v>0.5668523676880223</v>
+        <v>0.5557103064066853</v>
       </c>
       <c r="E93" t="n">
         <v>0.5454545454545454</v>
@@ -2029,16 +2029,16 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.1322755901252522</v>
+        <v>0.1379214941578753</v>
       </c>
       <c r="C94" t="n">
-        <v>0.1350777629348967</v>
+        <v>0.1419283168183433</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5636025998142989</v>
+        <v>0.5552460538532962</v>
       </c>
       <c r="E94" t="n">
-        <v>0.5510204081632653</v>
+        <v>0.5473098330241187</v>
       </c>
     </row>
     <row r="95">
@@ -2046,16 +2046,16 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.1323033369639341</v>
+        <v>0.1383029687054017</v>
       </c>
       <c r="C95" t="n">
-        <v>0.1351781710982323</v>
+        <v>0.1420406467384762</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5575673166202414</v>
+        <v>0.5487465181058496</v>
       </c>
       <c r="E95" t="n">
-        <v>0.5528756957328386</v>
+        <v>0.549165120593692</v>
       </c>
     </row>
     <row r="96">
@@ -2063,16 +2063,16 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.1317065730690956</v>
+        <v>0.137779035988976</v>
       </c>
       <c r="C96" t="n">
-        <v>0.1351888014210595</v>
+        <v>0.1419461998674605</v>
       </c>
       <c r="D96" t="n">
-        <v>0.5668523676880223</v>
+        <v>0.5538532961931291</v>
       </c>
       <c r="E96" t="n">
-        <v>0.5547309833024119</v>
+        <v>0.549165120593692</v>
       </c>
     </row>
     <row r="97">
@@ -2080,13 +2080,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.131706602871418</v>
+        <v>0.1374845336027005</v>
       </c>
       <c r="C97" t="n">
-        <v>0.1349901838435067</v>
+        <v>0.1419297953446706</v>
       </c>
       <c r="D97" t="n">
-        <v>0.5552460538532962</v>
+        <v>0.5487465181058496</v>
       </c>
       <c r="E97" t="n">
         <v>0.549165120593692</v>
@@ -2097,16 +2097,16 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.1313608922064304</v>
+        <v>0.137263881152167</v>
       </c>
       <c r="C98" t="n">
-        <v>0.1347910546594196</v>
+        <v>0.141753613948822</v>
       </c>
       <c r="D98" t="n">
-        <v>0.5687093779015785</v>
+        <v>0.5519962859795728</v>
       </c>
       <c r="E98" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.5417439703153989</v>
       </c>
     </row>
     <row r="99">
@@ -2114,16 +2114,16 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.1331852786242962</v>
+        <v>0.1394496452720726</v>
       </c>
       <c r="C99" t="n">
-        <v>0.1355326821406682</v>
+        <v>0.142556756734848</v>
       </c>
       <c r="D99" t="n">
-        <v>0.5436397400185701</v>
+        <v>0.542711234911792</v>
       </c>
       <c r="E99" t="n">
-        <v>0.5473098330241187</v>
+        <v>0.549165120593692</v>
       </c>
     </row>
     <row r="100">
@@ -2131,16 +2131,16 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.1330778688630637</v>
+        <v>0.1390216902774923</v>
       </c>
       <c r="C100" t="n">
-        <v>0.1350169546074337</v>
+        <v>0.1418526180916362</v>
       </c>
       <c r="D100" t="n">
-        <v>0.5594243268337976</v>
+        <v>0.5580315691736305</v>
       </c>
       <c r="E100" t="n">
-        <v>0.5473098330241187</v>
+        <v>0.549165120593692</v>
       </c>
     </row>
     <row r="101">
@@ -2148,16 +2148,16 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.13129868467941</v>
+        <v>0.1371747763717876</v>
       </c>
       <c r="C101" t="n">
-        <v>0.1350934993889597</v>
+        <v>0.1418806678718991</v>
       </c>
       <c r="D101" t="n">
-        <v>0.5766016713091922</v>
+        <v>0.5710306406685237</v>
       </c>
       <c r="E101" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.549165120593692</v>
       </c>
     </row>
     <row r="102">
@@ -2165,16 +2165,16 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.1303638101500623</v>
+        <v>0.1364277393064078</v>
       </c>
       <c r="C102" t="n">
-        <v>0.135550893843174</v>
+        <v>0.1423604662219683</v>
       </c>
       <c r="D102" t="n">
-        <v>0.5714948932219127</v>
+        <v>0.5612813370473537</v>
       </c>
       <c r="E102" t="n">
-        <v>0.5417439703153989</v>
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="103">
@@ -2182,16 +2182,16 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.130552881561658</v>
+        <v>0.1363842272583176</v>
       </c>
       <c r="C103" t="n">
-        <v>0.135099235508177</v>
+        <v>0.1420880738231871</v>
       </c>
       <c r="D103" t="n">
-        <v>0.5724233983286908</v>
+        <v>0.5682451253481894</v>
       </c>
       <c r="E103" t="n">
-        <v>0.5435992578849722</v>
+        <v>0.5510204081632653</v>
       </c>
     </row>
     <row r="104">
@@ -2199,16 +2199,16 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.131432856707012</v>
+        <v>0.1369623743435916</v>
       </c>
       <c r="C104" t="n">
-        <v>0.1347511369321081</v>
+        <v>0.1416839725441403</v>
       </c>
       <c r="D104" t="n">
-        <v>0.5622098421541318</v>
+        <v>0.5598885793871866</v>
       </c>
       <c r="E104" t="n">
-        <v>0.5547309833024119</v>
+        <v>0.5510204081632653</v>
       </c>
     </row>
     <row r="105">
@@ -2216,16 +2216,16 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.1291371128138374</v>
+        <v>0.1351225625942735</v>
       </c>
       <c r="C105" t="n">
-        <v>0.1351508233282301</v>
+        <v>0.1421626665525966</v>
       </c>
       <c r="D105" t="n">
-        <v>0.5807799442896936</v>
+        <v>0.5696378830083565</v>
       </c>
       <c r="E105" t="n">
-        <v>0.5361781076066791</v>
+        <v>0.5417439703153989</v>
       </c>
     </row>
     <row r="106">
@@ -2233,16 +2233,16 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.1310934345511829</v>
+        <v>0.1368962703820537</v>
       </c>
       <c r="C106" t="n">
-        <v>0.1348156150844362</v>
+        <v>0.1417335023482641</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5598885793871866</v>
+        <v>0.5492107706592386</v>
       </c>
       <c r="E106" t="n">
-        <v>0.5398886827458256</v>
+        <v>0.5380333951762524</v>
       </c>
     </row>
     <row r="107">
@@ -2250,16 +2250,16 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.1286472564234453</v>
+        <v>0.1342184444998994</v>
       </c>
       <c r="C107" t="n">
-        <v>0.1352286098731889</v>
+        <v>0.1423227041959763</v>
       </c>
       <c r="D107" t="n">
-        <v>0.584958217270195</v>
+        <v>0.5677808727948004</v>
       </c>
       <c r="E107" t="n">
-        <v>0.5361781076066791</v>
+        <v>0.5306122448979592</v>
       </c>
     </row>
     <row r="108">
@@ -2267,16 +2267,16 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.1301193015978617</v>
+        <v>0.1359936612493852</v>
       </c>
       <c r="C108" t="n">
-        <v>0.1346595187981924</v>
+        <v>0.1417928900983599</v>
       </c>
       <c r="D108" t="n">
-        <v>0.5701021355617456</v>
+        <v>0.5598885793871866</v>
       </c>
       <c r="E108" t="n">
-        <v>0.549165120593692</v>
+        <v>0.5417439703153989</v>
       </c>
     </row>
     <row r="109">
@@ -2284,16 +2284,16 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.1293815448880196</v>
+        <v>0.1350237380932359</v>
       </c>
       <c r="C109" t="n">
-        <v>0.1349606745772892</v>
+        <v>0.1420032920108901</v>
       </c>
       <c r="D109" t="n">
-        <v>0.5608170844939647</v>
+        <v>0.5496750232126276</v>
       </c>
       <c r="E109" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.5398886827458256</v>
       </c>
     </row>
     <row r="110">
@@ -2301,16 +2301,16 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.1279358664417968</v>
+        <v>0.1339453772148665</v>
       </c>
       <c r="C110" t="n">
-        <v>0.1349230292770598</v>
+        <v>0.1419714300168885</v>
       </c>
       <c r="D110" t="n">
-        <v>0.5766016713091922</v>
+        <v>0.5617455896007428</v>
       </c>
       <c r="E110" t="n">
-        <v>0.5435992578849722</v>
+        <v>0.5398886827458256</v>
       </c>
     </row>
     <row r="111">
@@ -2318,16 +2318,16 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.1290747269111521</v>
+        <v>0.1345917928744765</v>
       </c>
       <c r="C111" t="n">
-        <v>0.1343315127823088</v>
+        <v>0.1414372457398309</v>
       </c>
       <c r="D111" t="n">
-        <v>0.585886722376973</v>
+        <v>0.5766016713091922</v>
       </c>
       <c r="E111" t="n">
-        <v>0.5473098330241187</v>
+        <v>0.5435992578849722</v>
       </c>
     </row>
     <row r="112">
@@ -2335,16 +2335,16 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.1300662898403757</v>
+        <v>0.1358480918056825</v>
       </c>
       <c r="C112" t="n">
-        <v>0.1347082017196549</v>
+        <v>0.1416357623206245</v>
       </c>
       <c r="D112" t="n">
-        <v>0.5724233983286908</v>
+        <v>0.5608170844939647</v>
       </c>
       <c r="E112" t="n">
-        <v>0.5473098330241187</v>
+        <v>0.5417439703153989</v>
       </c>
     </row>
     <row r="113">
@@ -2352,16 +2352,16 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.1278986720477834</v>
+        <v>0.1336232064401402</v>
       </c>
       <c r="C113" t="n">
-        <v>0.135035833550824</v>
+        <v>0.1419277754094866</v>
       </c>
       <c r="D113" t="n">
-        <v>0.5714948932219127</v>
+        <v>0.5566388115134633</v>
       </c>
       <c r="E113" t="n">
-        <v>0.5398886827458256</v>
+        <v>0.5435992578849722</v>
       </c>
     </row>
     <row r="114">
@@ -2369,16 +2369,16 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.1279215089538518</v>
+        <v>0.1334475725889206</v>
       </c>
       <c r="C114" t="n">
-        <v>0.1348138716485765</v>
+        <v>0.1417379230260849</v>
       </c>
       <c r="D114" t="n">
-        <v>0.575208913649025</v>
+        <v>0.5696378830083565</v>
       </c>
       <c r="E114" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.5398886827458256</v>
       </c>
     </row>
     <row r="115">
@@ -2386,16 +2386,16 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.1316428653457586</v>
+        <v>0.1373556111665333</v>
       </c>
       <c r="C115" t="n">
-        <v>0.1352746668789122</v>
+        <v>0.142297952539391</v>
       </c>
       <c r="D115" t="n">
-        <v>0.5571030640668524</v>
+        <v>0.5561745589600743</v>
       </c>
       <c r="E115" t="n">
-        <v>0.5435992578849722</v>
+        <v>0.5343228200371057</v>
       </c>
     </row>
     <row r="116">
@@ -2403,16 +2403,16 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.1276250810307615</v>
+        <v>0.1332313486320131</v>
       </c>
       <c r="C116" t="n">
-        <v>0.1345825708574719</v>
+        <v>0.1415427674849828</v>
       </c>
       <c r="D116" t="n">
-        <v>0.5803156917363046</v>
+        <v>0.5705663881151346</v>
       </c>
       <c r="E116" t="n">
-        <v>0.5510204081632653</v>
+        <v>0.5361781076066791</v>
       </c>
     </row>
     <row r="117">
@@ -2420,16 +2420,16 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.1294218895628172</v>
+        <v>0.1351052735219984</v>
       </c>
       <c r="C117" t="n">
-        <v>0.1347851165466838</v>
+        <v>0.1416438826256328</v>
       </c>
       <c r="D117" t="n">
-        <v>0.5770659238625813</v>
+        <v>0.5687093779015785</v>
       </c>
       <c r="E117" t="n">
-        <v>0.5473098330241187</v>
+        <v>0.5398886827458256</v>
       </c>
     </row>
     <row r="118">
@@ -2437,16 +2437,16 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.1281691778670339</v>
+        <v>0.1335704265271916</v>
       </c>
       <c r="C118" t="n">
-        <v>0.1344233676791191</v>
+        <v>0.1414147549205356</v>
       </c>
       <c r="D118" t="n">
-        <v>0.5668523676880223</v>
+        <v>0.5617455896007428</v>
       </c>
       <c r="E118" t="n">
-        <v>0.549165120593692</v>
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="119">
@@ -2454,16 +2454,16 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.1286984162733835</v>
+        <v>0.1343113381196471</v>
       </c>
       <c r="C119" t="n">
-        <v>0.1349716261029243</v>
+        <v>0.1417953703138563</v>
       </c>
       <c r="D119" t="n">
-        <v>0.5696378830083565</v>
+        <v>0.5728876508820798</v>
       </c>
       <c r="E119" t="n">
-        <v>0.5435992578849722</v>
+        <v>0.5343228200371057</v>
       </c>
     </row>
     <row r="120">
@@ -2471,16 +2471,16 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.1281635138918372</v>
+        <v>0.1337287984788418</v>
       </c>
       <c r="C120" t="n">
-        <v>0.1344277767671479</v>
+        <v>0.1413499158289697</v>
       </c>
       <c r="D120" t="n">
-        <v>0.5738161559888579</v>
+        <v>0.5701021355617456</v>
       </c>
       <c r="E120" t="n">
-        <v>0.549165120593692</v>
+        <v>0.5361781076066791</v>
       </c>
     </row>
     <row r="121">
@@ -2488,16 +2488,16 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.1287906693623346</v>
+        <v>0.1343739560860045</v>
       </c>
       <c r="C121" t="n">
-        <v>0.1346027246779866</v>
+        <v>0.1416283133957121</v>
       </c>
       <c r="D121" t="n">
-        <v>0.5789229340761374</v>
+        <v>0.5728876508820798</v>
       </c>
       <c r="E121" t="n">
-        <v>0.549165120593692</v>
+        <v>0.5343228200371057</v>
       </c>
     </row>
     <row r="122">
@@ -2505,16 +2505,16 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.1277944964959341</v>
+        <v>0.1331691770430873</v>
       </c>
       <c r="C122" t="n">
-        <v>0.1349670506185955</v>
+        <v>0.1420987488494979</v>
       </c>
       <c r="D122" t="n">
-        <v>0.5812441968430826</v>
+        <v>0.5687093779015785</v>
       </c>
       <c r="E122" t="n">
-        <v>0.549165120593692</v>
+        <v>0.5380333951762524</v>
       </c>
     </row>
     <row r="123">
@@ -2522,16 +2522,16 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0.12746893263915</v>
+        <v>0.1330268111299066</v>
       </c>
       <c r="C123" t="n">
-        <v>0.134431724747022</v>
+        <v>0.1413882598280907</v>
       </c>
       <c r="D123" t="n">
-        <v>0.5779944289693594</v>
+        <v>0.5687093779015785</v>
       </c>
       <c r="E123" t="n">
-        <v>0.5528756957328386</v>
+        <v>0.5343228200371057</v>
       </c>
     </row>
     <row r="124">
@@ -2539,16 +2539,16 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.1279081036062802</v>
+        <v>0.1333244883400553</v>
       </c>
       <c r="C124" t="n">
-        <v>0.1347689007719358</v>
+        <v>0.1416986899243461</v>
       </c>
       <c r="D124" t="n">
-        <v>0.5821727019498607</v>
+        <v>0.5779944289693594</v>
       </c>
       <c r="E124" t="n">
-        <v>0.5528756957328386</v>
+        <v>0.5380333951762524</v>
       </c>
     </row>
     <row r="125">
@@ -2556,16 +2556,16 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.1284294779248097</v>
+        <v>0.1340413584428675</v>
       </c>
       <c r="C125" t="n">
-        <v>0.1349905191196336</v>
+        <v>0.1420066265596284</v>
       </c>
       <c r="D125" t="n">
-        <v>0.5756731662024142</v>
+        <v>0.5714948932219127</v>
       </c>
       <c r="E125" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.5473098330241187</v>
       </c>
     </row>
     <row r="126">
@@ -2573,16 +2573,16 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.1273655448766316</v>
+        <v>0.1326582326608546</v>
       </c>
       <c r="C126" t="n">
-        <v>0.1345964438385434</v>
+        <v>0.1413737676209874</v>
       </c>
       <c r="D126" t="n">
-        <v>0.5775301764159703</v>
+        <v>0.5687093779015785</v>
       </c>
       <c r="E126" t="n">
-        <v>0.5584415584415584</v>
+        <v>0.5435992578849722</v>
       </c>
     </row>
     <row r="127">
@@ -2590,16 +2590,16 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.1280156198669882</v>
+        <v>0.1332396325819633</v>
       </c>
       <c r="C127" t="n">
-        <v>0.1341955463091532</v>
+        <v>0.1410248759720061</v>
       </c>
       <c r="D127" t="n">
-        <v>0.5761374187558032</v>
+        <v>0.5631383472609099</v>
       </c>
       <c r="E127" t="n">
-        <v>0.5528756957328386</v>
+        <v>0.5473098330241187</v>
       </c>
     </row>
     <row r="128">
@@ -2607,16 +2607,16 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0.1257399984580629</v>
+        <v>0.1311568872017019</v>
       </c>
       <c r="C128" t="n">
-        <v>0.1343225265542666</v>
+        <v>0.1412371653649542</v>
       </c>
       <c r="D128" t="n">
-        <v>0.596100278551532</v>
+        <v>0.585886722376973</v>
       </c>
       <c r="E128" t="n">
-        <v>0.5528756957328386</v>
+        <v>0.549165120593692</v>
       </c>
     </row>
     <row r="129">
@@ -2624,16 +2624,16 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>0.1265749041648472</v>
+        <v>0.1320407421273344</v>
       </c>
       <c r="C129" t="n">
-        <v>0.1343856602907181</v>
+        <v>0.141244704524676</v>
       </c>
       <c r="D129" t="n">
-        <v>0.5896007428040855</v>
+        <v>0.5826369545032498</v>
       </c>
       <c r="E129" t="n">
-        <v>0.5528756957328386</v>
+        <v>0.5473098330241187</v>
       </c>
     </row>
     <row r="130">
@@ -2641,16 +2641,16 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>0.1273713313481387</v>
+        <v>0.1329310095923788</v>
       </c>
       <c r="C130" t="n">
-        <v>0.1344325757688946</v>
+        <v>0.1415190050999323</v>
       </c>
       <c r="D130" t="n">
-        <v>0.585422469823584</v>
+        <v>0.5803156917363046</v>
       </c>
       <c r="E130" t="n">
-        <v>0.5584415584415584</v>
+        <v>0.5435992578849722</v>
       </c>
     </row>
     <row r="131">
@@ -2658,16 +2658,16 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0.1248146310886916</v>
+        <v>0.1302604462732287</v>
       </c>
       <c r="C131" t="n">
-        <v>0.1346750557422638</v>
+        <v>0.1416003190808826</v>
       </c>
       <c r="D131" t="n">
-        <v>0.5840297121634169</v>
+        <v>0.5770659238625813</v>
       </c>
       <c r="E131" t="n">
-        <v>0.5584415584415584</v>
+        <v>0.5510204081632653</v>
       </c>
     </row>
     <row r="132">
@@ -2675,16 +2675,16 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>0.1261616627521375</v>
+        <v>0.1314767544322154</v>
       </c>
       <c r="C132" t="n">
-        <v>0.1344409154521095</v>
+        <v>0.1415205887622303</v>
       </c>
       <c r="D132" t="n">
-        <v>0.5775301764159703</v>
+        <v>0.5719591457753017</v>
       </c>
       <c r="E132" t="n">
-        <v>0.5584415584415584</v>
+        <v>0.549165120593692</v>
       </c>
     </row>
     <row r="133">
@@ -2692,16 +2692,16 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>0.1258740955415894</v>
+        <v>0.1310705288368113</v>
       </c>
       <c r="C133" t="n">
-        <v>0.1349817365407944</v>
+        <v>0.1421018780933486</v>
       </c>
       <c r="D133" t="n">
-        <v>0.5951717734447539</v>
+        <v>0.5896007428040855</v>
       </c>
       <c r="E133" t="n">
-        <v>0.5547309833024119</v>
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="134">
@@ -2709,16 +2709,16 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0.1273632634650259</v>
+        <v>0.1330341569641057</v>
       </c>
       <c r="C134" t="n">
-        <v>0.134388778772619</v>
+        <v>0.1415849741962221</v>
       </c>
       <c r="D134" t="n">
-        <v>0.585422469823584</v>
+        <v>0.5659238625812442</v>
       </c>
       <c r="E134" t="n">
-        <v>0.5547309833024119</v>
+        <v>0.5435992578849722</v>
       </c>
     </row>
     <row r="135">
@@ -2726,13 +2726,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>0.1266335726660841</v>
+        <v>0.1318237869178548</v>
       </c>
       <c r="C135" t="n">
-        <v>0.1346906771262487</v>
+        <v>0.1419211700558662</v>
       </c>
       <c r="D135" t="n">
-        <v>0.5784586815227484</v>
+        <v>0.5691736304549675</v>
       </c>
       <c r="E135" t="n">
         <v>0.5473098330241187</v>
@@ -2743,16 +2743,16 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>0.1272351901759119</v>
+        <v>0.1327232898158186</v>
       </c>
       <c r="C136" t="n">
-        <v>0.1343573464287652</v>
+        <v>0.1415462055140072</v>
       </c>
       <c r="D136" t="n">
-        <v>0.5761374187558032</v>
+        <v>0.5598885793871866</v>
       </c>
       <c r="E136" t="n">
-        <v>0.5565862708719852</v>
+        <v>0.549165120593692</v>
       </c>
     </row>
     <row r="137">
@@ -2760,13 +2760,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0.125172502196887</v>
+        <v>0.1303882712827009</v>
       </c>
       <c r="C137" t="n">
-        <v>0.1344346031546593</v>
+        <v>0.1414868028627502</v>
       </c>
       <c r="D137" t="n">
-        <v>0.575208913649025</v>
+        <v>0.5622098421541318</v>
       </c>
       <c r="E137" t="n">
         <v>0.549165120593692</v>
@@ -2777,16 +2777,16 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>0.1260892012540032</v>
+        <v>0.1312906560214127</v>
       </c>
       <c r="C138" t="n">
-        <v>0.1344849301709069</v>
+        <v>0.1415102200375663</v>
       </c>
       <c r="D138" t="n">
-        <v>0.5877437325905293</v>
+        <v>0.5779944289693594</v>
       </c>
       <c r="E138" t="n">
-        <v>0.5528756957328386</v>
+        <v>0.5417439703153989</v>
       </c>
     </row>
     <row r="139">
@@ -2794,16 +2794,16 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>0.124224068268257</v>
+        <v>0.1295807403238381</v>
       </c>
       <c r="C139" t="n">
-        <v>0.1346745325459374</v>
+        <v>0.1416972279548645</v>
       </c>
       <c r="D139" t="n">
-        <v>0.5868152274837511</v>
+        <v>0.5840297121634169</v>
       </c>
       <c r="E139" t="n">
-        <v>0.5584415584415584</v>
+        <v>0.5398886827458256</v>
       </c>
     </row>
     <row r="140">
@@ -2811,16 +2811,16 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>0.1257564453955959</v>
+        <v>0.1309348625295302</v>
       </c>
       <c r="C140" t="n">
-        <v>0.1340107892950376</v>
+        <v>0.1409506640500492</v>
       </c>
       <c r="D140" t="n">
-        <v>0.5705663881151346</v>
+        <v>0.5594243268337976</v>
       </c>
       <c r="E140" t="n">
-        <v>0.5640074211502782</v>
+        <v>0.5473098330241187</v>
       </c>
     </row>
     <row r="141">
@@ -2828,16 +2828,16 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>0.1233552367809941</v>
+        <v>0.1282529035473571</v>
       </c>
       <c r="C141" t="n">
-        <v>0.1347290832135412</v>
+        <v>0.1416431897216373</v>
       </c>
       <c r="D141" t="n">
-        <v>0.6044568245125348</v>
+        <v>0.5974930362116991</v>
       </c>
       <c r="E141" t="n">
-        <v>0.5602968460111317</v>
+        <v>0.549165120593692</v>
       </c>
     </row>
     <row r="142">
@@ -2845,16 +2845,16 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>0.1243427601807258</v>
+        <v>0.1292968977461843</v>
       </c>
       <c r="C142" t="n">
-        <v>0.1347957187228733</v>
+        <v>0.1416030550996462</v>
       </c>
       <c r="D142" t="n">
-        <v>0.5988857938718662</v>
+        <v>0.5919220055710307</v>
       </c>
       <c r="E142" t="n">
-        <v>0.5547309833024119</v>
+        <v>0.5380333951762524</v>
       </c>
     </row>
     <row r="143">
@@ -2862,16 +2862,16 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0.1254468424355283</v>
+        <v>0.1306977127404774</v>
       </c>
       <c r="C143" t="n">
-        <v>0.1343177325195736</v>
+        <v>0.1409272725383441</v>
       </c>
       <c r="D143" t="n">
-        <v>0.5909935004642526</v>
+        <v>0.5798514391829155</v>
       </c>
       <c r="E143" t="n">
-        <v>0.5547309833024119</v>
+        <v>0.549165120593692</v>
       </c>
     </row>
     <row r="144">
@@ -2879,16 +2879,16 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>0.1247543418670402</v>
+        <v>0.12995041227516</v>
       </c>
       <c r="C144" t="n">
-        <v>0.1339956762062179</v>
+        <v>0.1407444154222806</v>
       </c>
       <c r="D144" t="n">
-        <v>0.585422469823584</v>
+        <v>0.5789229340761374</v>
       </c>
       <c r="E144" t="n">
-        <v>0.5658627087198516</v>
+        <v>0.5547309833024119</v>
       </c>
     </row>
     <row r="145">
@@ -2896,16 +2896,16 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>0.1259129877914401</v>
+        <v>0.1313717472640907</v>
       </c>
       <c r="C145" t="n">
-        <v>0.1339544049567646</v>
+        <v>0.1409764265020688</v>
       </c>
       <c r="D145" t="n">
-        <v>0.5803156917363046</v>
+        <v>0.5691736304549675</v>
       </c>
       <c r="E145" t="n">
-        <v>0.5602968460111317</v>
+        <v>0.549165120593692</v>
       </c>
     </row>
     <row r="146">
@@ -2913,16 +2913,16 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>0.1230592074639657</v>
+        <v>0.1282374692313811</v>
       </c>
       <c r="C146" t="n">
-        <v>0.1344195960296525</v>
+        <v>0.1414991782771217</v>
       </c>
       <c r="D146" t="n">
-        <v>0.5923862581244197</v>
+        <v>0.5896007428040855</v>
       </c>
       <c r="E146" t="n">
-        <v>0.5602968460111317</v>
+        <v>0.5528756957328386</v>
       </c>
     </row>
     <row r="147">
@@ -2930,16 +2930,16 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>0.123323302496882</v>
+        <v>0.1284809555200969</v>
       </c>
       <c r="C147" t="n">
-        <v>0.1339016440841887</v>
+        <v>0.1408673466907607</v>
       </c>
       <c r="D147" t="n">
-        <v>0.6007428040854225</v>
+        <v>0.5900649953574745</v>
       </c>
       <c r="E147" t="n">
-        <v>0.5658627087198516</v>
+        <v>0.5528756957328386</v>
       </c>
     </row>
     <row r="148">
@@ -2947,16 +2947,16 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>0.1228852044133579</v>
+        <v>0.1277718035613789</v>
       </c>
       <c r="C148" t="n">
-        <v>0.134308945801523</v>
+        <v>0.1413880876368946</v>
       </c>
       <c r="D148" t="n">
-        <v>0.6039925719591458</v>
+        <v>0.596564531104921</v>
       </c>
       <c r="E148" t="n">
-        <v>0.5510204081632653</v>
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="149">
@@ -2964,16 +2964,16 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>0.1259227958233917</v>
+        <v>0.1309203737798859</v>
       </c>
       <c r="C149" t="n">
-        <v>0.1341177167163955</v>
+        <v>0.1411717327104675</v>
       </c>
       <c r="D149" t="n">
-        <v>0.585422469823584</v>
+        <v>0.5691736304549675</v>
       </c>
       <c r="E149" t="n">
-        <v>0.5547309833024119</v>
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="150">
@@ -2981,16 +2981,16 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>0.1228721507770174</v>
+        <v>0.1280981762444272</v>
       </c>
       <c r="C150" t="n">
-        <v>0.1335339860783683</v>
+        <v>0.1404556185007095</v>
       </c>
       <c r="D150" t="n">
-        <v>0.5942432683379758</v>
+        <v>0.5840297121634169</v>
       </c>
       <c r="E150" t="n">
-        <v>0.5584415584415584</v>
+        <v>0.5547309833024119</v>
       </c>
     </row>
     <row r="151">
@@ -2998,16 +2998,16 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>0.1246181268464116</v>
+        <v>0.1300379725940087</v>
       </c>
       <c r="C151" t="n">
-        <v>0.1336281473437945</v>
+        <v>0.1404853355553415</v>
       </c>
       <c r="D151" t="n">
-        <v>0.5923862581244197</v>
+        <v>0.584958217270195</v>
       </c>
       <c r="E151" t="n">
-        <v>0.5602968460111317</v>
+        <v>0.5435992578849722</v>
       </c>
     </row>
     <row r="152">
@@ -3015,16 +3015,16 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>0.1241030848639853</v>
+        <v>0.1291832525063963</v>
       </c>
       <c r="C152" t="n">
-        <v>0.1335246157315042</v>
+        <v>0.1403319165110588</v>
       </c>
       <c r="D152" t="n">
-        <v>0.5868152274837511</v>
+        <v>0.5877437325905293</v>
       </c>
       <c r="E152" t="n">
-        <v>0.5602968460111317</v>
+        <v>0.5510204081632653</v>
       </c>
     </row>
   </sheetData>
